--- a/Code/Results/Cases/Case_3_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9906220111070275</v>
+        <v>0.9906220111070267</v>
       </c>
       <c r="D2">
-        <v>1.009476639666502</v>
+        <v>1.009476639666501</v>
       </c>
       <c r="E2">
-        <v>0.9979979412591924</v>
+        <v>0.9979979412591913</v>
       </c>
       <c r="F2">
-        <v>0.9905502887867738</v>
+        <v>0.9905502887867732</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.998415606490984</v>
+        <v>0.9984156064909849</v>
       </c>
       <c r="D3">
-        <v>1.015437947456988</v>
+        <v>1.015437947456989</v>
       </c>
       <c r="E3">
-        <v>1.004734180787515</v>
+        <v>1.004734180787516</v>
       </c>
       <c r="F3">
-        <v>0.9991996504593962</v>
+        <v>0.9991996504593971</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.043046407709132</v>
       </c>
       <c r="J3">
-        <v>1.018949557057468</v>
+        <v>1.018949557057469</v>
       </c>
       <c r="K3">
         <v>1.025877035164757</v>
       </c>
       <c r="L3">
-        <v>1.015306843153684</v>
+        <v>1.015306843153685</v>
       </c>
       <c r="M3">
-        <v>1.009842782160637</v>
+        <v>1.009842782160638</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,7 +503,7 @@
         <v>1.019170294210713</v>
       </c>
       <c r="E4">
-        <v>1.008955029529015</v>
+        <v>1.008955029529014</v>
       </c>
       <c r="F4">
         <v>1.004618324494658</v>
@@ -518,13 +518,13 @@
         <v>1.022612901111064</v>
       </c>
       <c r="K4">
-        <v>1.029042727895128</v>
+        <v>1.029042727895127</v>
       </c>
       <c r="L4">
         <v>1.018946563477312</v>
       </c>
       <c r="M4">
-        <v>1.014661328157484</v>
+        <v>1.014661328157483</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005306308387995</v>
+        <v>1.005306308387996</v>
       </c>
       <c r="D5">
-        <v>1.020711148333278</v>
+        <v>1.02071114833328</v>
       </c>
       <c r="E5">
-        <v>1.010698399374999</v>
+        <v>1.010698399375</v>
       </c>
       <c r="F5">
-        <v>1.00685638859152</v>
+        <v>1.006856388591521</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.045468574568991</v>
       </c>
       <c r="J5">
-        <v>1.024123581508553</v>
+        <v>1.024123581508554</v>
       </c>
       <c r="K5">
-        <v>1.030347373337381</v>
+        <v>1.030347373337382</v>
       </c>
       <c r="L5">
-        <v>1.020447990608061</v>
+        <v>1.020447990608062</v>
       </c>
       <c r="M5">
-        <v>1.01665021920488</v>
+        <v>1.016650219204881</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0056422241553</v>
+        <v>1.005642224155299</v>
       </c>
       <c r="D6">
-        <v>1.020968256110699</v>
+        <v>1.020968256110698</v>
       </c>
       <c r="E6">
-        <v>1.010989349977613</v>
+        <v>1.010989349977612</v>
       </c>
       <c r="F6">
         <v>1.007229900084057</v>
@@ -588,13 +588,13 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045585967338124</v>
+        <v>1.045585967338123</v>
       </c>
       <c r="J6">
-        <v>1.024375556706901</v>
+        <v>1.0243755567069</v>
       </c>
       <c r="K6">
-        <v>1.030564934133331</v>
+        <v>1.03056493413333</v>
       </c>
       <c r="L6">
         <v>1.020698451129201</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9932916822828186</v>
+        <v>0.9932916822828214</v>
       </c>
       <c r="D8">
-        <v>1.011518255310302</v>
+        <v>1.011518255310304</v>
       </c>
       <c r="E8">
-        <v>1.000304281276177</v>
+        <v>1.000304281276179</v>
       </c>
       <c r="F8">
-        <v>0.9935119405348319</v>
+        <v>0.9935119405348345</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041229086525335</v>
+        <v>1.041229086525337</v>
       </c>
       <c r="J8">
-        <v>1.015096284463263</v>
+        <v>1.015096284463266</v>
       </c>
       <c r="K8">
-        <v>1.022544432549111</v>
+        <v>1.022544432549113</v>
       </c>
       <c r="L8">
-        <v>1.011480132455385</v>
+        <v>1.011480132455387</v>
       </c>
       <c r="M8">
-        <v>1.004780519911606</v>
+        <v>1.004780519911608</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9742314342747014</v>
+        <v>0.9742314342747024</v>
       </c>
       <c r="D9">
-        <v>0.9969543968006265</v>
+        <v>0.9969543968006274</v>
       </c>
       <c r="E9">
-        <v>0.983864331532242</v>
+        <v>0.9838643315322425</v>
       </c>
       <c r="F9">
-        <v>0.9723889358960046</v>
+        <v>0.9723889358960051</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.034367080123379</v>
       </c>
       <c r="J9">
-        <v>1.0007281538591</v>
+        <v>1.000728153859101</v>
       </c>
       <c r="K9">
-        <v>1.01009708081552</v>
+        <v>1.010097080815521</v>
       </c>
       <c r="L9">
-        <v>0.9972247384794053</v>
+        <v>0.997224738479406</v>
       </c>
       <c r="M9">
-        <v>0.9859464529867406</v>
+        <v>0.9859464529867412</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9603960097298521</v>
+        <v>0.9603960097298532</v>
       </c>
       <c r="D10">
-        <v>0.9864056578231754</v>
+        <v>0.9864056578231759</v>
       </c>
       <c r="E10">
-        <v>0.9719699188017225</v>
+        <v>0.9719699188017229</v>
       </c>
       <c r="F10">
-        <v>0.9570805677043925</v>
+        <v>0.9570805677043932</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.029304926514153</v>
       </c>
       <c r="J10">
-        <v>0.9902740872749488</v>
+        <v>0.9902740872749497</v>
       </c>
       <c r="K10">
         <v>1.001024778304247</v>
       </c>
       <c r="L10">
-        <v>0.9868644042987582</v>
+        <v>0.9868644042987588</v>
       </c>
       <c r="M10">
-        <v>0.9722705366048878</v>
+        <v>0.9722705366048887</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,13 +763,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9540847612863693</v>
+        <v>0.9540847612863688</v>
       </c>
       <c r="D11">
-        <v>0.9816016776303046</v>
+        <v>0.9816016776303041</v>
       </c>
       <c r="E11">
-        <v>0.9665552932330763</v>
+        <v>0.9665552932330759</v>
       </c>
       <c r="F11">
         <v>0.9501017678117115</v>
@@ -781,16 +781,16 @@
         <v>1.026977745475797</v>
       </c>
       <c r="J11">
-        <v>0.9855007827538207</v>
+        <v>0.9855007827538202</v>
       </c>
       <c r="K11">
-        <v>0.9968791049186678</v>
+        <v>0.9968791049186676</v>
       </c>
       <c r="L11">
-        <v>0.9821367446196064</v>
+        <v>0.9821367446196061</v>
       </c>
       <c r="M11">
-        <v>0.9660303054687982</v>
+        <v>0.9660303054687981</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -804,13 +804,13 @@
         <v>0.9516869953660265</v>
       </c>
       <c r="D12">
-        <v>0.9797780042789905</v>
+        <v>0.9797780042789904</v>
       </c>
       <c r="E12">
-        <v>0.9645000445855982</v>
+        <v>0.9645000445855981</v>
       </c>
       <c r="F12">
-        <v>0.9474508912082726</v>
+        <v>0.9474508912082725</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.026091025782175</v>
       </c>
       <c r="J12">
-        <v>0.98368676268462</v>
+        <v>0.9836867626846199</v>
       </c>
       <c r="K12">
-        <v>0.9953031585317123</v>
+        <v>0.9953031585317121</v>
       </c>
       <c r="L12">
-        <v>0.9803405056952891</v>
+        <v>0.980340505695289</v>
       </c>
       <c r="M12">
-        <v>0.9636591912287992</v>
+        <v>0.9636591912287991</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9522038399019759</v>
+        <v>0.9522038399019758</v>
       </c>
       <c r="D13">
-        <v>0.980171031841821</v>
+        <v>0.9801710318418211</v>
       </c>
       <c r="E13">
-        <v>0.9649429708619321</v>
+        <v>0.964942970861932</v>
       </c>
       <c r="F13">
-        <v>0.9480222742923242</v>
+        <v>0.9480222742923243</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.026282274583569</v>
       </c>
       <c r="J13">
-        <v>0.9840778018213574</v>
+        <v>0.9840778018213573</v>
       </c>
       <c r="K13">
-        <v>0.9956428967500108</v>
+        <v>0.9956428967500107</v>
       </c>
       <c r="L13">
-        <v>0.9807276921189949</v>
+        <v>0.9807276921189948</v>
       </c>
       <c r="M13">
-        <v>0.9641703069888918</v>
+        <v>0.9641703069888916</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9538876862928914</v>
+        <v>0.9538876862928926</v>
       </c>
       <c r="D14">
-        <v>0.9814517569686844</v>
+        <v>0.981451756968685</v>
       </c>
       <c r="E14">
-        <v>0.9663863309977069</v>
+        <v>0.9663863309977077</v>
       </c>
       <c r="F14">
-        <v>0.9498838800976124</v>
+        <v>0.9498838800976135</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.026904916460343</v>
       </c>
       <c r="J14">
-        <v>0.9853516967814884</v>
+        <v>0.985351696781489</v>
       </c>
       <c r="K14">
-        <v>0.99674959391992</v>
+        <v>0.9967495939199207</v>
       </c>
       <c r="L14">
-        <v>0.9819891111547375</v>
+        <v>0.9819891111547386</v>
       </c>
       <c r="M14">
-        <v>0.9658354281033369</v>
+        <v>0.9658354281033379</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9549178976628788</v>
+        <v>0.9549178976628767</v>
       </c>
       <c r="D15">
-        <v>0.9822355291201559</v>
+        <v>0.9822355291201542</v>
       </c>
       <c r="E15">
-        <v>0.9672696598486292</v>
+        <v>0.9672696598486276</v>
       </c>
       <c r="F15">
-        <v>0.9510229097001117</v>
+        <v>0.9510229097001103</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027285526980055</v>
+        <v>1.027285526980054</v>
       </c>
       <c r="J15">
-        <v>0.9861310236326933</v>
+        <v>0.9861310236326915</v>
       </c>
       <c r="K15">
-        <v>0.9974265773440982</v>
+        <v>0.9974265773440966</v>
       </c>
       <c r="L15">
-        <v>0.982760862892685</v>
+        <v>0.9827608628926834</v>
       </c>
       <c r="M15">
-        <v>0.9668541375642592</v>
+        <v>0.9668541375642575</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.960807677935361</v>
+        <v>0.9608076779353601</v>
       </c>
       <c r="D16">
-        <v>0.9867191955665681</v>
+        <v>0.9867191955665678</v>
       </c>
       <c r="E16">
-        <v>0.9723233487048241</v>
+        <v>0.9723233487048232</v>
       </c>
       <c r="F16">
-        <v>0.9575358566682239</v>
+        <v>0.9575358566682234</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029456362147409</v>
+        <v>1.029456362147408</v>
       </c>
       <c r="J16">
-        <v>0.9905853562694593</v>
+        <v>0.9905853562694585</v>
       </c>
       <c r="K16">
         <v>1.001295055269831</v>
       </c>
       <c r="L16">
-        <v>0.9871727560151353</v>
+        <v>0.9871727560151344</v>
       </c>
       <c r="M16">
-        <v>0.9726775312015993</v>
+        <v>0.9726775312015987</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9644128741990257</v>
+        <v>0.964412874199026</v>
       </c>
       <c r="D17">
-        <v>0.9894659363046174</v>
+        <v>0.9894659363046181</v>
       </c>
       <c r="E17">
-        <v>0.9754197996648691</v>
+        <v>0.97541979966487</v>
       </c>
       <c r="F17">
-        <v>0.9615235372498717</v>
+        <v>0.9615235372498724</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030780555555209</v>
+        <v>1.03078055555521</v>
       </c>
       <c r="J17">
-        <v>0.9933108099483837</v>
+        <v>0.9933108099483844</v>
       </c>
       <c r="K17">
-        <v>1.003661221696131</v>
+        <v>1.003661221696132</v>
       </c>
       <c r="L17">
-        <v>0.9898729865279196</v>
+        <v>0.9898729865279204</v>
       </c>
       <c r="M17">
-        <v>0.9762415955594104</v>
+        <v>0.9762415955594111</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9664852106117523</v>
+        <v>0.9664852106117516</v>
       </c>
       <c r="D18">
-        <v>0.9910455456961962</v>
+        <v>0.9910455456961957</v>
       </c>
       <c r="E18">
-        <v>0.9772007331274509</v>
+        <v>0.9772007331274501</v>
       </c>
       <c r="F18">
-        <v>0.9638161510381591</v>
+        <v>0.9638161510381584</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.031540035859404</v>
       </c>
       <c r="J18">
-        <v>0.9948770219826002</v>
+        <v>0.9948770219825998</v>
       </c>
       <c r="K18">
-        <v>1.005020655780986</v>
+        <v>1.005020655780985</v>
       </c>
       <c r="L18">
-        <v>0.9914249693155659</v>
+        <v>0.9914249693155652</v>
       </c>
       <c r="M18">
-        <v>0.9782901303280852</v>
+        <v>0.9782901303280845</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9671867973063977</v>
+        <v>0.9671867973063998</v>
       </c>
       <c r="D19">
-        <v>0.9915804372388745</v>
+        <v>0.9915804372388761</v>
       </c>
       <c r="E19">
-        <v>0.9778038358907168</v>
+        <v>0.9778038358907186</v>
       </c>
       <c r="F19">
-        <v>0.9645923872293128</v>
+        <v>0.9645923872293147</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031796866471838</v>
+        <v>1.031796866471839</v>
       </c>
       <c r="J19">
-        <v>0.995407184231751</v>
+        <v>0.9954071842317529</v>
       </c>
       <c r="K19">
-        <v>1.00548077000892</v>
+        <v>1.005480770008922</v>
       </c>
       <c r="L19">
-        <v>0.9919503598294898</v>
+        <v>0.9919503598294915</v>
       </c>
       <c r="M19">
-        <v>0.9789836339405039</v>
+        <v>0.9789836339405058</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9640292629244152</v>
+        <v>0.9640292629244158</v>
       </c>
       <c r="D20">
-        <v>0.9891735915006108</v>
+        <v>0.9891735915006116</v>
       </c>
       <c r="E20">
-        <v>0.9750902127066162</v>
+        <v>0.975090212706617</v>
       </c>
       <c r="F20">
-        <v>0.9610991851820133</v>
+        <v>0.9610991851820139</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.030639829739928</v>
       </c>
       <c r="J20">
-        <v>0.9930208517811916</v>
+        <v>0.9930208517811921</v>
       </c>
       <c r="K20">
-        <v>1.003409519626826</v>
+        <v>1.003409519626827</v>
       </c>
       <c r="L20">
-        <v>0.9895856841608736</v>
+        <v>0.9895856841608743</v>
       </c>
       <c r="M20">
-        <v>0.975862377820127</v>
+        <v>0.9758623778201279</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9533933592286009</v>
+        <v>0.9533933592285994</v>
       </c>
       <c r="D21">
-        <v>0.9810757322735115</v>
+        <v>0.9810757322735102</v>
       </c>
       <c r="E21">
-        <v>0.9659625504905142</v>
+        <v>0.9659625504905124</v>
       </c>
       <c r="F21">
-        <v>0.9493373556376778</v>
+        <v>0.9493373556376761</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026722197050449</v>
+        <v>1.026722197050448</v>
       </c>
       <c r="J21">
-        <v>0.9849777331705872</v>
+        <v>0.9849777331705857</v>
       </c>
       <c r="K21">
-        <v>0.9964247246636994</v>
+        <v>0.996424724663698</v>
       </c>
       <c r="L21">
-        <v>0.981618797983333</v>
+        <v>0.9816187979833313</v>
       </c>
       <c r="M21">
-        <v>0.9653466078536673</v>
+        <v>0.9653466078536657</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9463933743743985</v>
+        <v>0.9463933743743982</v>
       </c>
       <c r="D22">
-        <v>0.9757548165913793</v>
+        <v>0.9757548165913791</v>
       </c>
       <c r="E22">
         <v>0.9599663049179373</v>
       </c>
       <c r="F22">
-        <v>0.9415992128964176</v>
+        <v>0.9415992128964178</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.024128775946487</v>
       </c>
       <c r="J22">
-        <v>0.9796810400030844</v>
+        <v>0.9796810400030843</v>
       </c>
       <c r="K22">
-        <v>0.991822377439932</v>
+        <v>0.9918223774399315</v>
       </c>
       <c r="L22">
-        <v>0.9763748592596779</v>
+        <v>0.9763748592596782</v>
       </c>
       <c r="M22">
-        <v>0.9584237149928478</v>
+        <v>0.9584237149928481</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9501358647614421</v>
+        <v>0.9501358647614434</v>
       </c>
       <c r="D23">
-        <v>0.9785987016646486</v>
+        <v>0.9785987016646497</v>
       </c>
       <c r="E23">
-        <v>0.9631710448056241</v>
+        <v>0.9631710448056251</v>
       </c>
       <c r="F23">
-        <v>0.9457361429597497</v>
+        <v>0.9457361429597513</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025516691016058</v>
+        <v>1.025516691016059</v>
       </c>
       <c r="J23">
-        <v>0.9825131240616074</v>
+        <v>0.9825131240616086</v>
       </c>
       <c r="K23">
-        <v>0.9942834291413616</v>
+        <v>0.9942834291413625</v>
       </c>
       <c r="L23">
-        <v>0.9791784946509925</v>
+        <v>0.9791784946509935</v>
       </c>
       <c r="M23">
-        <v>0.9621251993851052</v>
+        <v>0.9621251993851065</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9642026942485746</v>
+        <v>0.9642026942485757</v>
       </c>
       <c r="D24">
-        <v>0.9893057588438035</v>
+        <v>0.989305758843804</v>
       </c>
       <c r="E24">
-        <v>0.9752392163431991</v>
+        <v>0.9752392163432002</v>
       </c>
       <c r="F24">
-        <v>0.961291034179392</v>
+        <v>0.9612910341793931</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.030703457394586</v>
       </c>
       <c r="J24">
-        <v>0.9931519437232814</v>
+        <v>0.9931519437232821</v>
       </c>
       <c r="K24">
         <v>1.003523316708268</v>
       </c>
       <c r="L24">
-        <v>0.9897155745735227</v>
+        <v>0.9897155745735237</v>
       </c>
       <c r="M24">
-        <v>0.9760338233066397</v>
+        <v>0.9760338233066408</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9793420374640268</v>
+        <v>0.9793420374640259</v>
       </c>
       <c r="D25">
         <v>1.000856270565569</v>
       </c>
       <c r="E25">
-        <v>0.9882663232407966</v>
+        <v>0.9882663232407958</v>
       </c>
       <c r="F25">
-        <v>0.9780480981798021</v>
+        <v>0.9780480981798015</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.036221090857272</v>
       </c>
       <c r="J25">
-        <v>1.00458520123777</v>
+        <v>1.004585201237769</v>
       </c>
       <c r="K25">
         <v>1.013441308563193</v>
       </c>
       <c r="L25">
-        <v>1.001049561995967</v>
+        <v>1.001049561995966</v>
       </c>
       <c r="M25">
-        <v>0.9909970241535381</v>
+        <v>0.9909970241535376</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9906220111070267</v>
+        <v>0.9906220111070275</v>
       </c>
       <c r="D2">
-        <v>1.009476639666501</v>
+        <v>1.009476639666502</v>
       </c>
       <c r="E2">
-        <v>0.9979979412591913</v>
+        <v>0.9979979412591924</v>
       </c>
       <c r="F2">
-        <v>0.9905502887867732</v>
+        <v>0.9905502887867738</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9984156064909849</v>
+        <v>0.998415606490984</v>
       </c>
       <c r="D3">
-        <v>1.015437947456989</v>
+        <v>1.015437947456988</v>
       </c>
       <c r="E3">
-        <v>1.004734180787516</v>
+        <v>1.004734180787515</v>
       </c>
       <c r="F3">
-        <v>0.9991996504593971</v>
+        <v>0.9991996504593962</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.043046407709132</v>
       </c>
       <c r="J3">
-        <v>1.018949557057469</v>
+        <v>1.018949557057468</v>
       </c>
       <c r="K3">
         <v>1.025877035164757</v>
       </c>
       <c r="L3">
-        <v>1.015306843153685</v>
+        <v>1.015306843153684</v>
       </c>
       <c r="M3">
-        <v>1.009842782160638</v>
+        <v>1.009842782160637</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,7 +503,7 @@
         <v>1.019170294210713</v>
       </c>
       <c r="E4">
-        <v>1.008955029529014</v>
+        <v>1.008955029529015</v>
       </c>
       <c r="F4">
         <v>1.004618324494658</v>
@@ -518,13 +518,13 @@
         <v>1.022612901111064</v>
       </c>
       <c r="K4">
-        <v>1.029042727895127</v>
+        <v>1.029042727895128</v>
       </c>
       <c r="L4">
         <v>1.018946563477312</v>
       </c>
       <c r="M4">
-        <v>1.014661328157483</v>
+        <v>1.014661328157484</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005306308387996</v>
+        <v>1.005306308387995</v>
       </c>
       <c r="D5">
-        <v>1.02071114833328</v>
+        <v>1.020711148333278</v>
       </c>
       <c r="E5">
-        <v>1.010698399375</v>
+        <v>1.010698399374999</v>
       </c>
       <c r="F5">
-        <v>1.006856388591521</v>
+        <v>1.00685638859152</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.045468574568991</v>
       </c>
       <c r="J5">
-        <v>1.024123581508554</v>
+        <v>1.024123581508553</v>
       </c>
       <c r="K5">
-        <v>1.030347373337382</v>
+        <v>1.030347373337381</v>
       </c>
       <c r="L5">
-        <v>1.020447990608062</v>
+        <v>1.020447990608061</v>
       </c>
       <c r="M5">
-        <v>1.016650219204881</v>
+        <v>1.01665021920488</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005642224155299</v>
+        <v>1.0056422241553</v>
       </c>
       <c r="D6">
-        <v>1.020968256110698</v>
+        <v>1.020968256110699</v>
       </c>
       <c r="E6">
-        <v>1.010989349977612</v>
+        <v>1.010989349977613</v>
       </c>
       <c r="F6">
         <v>1.007229900084057</v>
@@ -588,13 +588,13 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045585967338123</v>
+        <v>1.045585967338124</v>
       </c>
       <c r="J6">
-        <v>1.0243755567069</v>
+        <v>1.024375556706901</v>
       </c>
       <c r="K6">
-        <v>1.03056493413333</v>
+        <v>1.030564934133331</v>
       </c>
       <c r="L6">
         <v>1.020698451129201</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9932916822828214</v>
+        <v>0.9932916822828186</v>
       </c>
       <c r="D8">
-        <v>1.011518255310304</v>
+        <v>1.011518255310302</v>
       </c>
       <c r="E8">
-        <v>1.000304281276179</v>
+        <v>1.000304281276177</v>
       </c>
       <c r="F8">
-        <v>0.9935119405348345</v>
+        <v>0.9935119405348319</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041229086525337</v>
+        <v>1.041229086525335</v>
       </c>
       <c r="J8">
-        <v>1.015096284463266</v>
+        <v>1.015096284463263</v>
       </c>
       <c r="K8">
-        <v>1.022544432549113</v>
+        <v>1.022544432549111</v>
       </c>
       <c r="L8">
-        <v>1.011480132455387</v>
+        <v>1.011480132455385</v>
       </c>
       <c r="M8">
-        <v>1.004780519911608</v>
+        <v>1.004780519911606</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9742314342747024</v>
+        <v>0.9742314342747014</v>
       </c>
       <c r="D9">
-        <v>0.9969543968006274</v>
+        <v>0.9969543968006265</v>
       </c>
       <c r="E9">
-        <v>0.9838643315322425</v>
+        <v>0.983864331532242</v>
       </c>
       <c r="F9">
-        <v>0.9723889358960051</v>
+        <v>0.9723889358960046</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.034367080123379</v>
       </c>
       <c r="J9">
-        <v>1.000728153859101</v>
+        <v>1.0007281538591</v>
       </c>
       <c r="K9">
-        <v>1.010097080815521</v>
+        <v>1.01009708081552</v>
       </c>
       <c r="L9">
-        <v>0.997224738479406</v>
+        <v>0.9972247384794053</v>
       </c>
       <c r="M9">
-        <v>0.9859464529867412</v>
+        <v>0.9859464529867406</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9603960097298532</v>
+        <v>0.9603960097298521</v>
       </c>
       <c r="D10">
-        <v>0.9864056578231759</v>
+        <v>0.9864056578231754</v>
       </c>
       <c r="E10">
-        <v>0.9719699188017229</v>
+        <v>0.9719699188017225</v>
       </c>
       <c r="F10">
-        <v>0.9570805677043932</v>
+        <v>0.9570805677043925</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.029304926514153</v>
       </c>
       <c r="J10">
-        <v>0.9902740872749497</v>
+        <v>0.9902740872749488</v>
       </c>
       <c r="K10">
         <v>1.001024778304247</v>
       </c>
       <c r="L10">
-        <v>0.9868644042987588</v>
+        <v>0.9868644042987582</v>
       </c>
       <c r="M10">
-        <v>0.9722705366048887</v>
+        <v>0.9722705366048878</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,13 +763,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9540847612863688</v>
+        <v>0.9540847612863693</v>
       </c>
       <c r="D11">
-        <v>0.9816016776303041</v>
+        <v>0.9816016776303046</v>
       </c>
       <c r="E11">
-        <v>0.9665552932330759</v>
+        <v>0.9665552932330763</v>
       </c>
       <c r="F11">
         <v>0.9501017678117115</v>
@@ -781,16 +781,16 @@
         <v>1.026977745475797</v>
       </c>
       <c r="J11">
-        <v>0.9855007827538202</v>
+        <v>0.9855007827538207</v>
       </c>
       <c r="K11">
-        <v>0.9968791049186676</v>
+        <v>0.9968791049186678</v>
       </c>
       <c r="L11">
-        <v>0.9821367446196061</v>
+        <v>0.9821367446196064</v>
       </c>
       <c r="M11">
-        <v>0.9660303054687981</v>
+        <v>0.9660303054687982</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -804,13 +804,13 @@
         <v>0.9516869953660265</v>
       </c>
       <c r="D12">
-        <v>0.9797780042789904</v>
+        <v>0.9797780042789905</v>
       </c>
       <c r="E12">
-        <v>0.9645000445855981</v>
+        <v>0.9645000445855982</v>
       </c>
       <c r="F12">
-        <v>0.9474508912082725</v>
+        <v>0.9474508912082726</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.026091025782175</v>
       </c>
       <c r="J12">
-        <v>0.9836867626846199</v>
+        <v>0.98368676268462</v>
       </c>
       <c r="K12">
-        <v>0.9953031585317121</v>
+        <v>0.9953031585317123</v>
       </c>
       <c r="L12">
-        <v>0.980340505695289</v>
+        <v>0.9803405056952891</v>
       </c>
       <c r="M12">
-        <v>0.9636591912287991</v>
+        <v>0.9636591912287992</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9522038399019758</v>
+        <v>0.9522038399019759</v>
       </c>
       <c r="D13">
-        <v>0.9801710318418211</v>
+        <v>0.980171031841821</v>
       </c>
       <c r="E13">
-        <v>0.964942970861932</v>
+        <v>0.9649429708619321</v>
       </c>
       <c r="F13">
-        <v>0.9480222742923243</v>
+        <v>0.9480222742923242</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.026282274583569</v>
       </c>
       <c r="J13">
-        <v>0.9840778018213573</v>
+        <v>0.9840778018213574</v>
       </c>
       <c r="K13">
-        <v>0.9956428967500107</v>
+        <v>0.9956428967500108</v>
       </c>
       <c r="L13">
-        <v>0.9807276921189948</v>
+        <v>0.9807276921189949</v>
       </c>
       <c r="M13">
-        <v>0.9641703069888916</v>
+        <v>0.9641703069888918</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9538876862928926</v>
+        <v>0.9538876862928914</v>
       </c>
       <c r="D14">
-        <v>0.981451756968685</v>
+        <v>0.9814517569686844</v>
       </c>
       <c r="E14">
-        <v>0.9663863309977077</v>
+        <v>0.9663863309977069</v>
       </c>
       <c r="F14">
-        <v>0.9498838800976135</v>
+        <v>0.9498838800976124</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.026904916460343</v>
       </c>
       <c r="J14">
-        <v>0.985351696781489</v>
+        <v>0.9853516967814884</v>
       </c>
       <c r="K14">
-        <v>0.9967495939199207</v>
+        <v>0.99674959391992</v>
       </c>
       <c r="L14">
-        <v>0.9819891111547386</v>
+        <v>0.9819891111547375</v>
       </c>
       <c r="M14">
-        <v>0.9658354281033379</v>
+        <v>0.9658354281033369</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9549178976628767</v>
+        <v>0.9549178976628788</v>
       </c>
       <c r="D15">
-        <v>0.9822355291201542</v>
+        <v>0.9822355291201559</v>
       </c>
       <c r="E15">
-        <v>0.9672696598486276</v>
+        <v>0.9672696598486292</v>
       </c>
       <c r="F15">
-        <v>0.9510229097001103</v>
+        <v>0.9510229097001117</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027285526980054</v>
+        <v>1.027285526980055</v>
       </c>
       <c r="J15">
-        <v>0.9861310236326915</v>
+        <v>0.9861310236326933</v>
       </c>
       <c r="K15">
-        <v>0.9974265773440966</v>
+        <v>0.9974265773440982</v>
       </c>
       <c r="L15">
-        <v>0.9827608628926834</v>
+        <v>0.982760862892685</v>
       </c>
       <c r="M15">
-        <v>0.9668541375642575</v>
+        <v>0.9668541375642592</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9608076779353601</v>
+        <v>0.960807677935361</v>
       </c>
       <c r="D16">
-        <v>0.9867191955665678</v>
+        <v>0.9867191955665681</v>
       </c>
       <c r="E16">
-        <v>0.9723233487048232</v>
+        <v>0.9723233487048241</v>
       </c>
       <c r="F16">
-        <v>0.9575358566682234</v>
+        <v>0.9575358566682239</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029456362147408</v>
+        <v>1.029456362147409</v>
       </c>
       <c r="J16">
-        <v>0.9905853562694585</v>
+        <v>0.9905853562694593</v>
       </c>
       <c r="K16">
         <v>1.001295055269831</v>
       </c>
       <c r="L16">
-        <v>0.9871727560151344</v>
+        <v>0.9871727560151353</v>
       </c>
       <c r="M16">
-        <v>0.9726775312015987</v>
+        <v>0.9726775312015993</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.964412874199026</v>
+        <v>0.9644128741990257</v>
       </c>
       <c r="D17">
-        <v>0.9894659363046181</v>
+        <v>0.9894659363046174</v>
       </c>
       <c r="E17">
-        <v>0.97541979966487</v>
+        <v>0.9754197996648691</v>
       </c>
       <c r="F17">
-        <v>0.9615235372498724</v>
+        <v>0.9615235372498717</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03078055555521</v>
+        <v>1.030780555555209</v>
       </c>
       <c r="J17">
-        <v>0.9933108099483844</v>
+        <v>0.9933108099483837</v>
       </c>
       <c r="K17">
-        <v>1.003661221696132</v>
+        <v>1.003661221696131</v>
       </c>
       <c r="L17">
-        <v>0.9898729865279204</v>
+        <v>0.9898729865279196</v>
       </c>
       <c r="M17">
-        <v>0.9762415955594111</v>
+        <v>0.9762415955594104</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9664852106117516</v>
+        <v>0.9664852106117523</v>
       </c>
       <c r="D18">
-        <v>0.9910455456961957</v>
+        <v>0.9910455456961962</v>
       </c>
       <c r="E18">
-        <v>0.9772007331274501</v>
+        <v>0.9772007331274509</v>
       </c>
       <c r="F18">
-        <v>0.9638161510381584</v>
+        <v>0.9638161510381591</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.031540035859404</v>
       </c>
       <c r="J18">
-        <v>0.9948770219825998</v>
+        <v>0.9948770219826002</v>
       </c>
       <c r="K18">
-        <v>1.005020655780985</v>
+        <v>1.005020655780986</v>
       </c>
       <c r="L18">
-        <v>0.9914249693155652</v>
+        <v>0.9914249693155659</v>
       </c>
       <c r="M18">
-        <v>0.9782901303280845</v>
+        <v>0.9782901303280852</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9671867973063998</v>
+        <v>0.9671867973063977</v>
       </c>
       <c r="D19">
-        <v>0.9915804372388761</v>
+        <v>0.9915804372388745</v>
       </c>
       <c r="E19">
-        <v>0.9778038358907186</v>
+        <v>0.9778038358907168</v>
       </c>
       <c r="F19">
-        <v>0.9645923872293147</v>
+        <v>0.9645923872293128</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031796866471839</v>
+        <v>1.031796866471838</v>
       </c>
       <c r="J19">
-        <v>0.9954071842317529</v>
+        <v>0.995407184231751</v>
       </c>
       <c r="K19">
-        <v>1.005480770008922</v>
+        <v>1.00548077000892</v>
       </c>
       <c r="L19">
-        <v>0.9919503598294915</v>
+        <v>0.9919503598294898</v>
       </c>
       <c r="M19">
-        <v>0.9789836339405058</v>
+        <v>0.9789836339405039</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9640292629244158</v>
+        <v>0.9640292629244152</v>
       </c>
       <c r="D20">
-        <v>0.9891735915006116</v>
+        <v>0.9891735915006108</v>
       </c>
       <c r="E20">
-        <v>0.975090212706617</v>
+        <v>0.9750902127066162</v>
       </c>
       <c r="F20">
-        <v>0.9610991851820139</v>
+        <v>0.9610991851820133</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.030639829739928</v>
       </c>
       <c r="J20">
-        <v>0.9930208517811921</v>
+        <v>0.9930208517811916</v>
       </c>
       <c r="K20">
-        <v>1.003409519626827</v>
+        <v>1.003409519626826</v>
       </c>
       <c r="L20">
-        <v>0.9895856841608743</v>
+        <v>0.9895856841608736</v>
       </c>
       <c r="M20">
-        <v>0.9758623778201279</v>
+        <v>0.975862377820127</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9533933592285994</v>
+        <v>0.9533933592286009</v>
       </c>
       <c r="D21">
-        <v>0.9810757322735102</v>
+        <v>0.9810757322735115</v>
       </c>
       <c r="E21">
-        <v>0.9659625504905124</v>
+        <v>0.9659625504905142</v>
       </c>
       <c r="F21">
-        <v>0.9493373556376761</v>
+        <v>0.9493373556376778</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026722197050448</v>
+        <v>1.026722197050449</v>
       </c>
       <c r="J21">
-        <v>0.9849777331705857</v>
+        <v>0.9849777331705872</v>
       </c>
       <c r="K21">
-        <v>0.996424724663698</v>
+        <v>0.9964247246636994</v>
       </c>
       <c r="L21">
-        <v>0.9816187979833313</v>
+        <v>0.981618797983333</v>
       </c>
       <c r="M21">
-        <v>0.9653466078536657</v>
+        <v>0.9653466078536673</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9463933743743982</v>
+        <v>0.9463933743743985</v>
       </c>
       <c r="D22">
-        <v>0.9757548165913791</v>
+        <v>0.9757548165913793</v>
       </c>
       <c r="E22">
         <v>0.9599663049179373</v>
       </c>
       <c r="F22">
-        <v>0.9415992128964178</v>
+        <v>0.9415992128964176</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.024128775946487</v>
       </c>
       <c r="J22">
-        <v>0.9796810400030843</v>
+        <v>0.9796810400030844</v>
       </c>
       <c r="K22">
-        <v>0.9918223774399315</v>
+        <v>0.991822377439932</v>
       </c>
       <c r="L22">
-        <v>0.9763748592596782</v>
+        <v>0.9763748592596779</v>
       </c>
       <c r="M22">
-        <v>0.9584237149928481</v>
+        <v>0.9584237149928478</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9501358647614434</v>
+        <v>0.9501358647614421</v>
       </c>
       <c r="D23">
-        <v>0.9785987016646497</v>
+        <v>0.9785987016646486</v>
       </c>
       <c r="E23">
-        <v>0.9631710448056251</v>
+        <v>0.9631710448056241</v>
       </c>
       <c r="F23">
-        <v>0.9457361429597513</v>
+        <v>0.9457361429597497</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025516691016059</v>
+        <v>1.025516691016058</v>
       </c>
       <c r="J23">
-        <v>0.9825131240616086</v>
+        <v>0.9825131240616074</v>
       </c>
       <c r="K23">
-        <v>0.9942834291413625</v>
+        <v>0.9942834291413616</v>
       </c>
       <c r="L23">
-        <v>0.9791784946509935</v>
+        <v>0.9791784946509925</v>
       </c>
       <c r="M23">
-        <v>0.9621251993851065</v>
+        <v>0.9621251993851052</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9642026942485757</v>
+        <v>0.9642026942485746</v>
       </c>
       <c r="D24">
-        <v>0.989305758843804</v>
+        <v>0.9893057588438035</v>
       </c>
       <c r="E24">
-        <v>0.9752392163432002</v>
+        <v>0.9752392163431991</v>
       </c>
       <c r="F24">
-        <v>0.9612910341793931</v>
+        <v>0.961291034179392</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.030703457394586</v>
       </c>
       <c r="J24">
-        <v>0.9931519437232821</v>
+        <v>0.9931519437232814</v>
       </c>
       <c r="K24">
         <v>1.003523316708268</v>
       </c>
       <c r="L24">
-        <v>0.9897155745735237</v>
+        <v>0.9897155745735227</v>
       </c>
       <c r="M24">
-        <v>0.9760338233066408</v>
+        <v>0.9760338233066397</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9793420374640259</v>
+        <v>0.9793420374640268</v>
       </c>
       <c r="D25">
         <v>1.000856270565569</v>
       </c>
       <c r="E25">
-        <v>0.9882663232407958</v>
+        <v>0.9882663232407966</v>
       </c>
       <c r="F25">
-        <v>0.9780480981798015</v>
+        <v>0.9780480981798021</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.036221090857272</v>
       </c>
       <c r="J25">
-        <v>1.004585201237769</v>
+        <v>1.00458520123777</v>
       </c>
       <c r="K25">
         <v>1.013441308563193</v>
       </c>
       <c r="L25">
-        <v>1.001049561995966</v>
+        <v>1.001049561995967</v>
       </c>
       <c r="M25">
-        <v>0.9909970241535376</v>
+        <v>0.9909970241535381</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9906220111070275</v>
+        <v>0.9928293842902459</v>
       </c>
       <c r="D2">
-        <v>1.009476639666502</v>
+        <v>1.011184920900348</v>
       </c>
       <c r="E2">
-        <v>0.9979979412591924</v>
+        <v>0.9999005126089283</v>
       </c>
       <c r="F2">
-        <v>0.9905502887867738</v>
+        <v>0.9924410771319101</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040277195416917</v>
+        <v>1.041241972475542</v>
       </c>
       <c r="J2">
-        <v>1.013086880544779</v>
+        <v>1.015226703148952</v>
       </c>
       <c r="K2">
-        <v>1.020805509942305</v>
+        <v>1.022490600599138</v>
       </c>
       <c r="L2">
-        <v>1.009485238587623</v>
+        <v>1.011361233622774</v>
       </c>
       <c r="M2">
-        <v>1.00214286209935</v>
+        <v>1.004006734023864</v>
+      </c>
+      <c r="N2">
+        <v>1.016668441515554</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.998415606490984</v>
+        <v>1.000606104295079</v>
       </c>
       <c r="D3">
-        <v>1.015437947456988</v>
+        <v>1.017135308067357</v>
       </c>
       <c r="E3">
-        <v>1.004734180787515</v>
+        <v>1.006623878966251</v>
       </c>
       <c r="F3">
-        <v>0.9991996504593962</v>
+        <v>1.001070431731638</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043046407709132</v>
+        <v>1.044006336344604</v>
       </c>
       <c r="J3">
-        <v>1.018949557057468</v>
+        <v>1.021080259922423</v>
       </c>
       <c r="K3">
-        <v>1.025877035164757</v>
+        <v>1.027553535297981</v>
       </c>
       <c r="L3">
-        <v>1.015306843153684</v>
+        <v>1.017172701821782</v>
       </c>
       <c r="M3">
-        <v>1.009842782160637</v>
+        <v>1.011689634481955</v>
+      </c>
+      <c r="N3">
+        <v>1.022530311011056</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003293058639216</v>
+        <v>1.005473756137609</v>
       </c>
       <c r="D4">
-        <v>1.019170294210713</v>
+        <v>1.020861353894971</v>
       </c>
       <c r="E4">
-        <v>1.008955029529015</v>
+        <v>1.010837276956414</v>
       </c>
       <c r="F4">
-        <v>1.004618324494658</v>
+        <v>1.00647739870882</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044763628408353</v>
+        <v>1.045720829635415</v>
       </c>
       <c r="J4">
-        <v>1.022612901111064</v>
+        <v>1.024738471569984</v>
       </c>
       <c r="K4">
-        <v>1.029042727895128</v>
+        <v>1.030714355329653</v>
       </c>
       <c r="L4">
-        <v>1.018946563477312</v>
+        <v>1.020806641788094</v>
       </c>
       <c r="M4">
-        <v>1.014661328157484</v>
+        <v>1.016498270840513</v>
+      </c>
+      <c r="N4">
+        <v>1.026193717738759</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005306308387995</v>
+        <v>1.007483128123194</v>
       </c>
       <c r="D5">
-        <v>1.020711148333278</v>
+        <v>1.022399725270217</v>
       </c>
       <c r="E5">
-        <v>1.010698399374999</v>
+        <v>1.01257770503199</v>
       </c>
       <c r="F5">
-        <v>1.00685638859152</v>
+        <v>1.008710808901903</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045468574568991</v>
+        <v>1.046424718464758</v>
       </c>
       <c r="J5">
-        <v>1.024123581508553</v>
+        <v>1.026247160689396</v>
       </c>
       <c r="K5">
-        <v>1.030347373337381</v>
+        <v>1.032017101155798</v>
       </c>
       <c r="L5">
-        <v>1.020447990608061</v>
+        <v>1.022305807585407</v>
       </c>
       <c r="M5">
-        <v>1.01665021920488</v>
+        <v>1.018483234568368</v>
+      </c>
+      <c r="N5">
+        <v>1.02770454936977</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0056422241553</v>
+        <v>1.007818406323655</v>
       </c>
       <c r="D6">
-        <v>1.020968256110699</v>
+        <v>1.022656425473488</v>
       </c>
       <c r="E6">
-        <v>1.010989349977613</v>
+        <v>1.012868172341837</v>
       </c>
       <c r="F6">
-        <v>1.007229900084057</v>
+        <v>1.009083553918964</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045585967338124</v>
+        <v>1.046541938703555</v>
       </c>
       <c r="J6">
-        <v>1.024375556706901</v>
+        <v>1.026498810832646</v>
       </c>
       <c r="K6">
-        <v>1.030564934133331</v>
+        <v>1.032234351320203</v>
       </c>
       <c r="L6">
-        <v>1.020698451129201</v>
+        <v>1.022555897844482</v>
       </c>
       <c r="M6">
-        <v>1.01698206869277</v>
+        <v>1.018814437964813</v>
+      </c>
+      <c r="N6">
+        <v>1.027956556885088</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003320103071951</v>
+        <v>1.005500747834755</v>
       </c>
       <c r="D7">
-        <v>1.019190991942871</v>
+        <v>1.020882017820481</v>
       </c>
       <c r="E7">
-        <v>1.008978444180009</v>
+        <v>1.010860651574999</v>
       </c>
       <c r="F7">
-        <v>1.004648383227337</v>
+        <v>1.006507394238913</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0447731135029</v>
+        <v>1.045730300261857</v>
       </c>
       <c r="J7">
-        <v>1.022633200144642</v>
+        <v>1.024758743363714</v>
       </c>
       <c r="K7">
-        <v>1.029060261694229</v>
+        <v>1.030731863179758</v>
       </c>
       <c r="L7">
-        <v>1.018966736239418</v>
+        <v>1.020826783692691</v>
       </c>
       <c r="M7">
-        <v>1.014688045520432</v>
+        <v>1.016524934819504</v>
+      </c>
+      <c r="N7">
+        <v>1.026214018320761</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9932916822828186</v>
+        <v>0.9954931040032344</v>
       </c>
       <c r="D8">
-        <v>1.011518255310302</v>
+        <v>1.013222676312447</v>
       </c>
       <c r="E8">
-        <v>1.000304281276177</v>
+        <v>1.002202307165424</v>
       </c>
       <c r="F8">
-        <v>0.9935119405348319</v>
+        <v>0.9953956921923143</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041229086525335</v>
+        <v>1.042192134442172</v>
       </c>
       <c r="J8">
-        <v>1.015096284463263</v>
+        <v>1.017232854416188</v>
       </c>
       <c r="K8">
-        <v>1.022544432549111</v>
+        <v>1.024226468022011</v>
       </c>
       <c r="L8">
-        <v>1.011480132455385</v>
+        <v>1.013352529213547</v>
       </c>
       <c r="M8">
-        <v>1.004780519911606</v>
+        <v>1.006638395093731</v>
+      </c>
+      <c r="N8">
+        <v>1.018677441747698</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9742314342747014</v>
+        <v>0.9764794181986687</v>
       </c>
       <c r="D9">
-        <v>0.9969543968006265</v>
+        <v>0.9986892022252666</v>
       </c>
       <c r="E9">
-        <v>0.983864331532242</v>
+        <v>0.9857980342798176</v>
       </c>
       <c r="F9">
-        <v>0.9723889358960046</v>
+        <v>0.9743273249141671</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034367080123379</v>
+        <v>1.035344071345336</v>
       </c>
       <c r="J9">
-        <v>1.0007281538591</v>
+        <v>1.002890991809412</v>
       </c>
       <c r="K9">
-        <v>1.01009708081552</v>
+        <v>1.011803582068512</v>
       </c>
       <c r="L9">
-        <v>0.9972247384794053</v>
+        <v>0.9991258091517109</v>
       </c>
       <c r="M9">
-        <v>0.9859464529867406</v>
+        <v>0.9878511249964418</v>
+      </c>
+      <c r="N9">
+        <v>1.004315212050986</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9603960097298521</v>
+        <v>0.9626841122298629</v>
       </c>
       <c r="D10">
-        <v>0.9864056578231754</v>
+        <v>0.9881668665763363</v>
       </c>
       <c r="E10">
-        <v>0.9719699188017225</v>
+        <v>0.9739345033618207</v>
       </c>
       <c r="F10">
-        <v>0.9570805677043925</v>
+        <v>0.9590654998090332</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029304926514153</v>
+        <v>1.030294469505184</v>
       </c>
       <c r="J10">
-        <v>0.9902740872749488</v>
+        <v>0.9924606838051422</v>
       </c>
       <c r="K10">
-        <v>1.001024778304247</v>
+        <v>1.002753110013948</v>
       </c>
       <c r="L10">
-        <v>0.9868644042987582</v>
+        <v>0.9887908851365795</v>
       </c>
       <c r="M10">
-        <v>0.9722705366048878</v>
+        <v>0.9742153793912772</v>
+      </c>
+      <c r="N10">
+        <v>0.993870091812977</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9540847612863693</v>
+        <v>0.9563931003281532</v>
       </c>
       <c r="D11">
-        <v>0.9816016776303046</v>
+        <v>0.9833762504910619</v>
       </c>
       <c r="E11">
-        <v>0.9665552932330763</v>
+        <v>0.9685354848499836</v>
       </c>
       <c r="F11">
-        <v>0.9501017678117115</v>
+        <v>0.9521100596827126</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026977745475797</v>
+        <v>1.027973742371357</v>
       </c>
       <c r="J11">
-        <v>0.9855007827538207</v>
+        <v>0.9876996419969557</v>
       </c>
       <c r="K11">
-        <v>0.9968791049186678</v>
+        <v>0.9986186264581978</v>
       </c>
       <c r="L11">
-        <v>0.9821367446196064</v>
+        <v>0.9840762128013323</v>
       </c>
       <c r="M11">
-        <v>0.9660303054687982</v>
+        <v>0.9679953801903519</v>
+      </c>
+      <c r="N11">
+        <v>0.9891022887793238</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9516869953660265</v>
+        <v>0.9540033600141162</v>
       </c>
       <c r="D12">
-        <v>0.9797780042789905</v>
+        <v>0.9815578834170585</v>
       </c>
       <c r="E12">
-        <v>0.9645000445855982</v>
+        <v>0.9664864298730182</v>
       </c>
       <c r="F12">
-        <v>0.9474508912082726</v>
+        <v>0.9494684307364486</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026091025782175</v>
+        <v>1.027089600208734</v>
       </c>
       <c r="J12">
-        <v>0.98368676268462</v>
+        <v>0.9858905280680582</v>
       </c>
       <c r="K12">
-        <v>0.9953031585317123</v>
+        <v>0.9970471446338054</v>
       </c>
       <c r="L12">
-        <v>0.9803405056952891</v>
+        <v>0.9822851503263211</v>
       </c>
       <c r="M12">
-        <v>0.9636591912287992</v>
+        <v>0.9656322856574384</v>
+      </c>
+      <c r="N12">
+        <v>0.987290605701139</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9522038399019759</v>
+        <v>0.9545184585438786</v>
       </c>
       <c r="D13">
-        <v>0.980171031841821</v>
+        <v>0.9819497563085231</v>
       </c>
       <c r="E13">
-        <v>0.9649429708619321</v>
+        <v>0.9669280085130765</v>
       </c>
       <c r="F13">
-        <v>0.9480222742923242</v>
+        <v>0.9500378026759725</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026282274583569</v>
+        <v>1.027280287457566</v>
       </c>
       <c r="J13">
-        <v>0.9840778018213574</v>
+        <v>0.9862804979122312</v>
       </c>
       <c r="K13">
-        <v>0.9956428967500108</v>
+        <v>0.99738591036474</v>
       </c>
       <c r="L13">
-        <v>0.9807276921189949</v>
+        <v>0.9826712094291143</v>
       </c>
       <c r="M13">
-        <v>0.9641703069888918</v>
+        <v>0.9661416568663096</v>
+      </c>
+      <c r="N13">
+        <v>0.9876811293472206</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9538876862928914</v>
+        <v>0.9561966778344231</v>
       </c>
       <c r="D14">
-        <v>0.9814517569686844</v>
+        <v>0.983226761121566</v>
       </c>
       <c r="E14">
-        <v>0.9663863309977069</v>
+        <v>0.9683670260949213</v>
       </c>
       <c r="F14">
-        <v>0.9498838800976124</v>
+        <v>0.9518929241483777</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026904916460343</v>
+        <v>1.027901122558183</v>
       </c>
       <c r="J14">
-        <v>0.9853516967814884</v>
+        <v>0.9875509540419912</v>
       </c>
       <c r="K14">
-        <v>0.99674959391992</v>
+        <v>0.9984894779028637</v>
       </c>
       <c r="L14">
-        <v>0.9819891111547375</v>
+        <v>0.9839289996762779</v>
       </c>
       <c r="M14">
-        <v>0.9658354281033369</v>
+        <v>0.9678011549225112</v>
+      </c>
+      <c r="N14">
+        <v>0.9889533896704085</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9549178976628788</v>
+        <v>0.9572234922455641</v>
       </c>
       <c r="D15">
-        <v>0.9822355291201559</v>
+        <v>0.9840082881799489</v>
       </c>
       <c r="E15">
-        <v>0.9672696598486292</v>
+        <v>0.9692477339524583</v>
       </c>
       <c r="F15">
-        <v>0.9510229097001117</v>
+        <v>0.9530280371962657</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027285526980055</v>
+        <v>1.02828064467077</v>
       </c>
       <c r="J15">
-        <v>0.9861310236326933</v>
+        <v>0.9883282105032692</v>
       </c>
       <c r="K15">
-        <v>0.9974265773440982</v>
+        <v>0.9991645754901256</v>
       </c>
       <c r="L15">
-        <v>0.982760862892685</v>
+        <v>0.9846985641265812</v>
       </c>
       <c r="M15">
-        <v>0.9668541375642592</v>
+        <v>0.9688164693594982</v>
+      </c>
+      <c r="N15">
+        <v>0.9897317499250141</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.960807677935361</v>
+        <v>0.963094504059418</v>
       </c>
       <c r="D16">
-        <v>0.9867191955665681</v>
+        <v>0.9884795622608751</v>
       </c>
       <c r="E16">
-        <v>0.9723233487048241</v>
+        <v>0.9742869494410009</v>
       </c>
       <c r="F16">
-        <v>0.9575358566682239</v>
+        <v>0.9595193131615796</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029456362147409</v>
+        <v>1.030445500463072</v>
       </c>
       <c r="J16">
-        <v>0.9905853562694593</v>
+        <v>0.9927711849483351</v>
       </c>
       <c r="K16">
-        <v>1.001295055269831</v>
+        <v>1.003022684732628</v>
       </c>
       <c r="L16">
-        <v>0.9871727560151353</v>
+        <v>0.9890984210892834</v>
       </c>
       <c r="M16">
-        <v>0.9726775312015993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9746210973329826</v>
+      </c>
+      <c r="N16">
+        <v>0.9941810339034081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9644128741990257</v>
+        <v>0.9666887444140785</v>
       </c>
       <c r="D17">
-        <v>0.9894659363046174</v>
+        <v>0.9912190798972219</v>
       </c>
       <c r="E17">
-        <v>0.9754197996648691</v>
+        <v>0.9773749587647973</v>
       </c>
       <c r="F17">
-        <v>0.9615235372498717</v>
+        <v>0.9634943152712661</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030780555555209</v>
+        <v>1.031766233291518</v>
       </c>
       <c r="J17">
-        <v>0.9933108099483837</v>
+        <v>0.9954900774460254</v>
       </c>
       <c r="K17">
-        <v>1.003661221696131</v>
+        <v>1.00538284231107</v>
       </c>
       <c r="L17">
-        <v>0.9898729865279196</v>
+        <v>0.9917916675303823</v>
       </c>
       <c r="M17">
-        <v>0.9762415955594104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9781742001409957</v>
+      </c>
+      <c r="N17">
+        <v>0.9969037875403064</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9664852106117523</v>
+        <v>0.9687549607164173</v>
       </c>
       <c r="D18">
-        <v>0.9910455456961962</v>
+        <v>0.9927946584413229</v>
       </c>
       <c r="E18">
-        <v>0.9772007331274509</v>
+        <v>0.9791511792601573</v>
       </c>
       <c r="F18">
-        <v>0.9638161510381591</v>
+        <v>0.9657798363009761</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031540035859404</v>
+        <v>1.032523791279535</v>
       </c>
       <c r="J18">
-        <v>0.9948770219826002</v>
+        <v>0.9970526487527973</v>
       </c>
       <c r="K18">
-        <v>1.005020655780986</v>
+        <v>1.006738935446757</v>
       </c>
       <c r="L18">
-        <v>0.9914249693155659</v>
+        <v>0.9933397638650598</v>
       </c>
       <c r="M18">
-        <v>0.9782901303280852</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9802166088853118</v>
+      </c>
+      <c r="N18">
+        <v>0.9984685778775637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9671867973063977</v>
+        <v>0.9694545043545508</v>
       </c>
       <c r="D19">
-        <v>0.9915804372388745</v>
+        <v>0.9933282050876177</v>
       </c>
       <c r="E19">
-        <v>0.9778038358907168</v>
+        <v>0.9797527091668069</v>
       </c>
       <c r="F19">
-        <v>0.9645923872293128</v>
+        <v>0.9665537029491525</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031796866471838</v>
+        <v>1.032779982017419</v>
       </c>
       <c r="J19">
-        <v>0.995407184231751</v>
+        <v>0.9975815997485198</v>
       </c>
       <c r="K19">
-        <v>1.00548077000892</v>
+        <v>1.007197937035313</v>
       </c>
       <c r="L19">
-        <v>0.9919503598294898</v>
+        <v>0.9938638595052808</v>
       </c>
       <c r="M19">
-        <v>0.9789836339405039</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.98090806698472</v>
+      </c>
+      <c r="N19">
+        <v>0.9989982800443714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9640292629244152</v>
+        <v>0.9663062801372575</v>
       </c>
       <c r="D20">
-        <v>0.9891735915006108</v>
+        <v>0.9909274908717972</v>
       </c>
       <c r="E20">
-        <v>0.9750902127066162</v>
+        <v>0.9770462553047456</v>
       </c>
       <c r="F20">
-        <v>0.9610991851820133</v>
+        <v>0.9630712916276267</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030639829739928</v>
+        <v>1.03162586863824</v>
       </c>
       <c r="J20">
-        <v>0.9930208517811916</v>
+        <v>0.9952008036073262</v>
       </c>
       <c r="K20">
-        <v>1.003409519626826</v>
+        <v>1.005131767673225</v>
       </c>
       <c r="L20">
-        <v>0.9895856841608736</v>
+        <v>0.9915050947684193</v>
       </c>
       <c r="M20">
-        <v>0.975862377820127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9777961302772348</v>
+      </c>
+      <c r="N20">
+        <v>0.9966141028995761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9533933592286009</v>
+        <v>0.955703993042574</v>
       </c>
       <c r="D21">
-        <v>0.9810757322735115</v>
+        <v>0.9828518220391467</v>
       </c>
       <c r="E21">
-        <v>0.9659625504905142</v>
+        <v>0.9679445128574117</v>
       </c>
       <c r="F21">
-        <v>0.9493373556376778</v>
+        <v>0.9513482925851882</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026722197050449</v>
+        <v>1.02771892997252</v>
       </c>
       <c r="J21">
-        <v>0.9849777331705872</v>
+        <v>0.9871779928836727</v>
       </c>
       <c r="K21">
-        <v>0.9964247246636994</v>
+        <v>0.9981655213041748</v>
       </c>
       <c r="L21">
-        <v>0.981618797983333</v>
+        <v>0.9835597448665594</v>
       </c>
       <c r="M21">
-        <v>0.9653466078536673</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9673139758706834</v>
+      </c>
+      <c r="N21">
+        <v>0.9885798988644657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9463933743743985</v>
+        <v>0.9487281416841622</v>
       </c>
       <c r="D22">
-        <v>0.9757548165913793</v>
+        <v>0.9775468739045873</v>
       </c>
       <c r="E22">
-        <v>0.9599663049179373</v>
+        <v>0.9619668994484395</v>
       </c>
       <c r="F22">
-        <v>0.9415992128964176</v>
+        <v>0.9436379273850093</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024128775946487</v>
+        <v>1.025133294073089</v>
       </c>
       <c r="J22">
-        <v>0.9796810400030844</v>
+        <v>0.9818961372968414</v>
       </c>
       <c r="K22">
-        <v>0.991822377439932</v>
+        <v>0.9935766513642287</v>
       </c>
       <c r="L22">
-        <v>0.9763748592596779</v>
+        <v>0.9783314224667148</v>
       </c>
       <c r="M22">
-        <v>0.9584237149928478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9604151916924901</v>
+      </c>
+      <c r="N22">
+        <v>0.983290542436864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9501358647614421</v>
+        <v>0.9524575230579391</v>
       </c>
       <c r="D23">
-        <v>0.9785987016646486</v>
+        <v>0.980382082464704</v>
       </c>
       <c r="E23">
-        <v>0.9631710448056241</v>
+        <v>0.9651615165050108</v>
       </c>
       <c r="F23">
-        <v>0.9457361429597497</v>
+        <v>0.947759777656797</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025516691016058</v>
+        <v>1.02651697060231</v>
       </c>
       <c r="J23">
-        <v>0.9825131240616074</v>
+        <v>0.984720137781056</v>
       </c>
       <c r="K23">
-        <v>0.9942834291413616</v>
+        <v>0.9960303676329901</v>
       </c>
       <c r="L23">
-        <v>0.9791784946509925</v>
+        <v>0.9811265609782577</v>
       </c>
       <c r="M23">
-        <v>0.9621251993851052</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9641035825069385</v>
+      </c>
+      <c r="N23">
+        <v>0.9861185533256838</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9642026942485746</v>
+        <v>0.9664791923529209</v>
       </c>
       <c r="D24">
-        <v>0.9893057588438035</v>
+        <v>0.9910593161517132</v>
       </c>
       <c r="E24">
-        <v>0.9752392163431991</v>
+        <v>0.9771948590792024</v>
       </c>
       <c r="F24">
-        <v>0.961291034179392</v>
+        <v>0.9632625394392964</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030703457394586</v>
+        <v>1.031689332804081</v>
       </c>
       <c r="J24">
-        <v>0.9931519437232814</v>
+        <v>0.9953315857590656</v>
       </c>
       <c r="K24">
-        <v>1.003523316708268</v>
+        <v>1.005245280742294</v>
       </c>
       <c r="L24">
-        <v>0.9897155745735227</v>
+        <v>0.9916346549292545</v>
       </c>
       <c r="M24">
-        <v>0.9760338233066397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9779670562667331</v>
+      </c>
+      <c r="N24">
+        <v>0.9967450707769721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9793420374640268</v>
+        <v>0.9815765872671184</v>
       </c>
       <c r="D25">
-        <v>1.000856270565569</v>
+        <v>1.002582272598465</v>
       </c>
       <c r="E25">
-        <v>0.9882663232407966</v>
+        <v>0.9901897092735008</v>
       </c>
       <c r="F25">
-        <v>0.9780480981798021</v>
+        <v>0.9799708084927778</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036221090857272</v>
+        <v>1.037193973808259</v>
       </c>
       <c r="J25">
-        <v>1.00458520123777</v>
+        <v>1.006740287923601</v>
       </c>
       <c r="K25">
-        <v>1.013441308563193</v>
+        <v>1.015140633935007</v>
       </c>
       <c r="L25">
-        <v>1.001049561995967</v>
+        <v>1.002942250634623</v>
       </c>
       <c r="M25">
-        <v>0.9909970241535381</v>
+        <v>0.99288821875422</v>
+      </c>
+      <c r="N25">
+        <v>1.008169974607178</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9928293842902459</v>
+        <v>1.008826185377702</v>
       </c>
       <c r="D2">
-        <v>1.011184920900348</v>
+        <v>1.028916519698922</v>
       </c>
       <c r="E2">
-        <v>0.9999005126089283</v>
+        <v>1.013409539435377</v>
       </c>
       <c r="F2">
-        <v>0.9924410771319101</v>
+        <v>1.034519989734406</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041241972475542</v>
+        <v>1.04700067589855</v>
       </c>
       <c r="J2">
-        <v>1.015226703148952</v>
+        <v>1.030746073838329</v>
       </c>
       <c r="K2">
-        <v>1.022490600599138</v>
+        <v>1.039987180780711</v>
       </c>
       <c r="L2">
-        <v>1.011361233622774</v>
+        <v>1.024685166424568</v>
       </c>
       <c r="M2">
-        <v>1.004006734023864</v>
+        <v>1.045518475436471</v>
       </c>
       <c r="N2">
-        <v>1.016668441515554</v>
+        <v>1.032209851491406</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000606104295079</v>
+        <v>1.016201301799044</v>
       </c>
       <c r="D3">
-        <v>1.017135308067357</v>
+        <v>1.034684640964862</v>
       </c>
       <c r="E3">
-        <v>1.006623878966251</v>
+        <v>1.019570604911124</v>
       </c>
       <c r="F3">
-        <v>1.001070431731638</v>
+        <v>1.040808045747054</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044006336344604</v>
+        <v>1.049375974709953</v>
       </c>
       <c r="J3">
-        <v>1.021080259922423</v>
+        <v>1.036259839708924</v>
       </c>
       <c r="K3">
-        <v>1.027553535297981</v>
+        <v>1.044892156194444</v>
       </c>
       <c r="L3">
-        <v>1.017172701821782</v>
+        <v>1.029959053262483</v>
       </c>
       <c r="M3">
-        <v>1.011689634481955</v>
+        <v>1.05094410558143</v>
       </c>
       <c r="N3">
-        <v>1.022530311011056</v>
+        <v>1.037731447541976</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005473756137609</v>
+        <v>1.02083489401852</v>
       </c>
       <c r="D4">
-        <v>1.020861353894971</v>
+        <v>1.038311504257143</v>
       </c>
       <c r="E4">
-        <v>1.010837276956414</v>
+        <v>1.023447182070505</v>
       </c>
       <c r="F4">
-        <v>1.00647739870882</v>
+        <v>1.044765178483353</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045720829635415</v>
+        <v>1.050856632107007</v>
       </c>
       <c r="J4">
-        <v>1.024738471569984</v>
+        <v>1.039720250276036</v>
       </c>
       <c r="K4">
-        <v>1.030714355329653</v>
+        <v>1.047968527199119</v>
       </c>
       <c r="L4">
-        <v>1.020806641788094</v>
+        <v>1.033270622503422</v>
       </c>
       <c r="M4">
-        <v>1.016498270840513</v>
+        <v>1.05435175661157</v>
       </c>
       <c r="N4">
-        <v>1.026193717738759</v>
+        <v>1.041196772289008</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007483128123194</v>
+        <v>1.022751490200052</v>
       </c>
       <c r="D5">
-        <v>1.022399725270217</v>
+        <v>1.039812272144091</v>
       </c>
       <c r="E5">
-        <v>1.01257770503199</v>
+        <v>1.025051939217845</v>
       </c>
       <c r="F5">
-        <v>1.008710808901903</v>
+        <v>1.046403412802564</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046424718464758</v>
+        <v>1.051466208664667</v>
       </c>
       <c r="J5">
-        <v>1.026247160689396</v>
+        <v>1.04115061551157</v>
       </c>
       <c r="K5">
-        <v>1.032017101155798</v>
+        <v>1.049239651787396</v>
       </c>
       <c r="L5">
-        <v>1.022305807585407</v>
+        <v>1.03463986333033</v>
       </c>
       <c r="M5">
-        <v>1.018483234568368</v>
+        <v>1.055760891425818</v>
       </c>
       <c r="N5">
-        <v>1.02770454936977</v>
+        <v>1.042629168807241</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007818406323655</v>
+        <v>1.02307150586787</v>
       </c>
       <c r="D6">
-        <v>1.022656425473488</v>
+        <v>1.040062887970003</v>
       </c>
       <c r="E6">
-        <v>1.012868172341837</v>
+        <v>1.025319959920597</v>
       </c>
       <c r="F6">
-        <v>1.009083553918964</v>
+        <v>1.046677031667132</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046541938703555</v>
+        <v>1.051567819587063</v>
       </c>
       <c r="J6">
-        <v>1.026498810832646</v>
+        <v>1.041389386007445</v>
       </c>
       <c r="K6">
-        <v>1.032234351320203</v>
+        <v>1.049451810305211</v>
       </c>
       <c r="L6">
-        <v>1.022555897844482</v>
+        <v>1.034868453561899</v>
       </c>
       <c r="M6">
-        <v>1.018814437964813</v>
+        <v>1.055996150948443</v>
       </c>
       <c r="N6">
-        <v>1.027956556885088</v>
+        <v>1.042868278384608</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005500747834755</v>
+        <v>1.02086062462606</v>
       </c>
       <c r="D7">
-        <v>1.020882017820481</v>
+        <v>1.03833165012722</v>
       </c>
       <c r="E7">
-        <v>1.010860651574999</v>
+        <v>1.023468721218337</v>
       </c>
       <c r="F7">
-        <v>1.006507394238913</v>
+        <v>1.044787166482131</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045730300261857</v>
+        <v>1.050864827207382</v>
       </c>
       <c r="J7">
-        <v>1.024758743363714</v>
+        <v>1.039739457070292</v>
       </c>
       <c r="K7">
-        <v>1.030731863179758</v>
+        <v>1.047985597728673</v>
       </c>
       <c r="L7">
-        <v>1.020826783692691</v>
+        <v>1.033289006957093</v>
       </c>
       <c r="M7">
-        <v>1.016524934819504</v>
+        <v>1.054370676083011</v>
       </c>
       <c r="N7">
-        <v>1.026214018320761</v>
+        <v>1.041216006359115</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9954931040032344</v>
+        <v>1.011348480112841</v>
       </c>
       <c r="D8">
-        <v>1.013222676312447</v>
+        <v>1.030888537575341</v>
       </c>
       <c r="E8">
-        <v>1.002202307165424</v>
+        <v>1.015515358003512</v>
       </c>
       <c r="F8">
-        <v>0.9953956921923143</v>
+        <v>1.036669058630655</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042192134442172</v>
+        <v>1.047815452011515</v>
       </c>
       <c r="J8">
-        <v>1.017232854416188</v>
+        <v>1.032632531620401</v>
       </c>
       <c r="K8">
-        <v>1.024226468022011</v>
+        <v>1.041665748201095</v>
       </c>
       <c r="L8">
-        <v>1.013352529213547</v>
+        <v>1.026489186524922</v>
       </c>
       <c r="M8">
-        <v>1.006638395093731</v>
+        <v>1.047374217180908</v>
       </c>
       <c r="N8">
-        <v>1.018677441747698</v>
+        <v>1.034098988259909</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9764794181986687</v>
+        <v>0.993435107464286</v>
       </c>
       <c r="D9">
-        <v>0.9986892022252666</v>
+        <v>1.016900884560876</v>
       </c>
       <c r="E9">
-        <v>0.9857980342798176</v>
+        <v>1.000588853354246</v>
       </c>
       <c r="F9">
-        <v>0.9743273249141671</v>
+        <v>1.021440015826759</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035344071345336</v>
+        <v>1.041981402281726</v>
       </c>
       <c r="J9">
-        <v>1.002890991809412</v>
+        <v>1.019221838081942</v>
       </c>
       <c r="K9">
-        <v>1.011803582068512</v>
+        <v>1.029725581300387</v>
       </c>
       <c r="L9">
-        <v>0.9991258091517109</v>
+        <v>1.013672384042676</v>
       </c>
       <c r="M9">
-        <v>0.9878511249964418</v>
+        <v>1.034194563776401</v>
       </c>
       <c r="N9">
-        <v>1.004315212050986</v>
+        <v>1.020669249998398</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9626841122298629</v>
+        <v>0.9805765995969383</v>
       </c>
       <c r="D10">
-        <v>0.9881668665763363</v>
+        <v>1.006889363281543</v>
       </c>
       <c r="E10">
-        <v>0.9739345033618207</v>
+        <v>0.9899169842248724</v>
       </c>
       <c r="F10">
-        <v>0.9590654998090332</v>
+        <v>1.010558558828164</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030294469505184</v>
+        <v>1.037736364437811</v>
       </c>
       <c r="J10">
-        <v>0.9924606838051422</v>
+        <v>1.009582622942759</v>
       </c>
       <c r="K10">
-        <v>1.002753110013948</v>
+        <v>1.021135332379049</v>
       </c>
       <c r="L10">
-        <v>0.9887908851365795</v>
+        <v>1.004470708772332</v>
       </c>
       <c r="M10">
-        <v>0.9742153793912772</v>
+        <v>1.024739756682363</v>
       </c>
       <c r="N10">
-        <v>0.993870091812977</v>
+        <v>1.011016346068083</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9563931003281532</v>
+        <v>0.9747542407880465</v>
       </c>
       <c r="D11">
-        <v>0.9833762504910619</v>
+        <v>1.002365356117508</v>
       </c>
       <c r="E11">
-        <v>0.9685354848499836</v>
+        <v>0.9850968277791047</v>
       </c>
       <c r="F11">
-        <v>0.9521100596827126</v>
+        <v>1.005645903801994</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027973742371357</v>
+        <v>1.035801879555638</v>
       </c>
       <c r="J11">
-        <v>0.9876996419969557</v>
+        <v>1.005216338518216</v>
       </c>
       <c r="K11">
-        <v>0.9986186264581978</v>
+        <v>1.017242802722209</v>
       </c>
       <c r="L11">
-        <v>0.9840762128013323</v>
+        <v>1.000305377195611</v>
       </c>
       <c r="M11">
-        <v>0.9679953801903519</v>
+        <v>1.020462126339418</v>
       </c>
       <c r="N11">
-        <v>0.9891022887793238</v>
+        <v>1.006643861018838</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9540033600141162</v>
+        <v>0.9725496508553279</v>
       </c>
       <c r="D12">
-        <v>0.9815578834170585</v>
+        <v>1.000653987879919</v>
       </c>
       <c r="E12">
-        <v>0.9664864298730182</v>
+        <v>0.983273719375545</v>
       </c>
       <c r="F12">
-        <v>0.9494684307364486</v>
+        <v>1.003788191097439</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027089600208734</v>
+        <v>1.035067673220721</v>
       </c>
       <c r="J12">
-        <v>0.9858905280680582</v>
+        <v>1.003562971390169</v>
       </c>
       <c r="K12">
-        <v>0.9970471446338054</v>
+        <v>1.015768669230626</v>
       </c>
       <c r="L12">
-        <v>0.9822851503263211</v>
+        <v>0.9987285408799678</v>
       </c>
       <c r="M12">
-        <v>0.9656322856574384</v>
+        <v>1.018843173440442</v>
       </c>
       <c r="N12">
-        <v>0.987290605701139</v>
+        <v>1.004988145919825</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9545184585438786</v>
+        <v>0.9730245033919485</v>
       </c>
       <c r="D13">
-        <v>0.9819497563085231</v>
+        <v>1.001022527497728</v>
       </c>
       <c r="E13">
-        <v>0.9669280085130765</v>
+        <v>0.9836663098057624</v>
       </c>
       <c r="F13">
-        <v>0.9500378026759725</v>
+        <v>1.004188215095114</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027280287457566</v>
+        <v>1.035225891817263</v>
       </c>
       <c r="J13">
-        <v>0.9862804979122312</v>
+        <v>1.003919097098847</v>
       </c>
       <c r="K13">
-        <v>0.99738591036474</v>
+        <v>1.016086195515888</v>
       </c>
       <c r="L13">
-        <v>0.9826712094291143</v>
+        <v>0.999068162209571</v>
       </c>
       <c r="M13">
-        <v>0.9661416568663096</v>
+        <v>1.019191847156308</v>
       </c>
       <c r="N13">
-        <v>0.9876811293472206</v>
+        <v>1.005344777367857</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.9561966778344231</v>
+        <v>0.9745728864956339</v>
       </c>
       <c r="D14">
-        <v>0.983226761121566</v>
+        <v>1.00222454125423</v>
       </c>
       <c r="E14">
-        <v>0.9683670260949213</v>
+        <v>0.9849468131467717</v>
       </c>
       <c r="F14">
-        <v>0.9518929241483777</v>
+        <v>1.005493033678647</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027901122558183</v>
+        <v>1.035741516475214</v>
       </c>
       <c r="J14">
-        <v>0.9875509540419912</v>
+        <v>1.005080330350083</v>
       </c>
       <c r="K14">
-        <v>0.9984894779028637</v>
+        <v>1.017121541531205</v>
       </c>
       <c r="L14">
-        <v>0.9839289996762779</v>
+        <v>1.000175655565124</v>
       </c>
       <c r="M14">
-        <v>0.9678011549225112</v>
+        <v>1.020328931564212</v>
       </c>
       <c r="N14">
-        <v>0.9889533896704085</v>
+        <v>1.006507659703506</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9572234922455641</v>
+        <v>0.9755212255683078</v>
       </c>
       <c r="D15">
-        <v>0.9840082881799489</v>
+        <v>1.002960958139233</v>
       </c>
       <c r="E15">
-        <v>0.9692477339524583</v>
+        <v>0.9857313533355171</v>
       </c>
       <c r="F15">
-        <v>0.9530280371962657</v>
+        <v>1.006292523233311</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02828064467077</v>
+        <v>1.036057098000562</v>
       </c>
       <c r="J15">
-        <v>0.9883282105032692</v>
+        <v>1.005791541620975</v>
       </c>
       <c r="K15">
-        <v>0.9991645754901256</v>
+        <v>1.017755631929286</v>
       </c>
       <c r="L15">
-        <v>0.9846985641265812</v>
+        <v>1.000854011274738</v>
       </c>
       <c r="M15">
-        <v>0.9688164693594982</v>
+        <v>1.021025465848459</v>
       </c>
       <c r="N15">
-        <v>0.9897317499250141</v>
+        <v>1.007219880975979</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.963094504059418</v>
+        <v>0.9809573454243548</v>
       </c>
       <c r="D16">
-        <v>0.9884795622608751</v>
+        <v>1.007185414279639</v>
       </c>
       <c r="E16">
-        <v>0.9742869494410009</v>
+        <v>0.9902324578017135</v>
       </c>
       <c r="F16">
-        <v>0.9595193131615796</v>
+        <v>1.010880135709673</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030445500463072</v>
+        <v>1.037862622675431</v>
       </c>
       <c r="J16">
-        <v>0.9927711849483351</v>
+        <v>1.009868128039048</v>
       </c>
       <c r="K16">
-        <v>1.003022684732628</v>
+        <v>1.021389834372545</v>
       </c>
       <c r="L16">
-        <v>0.9890984210892834</v>
+        <v>1.004743132731954</v>
       </c>
       <c r="M16">
-        <v>0.9746210973329826</v>
+        <v>1.025019576825133</v>
       </c>
       <c r="N16">
-        <v>0.9941810339034081</v>
+        <v>1.011302256614356</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9666887444140785</v>
+        <v>0.9842966903877841</v>
       </c>
       <c r="D17">
-        <v>0.9912190798972219</v>
+        <v>1.009783005747026</v>
       </c>
       <c r="E17">
-        <v>0.9773749587647973</v>
+        <v>0.9930007141843067</v>
       </c>
       <c r="F17">
-        <v>0.9634943152712661</v>
+        <v>1.013702198736434</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031766233291518</v>
+        <v>1.038968598461327</v>
       </c>
       <c r="J17">
-        <v>0.9954900774460254</v>
+        <v>1.012371991903253</v>
       </c>
       <c r="K17">
-        <v>1.00538284231107</v>
+        <v>1.023621650525032</v>
       </c>
       <c r="L17">
-        <v>0.9917916675303823</v>
+        <v>1.007132589400327</v>
       </c>
       <c r="M17">
-        <v>0.9781742001409957</v>
+        <v>1.027474169716831</v>
       </c>
       <c r="N17">
-        <v>0.9969037875403064</v>
+        <v>1.013809676252446</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9687549607164173</v>
+        <v>0.9862201857309785</v>
       </c>
       <c r="D18">
-        <v>0.9927946584413229</v>
+        <v>1.011280095002419</v>
       </c>
       <c r="E18">
-        <v>0.9791511792601573</v>
+        <v>0.9945963789157182</v>
       </c>
       <c r="F18">
-        <v>0.9657798363009761</v>
+        <v>1.015329078214838</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032523791279535</v>
+        <v>1.039604485390575</v>
       </c>
       <c r="J18">
-        <v>0.9970526487527973</v>
+        <v>1.01381407948845</v>
       </c>
       <c r="K18">
-        <v>1.006738935446757</v>
+        <v>1.024906919124212</v>
       </c>
       <c r="L18">
-        <v>0.9933397638650598</v>
+        <v>1.008509042372997</v>
       </c>
       <c r="M18">
-        <v>0.9802166088853118</v>
+        <v>1.028888355743431</v>
       </c>
       <c r="N18">
-        <v>0.9984685778775637</v>
+        <v>1.015253811767424</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9694545043545508</v>
+        <v>0.9868720319454337</v>
       </c>
       <c r="D19">
-        <v>0.9933282050876177</v>
+        <v>1.011787576187827</v>
       </c>
       <c r="E19">
-        <v>0.9797527091668069</v>
+        <v>0.9951373128934029</v>
       </c>
       <c r="F19">
-        <v>0.9665537029491525</v>
+        <v>1.015880626412377</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032779982017419</v>
+        <v>1.039819777568195</v>
       </c>
       <c r="J19">
-        <v>0.9975815997485198</v>
+        <v>1.014302751864303</v>
       </c>
       <c r="K19">
-        <v>1.007197937035313</v>
+        <v>1.025342426944717</v>
       </c>
       <c r="L19">
-        <v>0.9938638595052808</v>
+        <v>1.008975516598103</v>
       </c>
       <c r="M19">
-        <v>0.98090806698472</v>
+        <v>1.029367651925071</v>
       </c>
       <c r="N19">
-        <v>0.9989982800443714</v>
+        <v>1.015743178114102</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9663062801372575</v>
+        <v>0.9839409474776222</v>
       </c>
       <c r="D20">
-        <v>0.9909274908717972</v>
+        <v>1.009506192416503</v>
       </c>
       <c r="E20">
-        <v>0.9770462553047456</v>
+        <v>0.992705691881442</v>
       </c>
       <c r="F20">
-        <v>0.9630712916276267</v>
+        <v>1.013401420948723</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03162586863824</v>
+        <v>1.038850898392541</v>
       </c>
       <c r="J20">
-        <v>0.9952008036073262</v>
+        <v>1.012105269389818</v>
       </c>
       <c r="K20">
-        <v>1.005131767673225</v>
+        <v>1.02338392137693</v>
       </c>
       <c r="L20">
-        <v>0.9915050947684193</v>
+        <v>1.006878027116412</v>
       </c>
       <c r="M20">
-        <v>0.9777961302772348</v>
+        <v>1.02721264581033</v>
       </c>
       <c r="N20">
-        <v>0.9966141028995761</v>
+        <v>1.013542574962449</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.955703993042574</v>
+        <v>0.9741181149538745</v>
       </c>
       <c r="D21">
-        <v>0.9828518220391467</v>
+        <v>1.001871454776663</v>
       </c>
       <c r="E21">
-        <v>0.9679445128574117</v>
+        <v>0.9845706631632556</v>
       </c>
       <c r="F21">
-        <v>0.9513482925851882</v>
+        <v>1.00510973010409</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02771892997252</v>
+        <v>1.035590120152966</v>
       </c>
       <c r="J21">
-        <v>0.9871779928836727</v>
+        <v>1.004739269380945</v>
       </c>
       <c r="K21">
-        <v>0.9981655213041748</v>
+        <v>1.016817458403632</v>
       </c>
       <c r="L21">
-        <v>0.9835597448665594</v>
+        <v>0.9998503661355459</v>
       </c>
       <c r="M21">
-        <v>0.9673139758706834</v>
+        <v>1.019994939437129</v>
       </c>
       <c r="N21">
-        <v>0.9885798988644657</v>
+        <v>1.006166114388671</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9487281416841622</v>
+        <v>0.9676974649798394</v>
       </c>
       <c r="D22">
-        <v>0.9775468739045873</v>
+        <v>0.9968906011756978</v>
       </c>
       <c r="E22">
-        <v>0.9619668994484395</v>
+        <v>0.97926508437066</v>
       </c>
       <c r="F22">
-        <v>0.9436379273850093</v>
+        <v>0.9997042391222792</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025133294073089</v>
+        <v>1.033448680924919</v>
       </c>
       <c r="J22">
-        <v>0.9818961372968414</v>
+        <v>0.9999239633323976</v>
       </c>
       <c r="K22">
-        <v>0.9935766513642287</v>
+        <v>1.012523908554565</v>
       </c>
       <c r="L22">
-        <v>0.9783314224667148</v>
+        <v>0.9952588071075096</v>
       </c>
       <c r="M22">
-        <v>0.9604151916924901</v>
+        <v>1.01528155737118</v>
       </c>
       <c r="N22">
-        <v>0.983290542436864</v>
+        <v>1.001343970053211</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9524575230579391</v>
+        <v>0.9711257178695559</v>
       </c>
       <c r="D23">
-        <v>0.980382082464704</v>
+        <v>0.9995491086818324</v>
       </c>
       <c r="E23">
-        <v>0.9651615165050108</v>
+        <v>0.982096774304454</v>
       </c>
       <c r="F23">
-        <v>0.947759777656797</v>
+        <v>1.002589021500804</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02651697060231</v>
+        <v>1.034592982265209</v>
       </c>
       <c r="J23">
-        <v>0.984720137781056</v>
+        <v>1.002495058237578</v>
       </c>
       <c r="K23">
-        <v>0.9960303676329901</v>
+        <v>1.014816484375045</v>
       </c>
       <c r="L23">
-        <v>0.9811265609782577</v>
+        <v>0.9977101852088373</v>
       </c>
       <c r="M23">
-        <v>0.9641035825069385</v>
+        <v>1.017797736475356</v>
       </c>
       <c r="N23">
-        <v>0.9861185533256838</v>
+        <v>1.003918716208066</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9664791923529209</v>
+        <v>0.984101767171925</v>
       </c>
       <c r="D24">
-        <v>0.9910593161517132</v>
+        <v>1.00963132801049</v>
       </c>
       <c r="E24">
-        <v>0.9771948590792024</v>
+        <v>0.9928390583103216</v>
       </c>
       <c r="F24">
-        <v>0.9632625394392964</v>
+        <v>1.013537388559286</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031689332804081</v>
+        <v>1.038904110361851</v>
       </c>
       <c r="J24">
-        <v>0.9953315857590656</v>
+        <v>1.012225846399142</v>
       </c>
       <c r="K24">
-        <v>1.005245280742294</v>
+        <v>1.02349139180278</v>
       </c>
       <c r="L24">
-        <v>0.9916346549292545</v>
+        <v>1.006993106062819</v>
       </c>
       <c r="M24">
-        <v>0.9779670562667331</v>
+        <v>1.027330871217262</v>
       </c>
       <c r="N24">
-        <v>0.9967450707769721</v>
+        <v>1.013663323204957</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9815765872671184</v>
+        <v>0.9982162619426395</v>
       </c>
       <c r="D25">
-        <v>1.002582272598465</v>
+        <v>1.020630000271916</v>
       </c>
       <c r="E25">
-        <v>0.9901897092735008</v>
+        <v>1.004566133534586</v>
       </c>
       <c r="F25">
-        <v>0.9799708084927778</v>
+        <v>1.025496933670908</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037193973808259</v>
+        <v>1.043548656722205</v>
       </c>
       <c r="J25">
-        <v>1.006740287923601</v>
+        <v>1.022803805465492</v>
       </c>
       <c r="K25">
-        <v>1.015140633935007</v>
+        <v>1.032916285941343</v>
       </c>
       <c r="L25">
-        <v>1.002942250634623</v>
+        <v>1.017093977299316</v>
       </c>
       <c r="M25">
-        <v>0.99288821875422</v>
+        <v>1.037711928451169</v>
       </c>
       <c r="N25">
-        <v>1.008169974607178</v>
+        <v>1.024256304186489</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008826185377702</v>
+        <v>0.9900551298571012</v>
       </c>
       <c r="D2">
-        <v>1.028916519698922</v>
+        <v>1.012503081470144</v>
       </c>
       <c r="E2">
-        <v>1.013409539435377</v>
+        <v>0.9978911225420054</v>
       </c>
       <c r="F2">
-        <v>1.034519989734406</v>
+        <v>1.012910459459164</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04700067589855</v>
+        <v>1.039905613104503</v>
       </c>
       <c r="J2">
-        <v>1.030746073838329</v>
+        <v>1.012537414195882</v>
       </c>
       <c r="K2">
-        <v>1.039987180780711</v>
+        <v>1.023790933891155</v>
       </c>
       <c r="L2">
-        <v>1.024685166424568</v>
+        <v>1.009379915775068</v>
       </c>
       <c r="M2">
-        <v>1.045518475436471</v>
+        <v>1.024192814154552</v>
       </c>
       <c r="N2">
-        <v>1.032209851491406</v>
+        <v>1.008154560285435</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016201301799044</v>
+        <v>0.9939716203951342</v>
       </c>
       <c r="D3">
-        <v>1.034684640964862</v>
+        <v>1.015387052729316</v>
       </c>
       <c r="E3">
-        <v>1.019570604911124</v>
+        <v>1.000963343085977</v>
       </c>
       <c r="F3">
-        <v>1.040808045747054</v>
+        <v>1.016714461824394</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049375974709953</v>
+        <v>1.040656167385331</v>
       </c>
       <c r="J3">
-        <v>1.036259839708924</v>
+        <v>1.014627985173518</v>
       </c>
       <c r="K3">
-        <v>1.044892156194444</v>
+        <v>1.025826767270835</v>
       </c>
       <c r="L3">
-        <v>1.029959053262483</v>
+        <v>1.011583912579485</v>
       </c>
       <c r="M3">
-        <v>1.05094410558143</v>
+        <v>1.027137853156554</v>
       </c>
       <c r="N3">
-        <v>1.037731447541976</v>
+        <v>1.008859961302016</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02083489401852</v>
+        <v>0.9964597679184359</v>
       </c>
       <c r="D4">
-        <v>1.038311504257143</v>
+        <v>1.017221328995055</v>
       </c>
       <c r="E4">
-        <v>1.023447182070505</v>
+        <v>1.002921311360548</v>
       </c>
       <c r="F4">
-        <v>1.044765178483353</v>
+        <v>1.019135688616794</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050856632107007</v>
+        <v>1.041122449091683</v>
       </c>
       <c r="J4">
-        <v>1.039720250276036</v>
+        <v>1.0159544687868</v>
       </c>
       <c r="K4">
-        <v>1.047968527199119</v>
+        <v>1.027116257579396</v>
       </c>
       <c r="L4">
-        <v>1.033270622503422</v>
+        <v>1.012984606134509</v>
       </c>
       <c r="M4">
-        <v>1.05435175661157</v>
+        <v>1.0290085207914</v>
       </c>
       <c r="N4">
-        <v>1.041196772289008</v>
+        <v>1.009307333183257</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022751490200052</v>
+        <v>0.9974950977316961</v>
       </c>
       <c r="D5">
-        <v>1.039812272144091</v>
+        <v>1.017985031604175</v>
       </c>
       <c r="E5">
-        <v>1.025051939217845</v>
+        <v>1.003737477171366</v>
       </c>
       <c r="F5">
-        <v>1.046403412802564</v>
+        <v>1.020144228218841</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051466208664667</v>
+        <v>1.041313901675609</v>
       </c>
       <c r="J5">
-        <v>1.04115061551157</v>
+        <v>1.016505998663923</v>
       </c>
       <c r="K5">
-        <v>1.049239651787396</v>
+        <v>1.027651850044825</v>
       </c>
       <c r="L5">
-        <v>1.03463986333033</v>
+        <v>1.013567528890044</v>
       </c>
       <c r="M5">
-        <v>1.055760891425818</v>
+        <v>1.029786798820526</v>
       </c>
       <c r="N5">
-        <v>1.042629168807241</v>
+        <v>1.009493289935976</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02307150586787</v>
+        <v>0.9976683172075749</v>
       </c>
       <c r="D6">
-        <v>1.040062887970003</v>
+        <v>1.01811283067696</v>
       </c>
       <c r="E6">
-        <v>1.025319959920597</v>
+        <v>1.003874112558393</v>
       </c>
       <c r="F6">
-        <v>1.046677031667132</v>
+        <v>1.020313026551014</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051567819587063</v>
+        <v>1.041345781168931</v>
       </c>
       <c r="J6">
-        <v>1.041389386007445</v>
+        <v>1.016598248429623</v>
       </c>
       <c r="K6">
-        <v>1.049451810305211</v>
+        <v>1.027741401006592</v>
       </c>
       <c r="L6">
-        <v>1.034868453561899</v>
+        <v>1.013665061088295</v>
       </c>
       <c r="M6">
-        <v>1.055996150948443</v>
+        <v>1.029917003427959</v>
       </c>
       <c r="N6">
-        <v>1.042868278384608</v>
+        <v>1.009524390166489</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02086062462606</v>
+        <v>0.996473643593289</v>
       </c>
       <c r="D7">
-        <v>1.03833165012722</v>
+        <v>1.017231562554443</v>
       </c>
       <c r="E7">
-        <v>1.023468721218337</v>
+        <v>1.002932244100058</v>
       </c>
       <c r="F7">
-        <v>1.044787166482131</v>
+        <v>1.019149201119898</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050864827207382</v>
+        <v>1.041125025169608</v>
       </c>
       <c r="J7">
-        <v>1.039739457070292</v>
+        <v>1.015961862208543</v>
       </c>
       <c r="K7">
-        <v>1.047985597728673</v>
+        <v>1.027123439570006</v>
       </c>
       <c r="L7">
-        <v>1.033289006957093</v>
+        <v>1.012992418263416</v>
       </c>
       <c r="M7">
-        <v>1.054370676083011</v>
+        <v>1.029018951919896</v>
       </c>
       <c r="N7">
-        <v>1.041216006359115</v>
+        <v>1.00930982620161</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011348480112841</v>
+        <v>0.9913884807289857</v>
       </c>
       <c r="D8">
-        <v>1.030888537575341</v>
+        <v>1.013484448110237</v>
       </c>
       <c r="E8">
-        <v>1.015515358003512</v>
+        <v>0.9989357268433953</v>
       </c>
       <c r="F8">
-        <v>1.036669058630655</v>
+        <v>1.014204541779695</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047815452011515</v>
+        <v>1.040163319744383</v>
       </c>
       <c r="J8">
-        <v>1.032632531620401</v>
+        <v>1.013249468493866</v>
       </c>
       <c r="K8">
-        <v>1.041665748201095</v>
+        <v>1.024484810118835</v>
       </c>
       <c r="L8">
-        <v>1.026489186524922</v>
+        <v>1.010130133710384</v>
       </c>
       <c r="M8">
-        <v>1.047374217180908</v>
+        <v>1.025195480655375</v>
       </c>
       <c r="N8">
-        <v>1.034098988259909</v>
+        <v>1.008394864418217</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.993435107464286</v>
+        <v>0.9820585484301873</v>
       </c>
       <c r="D9">
-        <v>1.016900884560876</v>
+        <v>1.006628393937016</v>
       </c>
       <c r="E9">
-        <v>1.000588853354246</v>
+        <v>0.9916540283090886</v>
       </c>
       <c r="F9">
-        <v>1.021440015826759</v>
+        <v>1.005170053294571</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041981402281726</v>
+        <v>1.038317108230499</v>
       </c>
       <c r="J9">
-        <v>1.019221838081942</v>
+        <v>1.008261171421331</v>
       </c>
       <c r="K9">
-        <v>1.029725581300387</v>
+        <v>1.019614837739001</v>
       </c>
       <c r="L9">
-        <v>1.013672384042676</v>
+        <v>1.004883980140386</v>
       </c>
       <c r="M9">
-        <v>1.034194563776401</v>
+        <v>1.018179803224763</v>
       </c>
       <c r="N9">
-        <v>1.020669249998398</v>
+        <v>1.006710625222048</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9805765995969383</v>
+        <v>0.9755663528099564</v>
       </c>
       <c r="D10">
-        <v>1.006889363281543</v>
+        <v>1.001873884616789</v>
       </c>
       <c r="E10">
-        <v>0.9899169842248724</v>
+        <v>0.986624217757345</v>
       </c>
       <c r="F10">
-        <v>1.010558558828164</v>
+        <v>0.9989113794073026</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037736364437811</v>
+        <v>1.036979724547066</v>
       </c>
       <c r="J10">
-        <v>1.009582622942759</v>
+        <v>1.004784084931288</v>
       </c>
       <c r="K10">
-        <v>1.021135332379049</v>
+        <v>1.016209387723017</v>
       </c>
       <c r="L10">
-        <v>1.004470708772332</v>
+        <v>1.001239249983809</v>
       </c>
       <c r="M10">
-        <v>1.024739756682363</v>
+        <v>1.013300317092561</v>
       </c>
       <c r="N10">
-        <v>1.011016346068083</v>
+        <v>1.005535739774906</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9747542407880465</v>
+        <v>0.9726848551134225</v>
       </c>
       <c r="D11">
-        <v>1.002365356117508</v>
+        <v>0.99976830117356</v>
       </c>
       <c r="E11">
-        <v>0.9850968277791047</v>
+        <v>0.9844012356793393</v>
       </c>
       <c r="F11">
-        <v>1.005645903801994</v>
+        <v>0.996140739823573</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035801879555638</v>
+        <v>1.036374223648163</v>
       </c>
       <c r="J11">
-        <v>1.005216338518216</v>
+        <v>1.003239843096269</v>
       </c>
       <c r="K11">
-        <v>1.017242802722209</v>
+        <v>1.014694588318176</v>
       </c>
       <c r="L11">
-        <v>1.000305377195611</v>
+        <v>0.9996234417447777</v>
       </c>
       <c r="M11">
-        <v>1.020462126339418</v>
+        <v>1.011135804980566</v>
       </c>
       <c r="N11">
-        <v>1.006643861018838</v>
+        <v>1.005013775771823</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9725496508553279</v>
+        <v>0.9716034497623915</v>
       </c>
       <c r="D12">
-        <v>1.000653987879919</v>
+        <v>0.9989788621583049</v>
       </c>
       <c r="E12">
-        <v>0.983273719375545</v>
+        <v>0.9835684436202173</v>
       </c>
       <c r="F12">
-        <v>1.003788191097439</v>
+        <v>0.9951020746677813</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035067673220721</v>
+        <v>1.036145244299027</v>
       </c>
       <c r="J12">
-        <v>1.003562971390169</v>
+        <v>1.002660194207356</v>
       </c>
       <c r="K12">
-        <v>1.015768669230626</v>
+        <v>1.014125651740664</v>
       </c>
       <c r="L12">
-        <v>0.9987285408799678</v>
+        <v>0.9990173654202514</v>
       </c>
       <c r="M12">
-        <v>1.018843173440442</v>
+        <v>1.010323716658684</v>
       </c>
       <c r="N12">
-        <v>1.004988145919825</v>
+        <v>1.00481782747536</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9730245033919485</v>
+        <v>0.97183592540305</v>
       </c>
       <c r="D13">
-        <v>1.001022527497728</v>
+        <v>0.999148536163188</v>
       </c>
       <c r="E13">
-        <v>0.9836663098057624</v>
+        <v>0.9837474057993036</v>
       </c>
       <c r="F13">
-        <v>1.004188215095114</v>
+        <v>0.9953253100108901</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035225891817263</v>
+        <v>1.036194547004308</v>
       </c>
       <c r="J13">
-        <v>1.003919097098847</v>
+        <v>1.002784808645659</v>
       </c>
       <c r="K13">
-        <v>1.016086195515888</v>
+        <v>1.0142479782666</v>
       </c>
       <c r="L13">
-        <v>0.999068162209571</v>
+        <v>0.9991476415667182</v>
       </c>
       <c r="M13">
-        <v>1.019191847156308</v>
+        <v>1.010498284063385</v>
       </c>
       <c r="N13">
-        <v>1.005344777367857</v>
+        <v>1.004859953948625</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9745728864956339</v>
+        <v>0.9725956951475261</v>
       </c>
       <c r="D14">
-        <v>1.00222454125423</v>
+        <v>0.9997031972123414</v>
       </c>
       <c r="E14">
-        <v>0.9849468131467717</v>
+        <v>0.9843325430654508</v>
       </c>
       <c r="F14">
-        <v>1.005493033678647</v>
+        <v>0.9960550803010202</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035741516475214</v>
+        <v>1.03635537977054</v>
       </c>
       <c r="J14">
-        <v>1.005080330350083</v>
+        <v>1.003192053988174</v>
       </c>
       <c r="K14">
-        <v>1.017121541531205</v>
+        <v>1.014647689182823</v>
       </c>
       <c r="L14">
-        <v>1.000175655565124</v>
+        <v>0.999573464953783</v>
       </c>
       <c r="M14">
-        <v>1.020328931564212</v>
+        <v>1.011068844561554</v>
       </c>
       <c r="N14">
-        <v>1.006507659703506</v>
+        <v>1.004997621281697</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9755212255683078</v>
+        <v>0.9730623288438437</v>
       </c>
       <c r="D15">
-        <v>1.002960958139233</v>
+        <v>1.000043961645187</v>
       </c>
       <c r="E15">
-        <v>0.9857313533355171</v>
+        <v>0.9846921180181903</v>
       </c>
       <c r="F15">
-        <v>1.006292523233311</v>
+        <v>0.9965034404844042</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036057098000562</v>
+        <v>1.036453931753342</v>
       </c>
       <c r="J15">
-        <v>1.005791541620975</v>
+        <v>1.003442162249156</v>
       </c>
       <c r="K15">
-        <v>1.017755631929286</v>
+        <v>1.01489312596658</v>
       </c>
       <c r="L15">
-        <v>1.000854011274738</v>
+        <v>0.999835040421543</v>
       </c>
       <c r="M15">
-        <v>1.021025465848459</v>
+        <v>1.011419303223297</v>
       </c>
       <c r="N15">
-        <v>1.007219880975979</v>
+        <v>1.00508216622133</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9809573454243548</v>
+        <v>0.975756062628627</v>
       </c>
       <c r="D16">
-        <v>1.007185414279639</v>
+        <v>1.002012613556343</v>
       </c>
       <c r="E16">
-        <v>0.9902324578017135</v>
+        <v>0.986770774675234</v>
       </c>
       <c r="F16">
-        <v>1.010880135709673</v>
+        <v>0.9990939454642173</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037862622675431</v>
+        <v>1.037019344731341</v>
       </c>
       <c r="J16">
-        <v>1.009868128039048</v>
+        <v>1.004885736611042</v>
       </c>
       <c r="K16">
-        <v>1.021389834372545</v>
+        <v>1.016309053273053</v>
       </c>
       <c r="L16">
-        <v>1.004743132731954</v>
+        <v>1.00134567300346</v>
       </c>
       <c r="M16">
-        <v>1.025019576825133</v>
+        <v>1.013442852386655</v>
       </c>
       <c r="N16">
-        <v>1.011302256614356</v>
+        <v>1.005570095339367</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C17">
-        <v>0.9842966903877841</v>
+        <v>0.9774265815477132</v>
       </c>
       <c r="D17">
-        <v>1.009783005747026</v>
+        <v>1.003234752229808</v>
       </c>
       <c r="E17">
-        <v>0.9930007141843067</v>
+        <v>0.9880623884496875</v>
       </c>
       <c r="F17">
-        <v>1.013702198736434</v>
+        <v>1.000702387376946</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038968598461327</v>
+        <v>1.037366873672464</v>
       </c>
       <c r="J17">
-        <v>1.012371991903253</v>
+        <v>1.005780740096859</v>
       </c>
       <c r="K17">
-        <v>1.023621650525032</v>
+        <v>1.017186301247756</v>
       </c>
       <c r="L17">
-        <v>1.007132589400327</v>
+        <v>1.002283015642013</v>
       </c>
       <c r="M17">
-        <v>1.027474169716831</v>
+        <v>1.014698112396327</v>
       </c>
       <c r="N17">
-        <v>1.013809676252446</v>
+        <v>1.00587256320194</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9862201857309785</v>
+        <v>0.9783942176148946</v>
       </c>
       <c r="D18">
-        <v>1.011280095002419</v>
+        <v>1.003943105374924</v>
       </c>
       <c r="E18">
-        <v>0.9945963789157182</v>
+        <v>0.988811440993614</v>
       </c>
       <c r="F18">
-        <v>1.015329078214838</v>
+        <v>1.001634747836997</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039604485390575</v>
+        <v>1.037567040958919</v>
       </c>
       <c r="J18">
-        <v>1.01381407948845</v>
+        <v>1.006299069420842</v>
       </c>
       <c r="K18">
-        <v>1.024906919124212</v>
+        <v>1.017694121039665</v>
       </c>
       <c r="L18">
-        <v>1.008509042372997</v>
+        <v>1.002826139393102</v>
       </c>
       <c r="M18">
-        <v>1.028888355743431</v>
+        <v>1.015425322940779</v>
       </c>
       <c r="N18">
-        <v>1.015253811767424</v>
+        <v>1.006047716638058</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9868720319454337</v>
+        <v>0.9787230270354916</v>
       </c>
       <c r="D19">
-        <v>1.011787576187827</v>
+        <v>1.004183880897845</v>
       </c>
       <c r="E19">
-        <v>0.9951373128934029</v>
+        <v>0.9890661242911475</v>
       </c>
       <c r="F19">
-        <v>1.015880626412377</v>
+        <v>1.001951684530929</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039819777568195</v>
+        <v>1.037634864930671</v>
       </c>
       <c r="J19">
-        <v>1.014302751864303</v>
+        <v>1.006475184023866</v>
       </c>
       <c r="K19">
-        <v>1.025342426944717</v>
+        <v>1.017866625826222</v>
       </c>
       <c r="L19">
-        <v>1.008975516598103</v>
+        <v>1.00301072495505</v>
       </c>
       <c r="M19">
-        <v>1.029367651925071</v>
+        <v>1.015672451133613</v>
       </c>
       <c r="N19">
-        <v>1.015743178114102</v>
+        <v>1.006107226206007</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9839409474776222</v>
+        <v>0.9772480524666511</v>
       </c>
       <c r="D20">
-        <v>1.009506192416503</v>
+        <v>1.003104095803263</v>
       </c>
       <c r="E20">
-        <v>0.992705691881442</v>
+        <v>0.9879242599485798</v>
       </c>
       <c r="F20">
-        <v>1.013401420948723</v>
+        <v>1.000530421389496</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038850898392541</v>
+        <v>1.037329850598561</v>
       </c>
       <c r="J20">
-        <v>1.012105269389818</v>
+        <v>1.005685100260382</v>
       </c>
       <c r="K20">
-        <v>1.02338392137693</v>
+        <v>1.017092582148838</v>
       </c>
       <c r="L20">
-        <v>1.006878027116412</v>
+        <v>1.002182822993896</v>
       </c>
       <c r="M20">
-        <v>1.02721264581033</v>
+        <v>1.01456395038447</v>
       </c>
       <c r="N20">
-        <v>1.013542574962449</v>
+        <v>1.005840243285409</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9741181149538745</v>
+        <v>0.9723722723508952</v>
       </c>
       <c r="D21">
-        <v>1.001871454776663</v>
+        <v>0.9995400681814182</v>
       </c>
       <c r="E21">
-        <v>0.9845706631632556</v>
+        <v>0.9841604326825492</v>
       </c>
       <c r="F21">
-        <v>1.00510973010409</v>
+        <v>0.9958404476292105</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035590120152966</v>
+        <v>1.036308131716269</v>
       </c>
       <c r="J21">
-        <v>1.004739269380945</v>
+        <v>1.003072299386326</v>
       </c>
       <c r="K21">
-        <v>1.016817458403632</v>
+        <v>1.014530159354367</v>
       </c>
       <c r="L21">
-        <v>0.9998503661355459</v>
+        <v>0.9994482352734693</v>
       </c>
       <c r="M21">
-        <v>1.019994939437129</v>
+        <v>1.010901054848222</v>
       </c>
       <c r="N21">
-        <v>1.006166114388671</v>
+        <v>1.00495713942491</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9676974649798394</v>
+        <v>0.9692422375011467</v>
       </c>
       <c r="D22">
-        <v>0.9968906011756978</v>
+        <v>0.9972566470232074</v>
       </c>
       <c r="E22">
-        <v>0.97926508437066</v>
+        <v>0.9817528498448198</v>
       </c>
       <c r="F22">
-        <v>0.9997042391222792</v>
+        <v>0.9928363316813439</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033448680924919</v>
+        <v>1.035642137266715</v>
       </c>
       <c r="J22">
-        <v>0.9999239633323976</v>
+        <v>1.001394400635164</v>
       </c>
       <c r="K22">
-        <v>1.012523908554565</v>
+        <v>1.012882646874984</v>
       </c>
       <c r="L22">
-        <v>0.9952588071075096</v>
+        <v>0.9976946650789252</v>
       </c>
       <c r="M22">
-        <v>1.01528155737118</v>
+        <v>1.008551050667586</v>
       </c>
       <c r="N22">
-        <v>1.001343970053211</v>
+        <v>1.004389891306809</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.9711257178695559</v>
+        <v>0.9709078188822781</v>
       </c>
       <c r="D23">
-        <v>0.9995491086818324</v>
+        <v>0.998471269653623</v>
       </c>
       <c r="E23">
-        <v>0.982096774304454</v>
+        <v>0.9830331606789886</v>
       </c>
       <c r="F23">
-        <v>1.002589021500804</v>
+        <v>0.9944342639159931</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034592982265209</v>
+        <v>1.035997466246867</v>
       </c>
       <c r="J23">
-        <v>1.002495058237578</v>
+        <v>1.002287301231409</v>
       </c>
       <c r="K23">
-        <v>1.014816484375045</v>
+        <v>1.013759556693556</v>
       </c>
       <c r="L23">
-        <v>0.9977101852088373</v>
+        <v>0.9986275945357357</v>
       </c>
       <c r="M23">
-        <v>1.017797736475356</v>
+        <v>1.009801402432843</v>
       </c>
       <c r="N23">
-        <v>1.003918716208066</v>
+        <v>1.004691766174129</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.984101767171925</v>
+        <v>0.977328742893582</v>
       </c>
       <c r="D24">
-        <v>1.00963132801049</v>
+        <v>1.003163147702949</v>
       </c>
       <c r="E24">
-        <v>0.9928390583103216</v>
+        <v>0.987986687612767</v>
       </c>
       <c r="F24">
-        <v>1.013537388559286</v>
+        <v>1.000608143361592</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038904110361851</v>
+        <v>1.03734658757544</v>
       </c>
       <c r="J24">
-        <v>1.012225846399142</v>
+        <v>1.005728327236622</v>
       </c>
       <c r="K24">
-        <v>1.02349139180278</v>
+        <v>1.017134941700359</v>
       </c>
       <c r="L24">
-        <v>1.006993106062819</v>
+        <v>1.002228106884866</v>
       </c>
       <c r="M24">
-        <v>1.027330871217262</v>
+        <v>1.014624587731275</v>
       </c>
       <c r="N24">
-        <v>1.013663323204957</v>
+        <v>1.005854851186417</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9982162619426395</v>
+        <v>0.9845167020083426</v>
       </c>
       <c r="D25">
-        <v>1.020630000271916</v>
+        <v>1.00843220460361</v>
       </c>
       <c r="E25">
-        <v>1.004566133534586</v>
+        <v>0.9935663228949735</v>
       </c>
       <c r="F25">
-        <v>1.025496933670908</v>
+        <v>1.007545723775496</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043548656722205</v>
+        <v>1.03881282362927</v>
       </c>
       <c r="J25">
-        <v>1.022803805465492</v>
+        <v>1.009576617336894</v>
       </c>
       <c r="K25">
-        <v>1.032916285941343</v>
+        <v>1.02090101665505</v>
       </c>
       <c r="L25">
-        <v>1.017093977299316</v>
+        <v>1.00626534125182</v>
       </c>
       <c r="M25">
-        <v>1.037711928451169</v>
+        <v>1.020028020623635</v>
       </c>
       <c r="N25">
-        <v>1.024256304186489</v>
+        <v>1.007154935099897</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9900551298571012</v>
+        <v>1.019897960467196</v>
       </c>
       <c r="D2">
-        <v>1.012503081470144</v>
+        <v>1.029649569611741</v>
       </c>
       <c r="E2">
-        <v>0.9978911225420054</v>
+        <v>1.020976119449794</v>
       </c>
       <c r="F2">
-        <v>1.012910459459164</v>
+        <v>1.038187441699317</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039905613104503</v>
+        <v>1.029340052793341</v>
       </c>
       <c r="J2">
-        <v>1.012537414195882</v>
+        <v>1.025098124277093</v>
       </c>
       <c r="K2">
-        <v>1.023790933891155</v>
+        <v>1.032462867119074</v>
       </c>
       <c r="L2">
-        <v>1.009379915775068</v>
+        <v>1.023814814373924</v>
       </c>
       <c r="M2">
-        <v>1.024192814154552</v>
+        <v>1.040976189024601</v>
       </c>
       <c r="N2">
-        <v>1.008154560285435</v>
+        <v>1.012440282311641</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9939716203951342</v>
+        <v>1.020736951672776</v>
       </c>
       <c r="D3">
-        <v>1.015387052729316</v>
+        <v>1.030289596716294</v>
       </c>
       <c r="E3">
-        <v>1.000963343085977</v>
+        <v>1.021684971002907</v>
       </c>
       <c r="F3">
-        <v>1.016714461824394</v>
+        <v>1.039062383187478</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040656167385331</v>
+        <v>1.029441030009711</v>
       </c>
       <c r="J3">
-        <v>1.014627985173518</v>
+        <v>1.025574646747839</v>
       </c>
       <c r="K3">
-        <v>1.025826767270835</v>
+        <v>1.032911536577056</v>
       </c>
       <c r="L3">
-        <v>1.011583912579485</v>
+        <v>1.024330287406961</v>
       </c>
       <c r="M3">
-        <v>1.027137853156554</v>
+        <v>1.041660920558679</v>
       </c>
       <c r="N3">
-        <v>1.008859961302016</v>
+        <v>1.012599580062058</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9964597679184359</v>
+        <v>1.021280529922716</v>
       </c>
       <c r="D4">
-        <v>1.017221328995055</v>
+        <v>1.03070413859546</v>
       </c>
       <c r="E4">
-        <v>1.002921311360548</v>
+        <v>1.022144639558881</v>
       </c>
       <c r="F4">
-        <v>1.019135688616794</v>
+        <v>1.039629474038795</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041122449091683</v>
+        <v>1.029505130081039</v>
       </c>
       <c r="J4">
-        <v>1.0159544687868</v>
+        <v>1.025883048816012</v>
       </c>
       <c r="K4">
-        <v>1.027116257579396</v>
+        <v>1.033201570173231</v>
       </c>
       <c r="L4">
-        <v>1.012984606134509</v>
+        <v>1.024664155521476</v>
       </c>
       <c r="M4">
-        <v>1.0290085207914</v>
+        <v>1.042104294687359</v>
       </c>
       <c r="N4">
-        <v>1.009307333183257</v>
+        <v>1.012702628241446</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9974950977316961</v>
+        <v>1.021509214954955</v>
       </c>
       <c r="D5">
-        <v>1.017985031604175</v>
+        <v>1.030878506290211</v>
       </c>
       <c r="E5">
-        <v>1.003737477171366</v>
+        <v>1.022338120418127</v>
       </c>
       <c r="F5">
-        <v>1.020144228218841</v>
+        <v>1.039868103335148</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041313901675609</v>
+        <v>1.029531780474068</v>
       </c>
       <c r="J5">
-        <v>1.016505998663923</v>
+        <v>1.026012714182042</v>
       </c>
       <c r="K5">
-        <v>1.027651850044825</v>
+        <v>1.033323430563874</v>
       </c>
       <c r="L5">
-        <v>1.013567528890044</v>
+        <v>1.024804589533659</v>
       </c>
       <c r="M5">
-        <v>1.029786798820526</v>
+        <v>1.042290760949904</v>
       </c>
       <c r="N5">
-        <v>1.009493289935976</v>
+        <v>1.012745942495637</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9976683172075749</v>
+        <v>1.021547621791594</v>
       </c>
       <c r="D6">
-        <v>1.01811283067696</v>
+        <v>1.030907788868946</v>
       </c>
       <c r="E6">
-        <v>1.003874112558393</v>
+        <v>1.022370620503709</v>
       </c>
       <c r="F6">
-        <v>1.020313026551014</v>
+        <v>1.039908183339641</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041345781168931</v>
+        <v>1.029536237740329</v>
       </c>
       <c r="J6">
-        <v>1.016598248429623</v>
+        <v>1.026034486301041</v>
       </c>
       <c r="K6">
-        <v>1.027741401006592</v>
+        <v>1.033343887330546</v>
       </c>
       <c r="L6">
-        <v>1.013665061088295</v>
+        <v>1.024828173430598</v>
       </c>
       <c r="M6">
-        <v>1.029917003427959</v>
+        <v>1.04232207361481</v>
       </c>
       <c r="N6">
-        <v>1.009524390166489</v>
+        <v>1.012753214713622</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.996473643593289</v>
+        <v>1.021283584978021</v>
       </c>
       <c r="D7">
-        <v>1.017231562554443</v>
+        <v>1.03070646813696</v>
       </c>
       <c r="E7">
-        <v>1.002932244100058</v>
+        <v>1.022147223933778</v>
       </c>
       <c r="F7">
-        <v>1.019149201119898</v>
+        <v>1.039632661736264</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041125025169608</v>
+        <v>1.029505487353829</v>
       </c>
       <c r="J7">
-        <v>1.015961862208543</v>
+        <v>1.025884781360952</v>
       </c>
       <c r="K7">
-        <v>1.027123439570006</v>
+        <v>1.033203198753464</v>
       </c>
       <c r="L7">
-        <v>1.012992418263416</v>
+        <v>1.024666031711279</v>
       </c>
       <c r="M7">
-        <v>1.029018951919896</v>
+        <v>1.042106785978813</v>
       </c>
       <c r="N7">
-        <v>1.00930982620161</v>
+        <v>1.012703207037513</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9913884807289857</v>
+        <v>1.020181356633675</v>
       </c>
       <c r="D8">
-        <v>1.013484448110237</v>
+        <v>1.029865785518977</v>
       </c>
       <c r="E8">
-        <v>0.9989357268433953</v>
+        <v>1.021215472203944</v>
       </c>
       <c r="F8">
-        <v>1.014204541779695</v>
+        <v>1.038482935369966</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040163319744383</v>
+        <v>1.029374434642699</v>
       </c>
       <c r="J8">
-        <v>1.013249468493866</v>
+        <v>1.025259154057704</v>
       </c>
       <c r="K8">
-        <v>1.024484810118835</v>
+        <v>1.03261455536159</v>
       </c>
       <c r="L8">
-        <v>1.010130133710384</v>
+        <v>1.023988953278713</v>
       </c>
       <c r="M8">
-        <v>1.025195480655375</v>
+        <v>1.041207532639477</v>
       </c>
       <c r="N8">
-        <v>1.008394864418217</v>
+        <v>1.012494123272111</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9820585484301873</v>
+        <v>1.018244482362803</v>
       </c>
       <c r="D9">
-        <v>1.006628393937016</v>
+        <v>1.028387552069025</v>
       </c>
       <c r="E9">
-        <v>0.9916540283090886</v>
+        <v>1.019581301251774</v>
       </c>
       <c r="F9">
-        <v>1.005170053294571</v>
+        <v>1.036464297357059</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038317108230499</v>
+        <v>1.029134043960266</v>
       </c>
       <c r="J9">
-        <v>1.008261171421331</v>
+        <v>1.024157235629213</v>
       </c>
       <c r="K9">
-        <v>1.019614837739001</v>
+        <v>1.031575164254302</v>
       </c>
       <c r="L9">
-        <v>1.004883980140386</v>
+        <v>1.0227983859271</v>
       </c>
       <c r="M9">
-        <v>1.018179803224763</v>
+        <v>1.039625361280612</v>
       </c>
       <c r="N9">
-        <v>1.006710625222048</v>
+        <v>1.012125496347768</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9755663528099564</v>
+        <v>1.016956954617543</v>
       </c>
       <c r="D10">
-        <v>1.001873884616789</v>
+        <v>1.027404295361449</v>
       </c>
       <c r="E10">
-        <v>0.986624217757345</v>
+        <v>1.01849713575805</v>
       </c>
       <c r="F10">
-        <v>0.9989113794073026</v>
+        <v>1.03512358290347</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036979724547066</v>
+        <v>1.028967463872077</v>
       </c>
       <c r="J10">
-        <v>1.004784084931288</v>
+        <v>1.023423046345704</v>
       </c>
       <c r="K10">
-        <v>1.016209387723017</v>
+        <v>1.030880889141335</v>
       </c>
       <c r="L10">
-        <v>1.001239249983809</v>
+        <v>1.022006458162339</v>
       </c>
       <c r="M10">
-        <v>1.013300317092561</v>
+        <v>1.038572315738078</v>
       </c>
       <c r="N10">
-        <v>1.005535739774906</v>
+        <v>1.011879642167419</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9726848551134225</v>
+        <v>1.01640034379926</v>
       </c>
       <c r="D11">
-        <v>0.99976830117356</v>
+        <v>1.026979087032791</v>
       </c>
       <c r="E11">
-        <v>0.9844012356793393</v>
+        <v>1.018028955828821</v>
       </c>
       <c r="F11">
-        <v>0.996140739823573</v>
+        <v>1.034544260089837</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036374223648163</v>
+        <v>1.028893842367215</v>
       </c>
       <c r="J11">
-        <v>1.003239843096269</v>
+        <v>1.023105250538981</v>
       </c>
       <c r="K11">
-        <v>1.014694588318176</v>
+        <v>1.030579957965095</v>
       </c>
       <c r="L11">
-        <v>0.9996234417447777</v>
+        <v>1.021663985080347</v>
       </c>
       <c r="M11">
-        <v>1.011135804980566</v>
+        <v>1.038116768718095</v>
       </c>
       <c r="N11">
-        <v>1.005013775771823</v>
+        <v>1.011773166084203</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9716034497623915</v>
+        <v>1.016193730167454</v>
       </c>
       <c r="D12">
-        <v>0.9989788621583049</v>
+        <v>1.026821229985531</v>
       </c>
       <c r="E12">
-        <v>0.9835684436202173</v>
+        <v>1.017855245757914</v>
       </c>
       <c r="F12">
-        <v>0.9951020746677813</v>
+        <v>1.034329258416296</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036145244299027</v>
+        <v>1.028866272685972</v>
       </c>
       <c r="J12">
-        <v>1.002660194207356</v>
+        <v>1.022987225284883</v>
       </c>
       <c r="K12">
-        <v>1.014125651740664</v>
+        <v>1.03046813422126</v>
       </c>
       <c r="L12">
-        <v>0.9990173654202514</v>
+        <v>1.021536842360822</v>
       </c>
       <c r="M12">
-        <v>1.010323716658684</v>
+        <v>1.037947624421713</v>
       </c>
       <c r="N12">
-        <v>1.00481782747536</v>
+        <v>1.01173361365592</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.97183592540305</v>
+        <v>1.016238043294055</v>
       </c>
       <c r="D13">
-        <v>0.999148536163188</v>
+        <v>1.026855087014997</v>
       </c>
       <c r="E13">
-        <v>0.9837474057993036</v>
+        <v>1.017892498403255</v>
       </c>
       <c r="F13">
-        <v>0.9953253100108901</v>
+        <v>1.034375368618597</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036194547004308</v>
+        <v>1.028872196573773</v>
       </c>
       <c r="J13">
-        <v>1.002784808645659</v>
+        <v>1.023012541255729</v>
       </c>
       <c r="K13">
-        <v>1.0142479782666</v>
+        <v>1.030492122785631</v>
       </c>
       <c r="L13">
-        <v>0.9991476415667182</v>
+        <v>1.021564111850003</v>
       </c>
       <c r="M13">
-        <v>1.010498284063385</v>
+        <v>1.037983903425929</v>
       </c>
       <c r="N13">
-        <v>1.004859953948625</v>
+        <v>1.011742097890214</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9725956951475261</v>
+        <v>1.016383262259935</v>
       </c>
       <c r="D14">
-        <v>0.9997031972123414</v>
+        <v>1.026966036790311</v>
       </c>
       <c r="E14">
-        <v>0.9843325430654508</v>
+        <v>1.018014592956325</v>
       </c>
       <c r="F14">
-        <v>0.9960550803010202</v>
+        <v>1.034526484206714</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03635537977054</v>
+        <v>1.028891568001731</v>
       </c>
       <c r="J14">
-        <v>1.003192053988174</v>
+        <v>1.023095494154782</v>
       </c>
       <c r="K14">
-        <v>1.014647689182823</v>
+        <v>1.030570715479434</v>
       </c>
       <c r="L14">
-        <v>0.999573464953783</v>
+        <v>1.021653474047984</v>
       </c>
       <c r="M14">
-        <v>1.011068844561554</v>
+        <v>1.038102785838229</v>
       </c>
       <c r="N14">
-        <v>1.004997621281697</v>
+        <v>1.01176989671579</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9730623288438437</v>
+        <v>1.016472754581593</v>
       </c>
       <c r="D15">
-        <v>1.000043961645187</v>
+        <v>1.027034407829936</v>
       </c>
       <c r="E15">
-        <v>0.9846921180181903</v>
+        <v>1.018089845043767</v>
       </c>
       <c r="F15">
-        <v>0.9965034404844042</v>
+        <v>1.034619616031384</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036453931753342</v>
+        <v>1.028903473798167</v>
       </c>
       <c r="J15">
-        <v>1.003442162249156</v>
+        <v>1.023146606631422</v>
       </c>
       <c r="K15">
-        <v>1.01489312596658</v>
+        <v>1.030619133175978</v>
       </c>
       <c r="L15">
-        <v>0.999835040421543</v>
+        <v>1.021708541971621</v>
       </c>
       <c r="M15">
-        <v>1.011419303223297</v>
+        <v>1.038176042033939</v>
       </c>
       <c r="N15">
-        <v>1.00508216622133</v>
+        <v>1.011787024176576</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.975756062628627</v>
+        <v>1.016993914085086</v>
       </c>
       <c r="D16">
-        <v>1.002012613556343</v>
+        <v>1.02743252675076</v>
       </c>
       <c r="E16">
-        <v>0.986770774675234</v>
+        <v>1.01852823425332</v>
       </c>
       <c r="F16">
-        <v>0.9990939454642173</v>
+        <v>1.035162056429558</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037019344731341</v>
+        <v>1.028972318527079</v>
       </c>
       <c r="J16">
-        <v>1.004885736611042</v>
+        <v>1.023444139896915</v>
       </c>
       <c r="K16">
-        <v>1.016309053273053</v>
+        <v>1.03090085463495</v>
       </c>
       <c r="L16">
-        <v>1.00134567300346</v>
+        <v>1.022029196296471</v>
       </c>
       <c r="M16">
-        <v>1.013442852386655</v>
+        <v>1.038602558074046</v>
       </c>
       <c r="N16">
-        <v>1.005570095339367</v>
+        <v>1.011886708261955</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.050000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9774265815477132</v>
+        <v>1.017321065016423</v>
       </c>
       <c r="D17">
-        <v>1.003234752229808</v>
+        <v>1.027682404359285</v>
       </c>
       <c r="E17">
-        <v>0.9880623884496875</v>
+        <v>1.018803565791142</v>
       </c>
       <c r="F17">
-        <v>1.000702387376946</v>
+        <v>1.035502641777558</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037366873672464</v>
+        <v>1.029015104231072</v>
       </c>
       <c r="J17">
-        <v>1.005780740096859</v>
+        <v>1.023630805811332</v>
       </c>
       <c r="K17">
-        <v>1.017186301247756</v>
+        <v>1.031077490259764</v>
       </c>
       <c r="L17">
-        <v>1.002283015642013</v>
+        <v>1.022230452231281</v>
       </c>
       <c r="M17">
-        <v>1.014698112396327</v>
+        <v>1.038870216314844</v>
       </c>
       <c r="N17">
-        <v>1.00587256320194</v>
+        <v>1.011949232542669</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9783942176148946</v>
+        <v>1.017511973077142</v>
       </c>
       <c r="D18">
-        <v>1.003943105374924</v>
+        <v>1.027828206519167</v>
       </c>
       <c r="E18">
-        <v>0.988811440993614</v>
+        <v>1.018964284515874</v>
       </c>
       <c r="F18">
-        <v>1.001634747836997</v>
+        <v>1.03570141658138</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037567040958919</v>
+        <v>1.029039916481963</v>
       </c>
       <c r="J18">
-        <v>1.006299069420842</v>
+        <v>1.023739695697804</v>
       </c>
       <c r="K18">
-        <v>1.017694121039665</v>
+        <v>1.031180489264771</v>
       </c>
       <c r="L18">
-        <v>1.002826139393102</v>
+        <v>1.022347883470655</v>
       </c>
       <c r="M18">
-        <v>1.015425322940779</v>
+        <v>1.03902637807931</v>
       </c>
       <c r="N18">
-        <v>1.006047716638058</v>
+        <v>1.011985699974793</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9787230270354916</v>
+        <v>1.017577082407897</v>
       </c>
       <c r="D19">
-        <v>1.004183880897845</v>
+        <v>1.027877930182708</v>
       </c>
       <c r="E19">
-        <v>0.9890661242911475</v>
+        <v>1.019019106168512</v>
       </c>
       <c r="F19">
-        <v>1.001951684530929</v>
+        <v>1.035769213459105</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037634864930671</v>
+        <v>1.029048352385719</v>
       </c>
       <c r="J19">
-        <v>1.006475184023866</v>
+        <v>1.023776826130829</v>
       </c>
       <c r="K19">
-        <v>1.017866625826222</v>
+        <v>1.031215604206528</v>
       </c>
       <c r="L19">
-        <v>1.00301072495505</v>
+        <v>1.022387931579748</v>
       </c>
       <c r="M19">
-        <v>1.015672451133613</v>
+        <v>1.039079632147351</v>
       </c>
       <c r="N19">
-        <v>1.006107226206007</v>
+        <v>1.011998134086123</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9772480524666511</v>
+        <v>1.017285955863254</v>
       </c>
       <c r="D20">
-        <v>1.003104095803263</v>
+        <v>1.027655589384018</v>
       </c>
       <c r="E20">
-        <v>0.9879242599485798</v>
+        <v>1.018774012638958</v>
       </c>
       <c r="F20">
-        <v>1.000530421389496</v>
+        <v>1.035466088062873</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037329850598561</v>
+        <v>1.029010528612146</v>
       </c>
       <c r="J20">
-        <v>1.005685100260382</v>
+        <v>1.023610777197228</v>
       </c>
       <c r="K20">
-        <v>1.017092582148838</v>
+        <v>1.031058541977073</v>
       </c>
       <c r="L20">
-        <v>1.002182822993896</v>
+        <v>1.022208855013845</v>
       </c>
       <c r="M20">
-        <v>1.01456395038447</v>
+        <v>1.038841494840314</v>
       </c>
       <c r="N20">
-        <v>1.005840243285409</v>
+        <v>1.011942524474551</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9723722723508952</v>
+        <v>1.016340495115412</v>
       </c>
       <c r="D21">
-        <v>0.9995400681814182</v>
+        <v>1.0269333625058</v>
       </c>
       <c r="E21">
-        <v>0.9841604326825492</v>
+        <v>1.017978633816372</v>
       </c>
       <c r="F21">
-        <v>0.9958404476292105</v>
+        <v>1.034481979320044</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036308131716269</v>
+        <v>1.028885869759965</v>
       </c>
       <c r="J21">
-        <v>1.003072299386326</v>
+        <v>1.023071066079246</v>
       </c>
       <c r="K21">
-        <v>1.014530159354367</v>
+        <v>1.030547573107426</v>
       </c>
       <c r="L21">
-        <v>0.9994482352734693</v>
+        <v>1.02162715724635</v>
       </c>
       <c r="M21">
-        <v>1.010901054848222</v>
+        <v>1.03806777609075</v>
       </c>
       <c r="N21">
-        <v>1.00495713942491</v>
+        <v>1.011761710718904</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9692422375011467</v>
+        <v>1.015746836442169</v>
       </c>
       <c r="D22">
-        <v>0.9972566470232074</v>
+        <v>1.026479758224139</v>
       </c>
       <c r="E22">
-        <v>0.9817528498448198</v>
+        <v>1.017479663987628</v>
       </c>
       <c r="F22">
-        <v>0.9928363316813439</v>
+        <v>1.033864300210203</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035642137266715</v>
+        <v>1.028806199734337</v>
       </c>
       <c r="J22">
-        <v>1.001394400635164</v>
+        <v>1.022731834549804</v>
       </c>
       <c r="K22">
-        <v>1.012882646874984</v>
+        <v>1.030226049886843</v>
       </c>
       <c r="L22">
-        <v>0.9976946650789252</v>
+        <v>1.02126180928832</v>
       </c>
       <c r="M22">
-        <v>1.008551050667586</v>
+        <v>1.037581691994325</v>
       </c>
       <c r="N22">
-        <v>1.004389891306809</v>
+        <v>1.01164801187742</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9709078188822781</v>
+        <v>1.016061470711486</v>
       </c>
       <c r="D23">
-        <v>0.998471269653623</v>
+        <v>1.026720175512482</v>
       </c>
       <c r="E23">
-        <v>0.9830331606789886</v>
+        <v>1.01774407089037</v>
       </c>
       <c r="F23">
-        <v>0.9944342639159931</v>
+        <v>1.034191641580542</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035997466246867</v>
+        <v>1.02884855657265</v>
       </c>
       <c r="J23">
-        <v>1.002287301231409</v>
+        <v>1.022911657100851</v>
       </c>
       <c r="K23">
-        <v>1.013759556693556</v>
+        <v>1.030396519309237</v>
       </c>
       <c r="L23">
-        <v>0.9986275945357357</v>
+        <v>1.021455449860317</v>
       </c>
       <c r="M23">
-        <v>1.009801402432843</v>
+        <v>1.037839337426502</v>
       </c>
       <c r="N23">
-        <v>1.004691766174129</v>
+        <v>1.011708286958614</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.977328742893582</v>
+        <v>1.017301819911368</v>
       </c>
       <c r="D24">
-        <v>1.003163147702949</v>
+        <v>1.027667705754268</v>
       </c>
       <c r="E24">
-        <v>0.987986687612767</v>
+        <v>1.018787366058077</v>
       </c>
       <c r="F24">
-        <v>1.000608143361592</v>
+        <v>1.035482604751431</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03734658757544</v>
+        <v>1.029012596582171</v>
       </c>
       <c r="J24">
-        <v>1.005728327236622</v>
+        <v>1.023619827232557</v>
       </c>
       <c r="K24">
-        <v>1.017134941700359</v>
+        <v>1.031067103981928</v>
       </c>
       <c r="L24">
-        <v>1.002228106884866</v>
+        <v>1.022218613736989</v>
       </c>
       <c r="M24">
-        <v>1.014624587731275</v>
+        <v>1.038854472711138</v>
       </c>
       <c r="N24">
-        <v>1.005854851186417</v>
+        <v>1.011945555567789</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9845167020083426</v>
+        <v>1.018744561833891</v>
       </c>
       <c r="D25">
-        <v>1.00843220460361</v>
+        <v>1.028769325430647</v>
       </c>
       <c r="E25">
-        <v>0.9935663228949735</v>
+        <v>1.020002850585036</v>
       </c>
       <c r="F25">
-        <v>1.007545723775496</v>
+        <v>1.036985283241588</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03881282362927</v>
+        <v>1.029197307531388</v>
       </c>
       <c r="J25">
-        <v>1.009576617336894</v>
+        <v>1.024442038927174</v>
       </c>
       <c r="K25">
-        <v>1.02090101665505</v>
+        <v>1.031844115302529</v>
       </c>
       <c r="L25">
-        <v>1.00626534125182</v>
+        <v>1.023105867707583</v>
       </c>
       <c r="M25">
-        <v>1.020028020623635</v>
+        <v>1.040034092170102</v>
       </c>
       <c r="N25">
-        <v>1.007154935099897</v>
+        <v>1.012220815424692</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019897960467196</v>
+        <v>0.9900551298571012</v>
       </c>
       <c r="D2">
-        <v>1.029649569611741</v>
+        <v>1.012503081470144</v>
       </c>
       <c r="E2">
-        <v>1.020976119449794</v>
+        <v>0.9978911225420052</v>
       </c>
       <c r="F2">
-        <v>1.038187441699317</v>
+        <v>1.012910459459164</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029340052793341</v>
+        <v>1.039905613104503</v>
       </c>
       <c r="J2">
-        <v>1.025098124277093</v>
+        <v>1.012537414195882</v>
       </c>
       <c r="K2">
-        <v>1.032462867119074</v>
+        <v>1.023790933891155</v>
       </c>
       <c r="L2">
-        <v>1.023814814373924</v>
+        <v>1.009379915775068</v>
       </c>
       <c r="M2">
-        <v>1.040976189024601</v>
+        <v>1.024192814154552</v>
       </c>
       <c r="N2">
-        <v>1.012440282311641</v>
+        <v>1.008154560285435</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020736951672776</v>
+        <v>0.9939716203951346</v>
       </c>
       <c r="D3">
-        <v>1.030289596716294</v>
+        <v>1.015387052729317</v>
       </c>
       <c r="E3">
-        <v>1.021684971002907</v>
+        <v>1.000963343085978</v>
       </c>
       <c r="F3">
-        <v>1.039062383187478</v>
+        <v>1.016714461824395</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029441030009711</v>
+        <v>1.040656167385331</v>
       </c>
       <c r="J3">
-        <v>1.025574646747839</v>
+        <v>1.014627985173518</v>
       </c>
       <c r="K3">
-        <v>1.032911536577056</v>
+        <v>1.025826767270836</v>
       </c>
       <c r="L3">
-        <v>1.024330287406961</v>
+        <v>1.011583912579486</v>
       </c>
       <c r="M3">
-        <v>1.041660920558679</v>
+        <v>1.027137853156555</v>
       </c>
       <c r="N3">
-        <v>1.012599580062058</v>
+        <v>1.008859961302016</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021280529922716</v>
+        <v>0.9964597679184364</v>
       </c>
       <c r="D4">
-        <v>1.03070413859546</v>
+        <v>1.017221328995056</v>
       </c>
       <c r="E4">
-        <v>1.022144639558881</v>
+        <v>1.002921311360549</v>
       </c>
       <c r="F4">
-        <v>1.039629474038795</v>
+        <v>1.019135688616795</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029505130081039</v>
+        <v>1.041122449091683</v>
       </c>
       <c r="J4">
-        <v>1.025883048816012</v>
+        <v>1.0159544687868</v>
       </c>
       <c r="K4">
-        <v>1.033201570173231</v>
+        <v>1.027116257579396</v>
       </c>
       <c r="L4">
-        <v>1.024664155521476</v>
+        <v>1.012984606134509</v>
       </c>
       <c r="M4">
-        <v>1.042104294687359</v>
+        <v>1.0290085207914</v>
       </c>
       <c r="N4">
-        <v>1.012702628241446</v>
+        <v>1.009307333183257</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021509214954955</v>
+        <v>0.9974950977316965</v>
       </c>
       <c r="D5">
-        <v>1.030878506290211</v>
+        <v>1.017985031604175</v>
       </c>
       <c r="E5">
-        <v>1.022338120418127</v>
+        <v>1.003737477171366</v>
       </c>
       <c r="F5">
-        <v>1.039868103335148</v>
+        <v>1.020144228218842</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029531780474068</v>
+        <v>1.04131390167561</v>
       </c>
       <c r="J5">
-        <v>1.026012714182042</v>
+        <v>1.016505998663923</v>
       </c>
       <c r="K5">
-        <v>1.033323430563874</v>
+        <v>1.027651850044826</v>
       </c>
       <c r="L5">
-        <v>1.024804589533659</v>
+        <v>1.013567528890045</v>
       </c>
       <c r="M5">
-        <v>1.042290760949904</v>
+        <v>1.029786798820527</v>
       </c>
       <c r="N5">
-        <v>1.012745942495637</v>
+        <v>1.009493289935977</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021547621791594</v>
+        <v>0.9976683172075752</v>
       </c>
       <c r="D6">
-        <v>1.030907788868946</v>
+        <v>1.018112830676961</v>
       </c>
       <c r="E6">
-        <v>1.022370620503709</v>
+        <v>1.003874112558393</v>
       </c>
       <c r="F6">
-        <v>1.039908183339641</v>
+        <v>1.020313026551014</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029536237740329</v>
+        <v>1.041345781168931</v>
       </c>
       <c r="J6">
-        <v>1.026034486301041</v>
+        <v>1.016598248429624</v>
       </c>
       <c r="K6">
-        <v>1.033343887330546</v>
+        <v>1.027741401006592</v>
       </c>
       <c r="L6">
-        <v>1.024828173430598</v>
+        <v>1.013665061088295</v>
       </c>
       <c r="M6">
-        <v>1.04232207361481</v>
+        <v>1.029917003427959</v>
       </c>
       <c r="N6">
-        <v>1.012753214713622</v>
+        <v>1.00952439016649</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021283584978021</v>
+        <v>0.9964736435932893</v>
       </c>
       <c r="D7">
-        <v>1.03070646813696</v>
+        <v>1.017231562554443</v>
       </c>
       <c r="E7">
-        <v>1.022147223933778</v>
+        <v>1.002932244100058</v>
       </c>
       <c r="F7">
-        <v>1.039632661736264</v>
+        <v>1.019149201119898</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029505487353829</v>
+        <v>1.041125025169608</v>
       </c>
       <c r="J7">
-        <v>1.025884781360952</v>
+        <v>1.015961862208543</v>
       </c>
       <c r="K7">
-        <v>1.033203198753464</v>
+        <v>1.027123439570006</v>
       </c>
       <c r="L7">
-        <v>1.024666031711279</v>
+        <v>1.012992418263417</v>
       </c>
       <c r="M7">
-        <v>1.042106785978813</v>
+        <v>1.029018951919896</v>
       </c>
       <c r="N7">
-        <v>1.012703207037513</v>
+        <v>1.00930982620161</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020181356633675</v>
+        <v>0.9913884807289857</v>
       </c>
       <c r="D8">
-        <v>1.029865785518977</v>
+        <v>1.013484448110238</v>
       </c>
       <c r="E8">
-        <v>1.021215472203944</v>
+        <v>0.9989357268433953</v>
       </c>
       <c r="F8">
-        <v>1.038482935369966</v>
+        <v>1.014204541779694</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029374434642699</v>
+        <v>1.040163319744382</v>
       </c>
       <c r="J8">
-        <v>1.025259154057704</v>
+        <v>1.013249468493866</v>
       </c>
       <c r="K8">
-        <v>1.03261455536159</v>
+        <v>1.024484810118835</v>
       </c>
       <c r="L8">
-        <v>1.023988953278713</v>
+        <v>1.010130133710384</v>
       </c>
       <c r="M8">
-        <v>1.041207532639477</v>
+        <v>1.025195480655375</v>
       </c>
       <c r="N8">
-        <v>1.012494123272111</v>
+        <v>1.008394864418217</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018244482362803</v>
+        <v>0.9820585484301873</v>
       </c>
       <c r="D9">
-        <v>1.028387552069025</v>
+        <v>1.006628393937016</v>
       </c>
       <c r="E9">
-        <v>1.019581301251774</v>
+        <v>0.9916540283090886</v>
       </c>
       <c r="F9">
-        <v>1.036464297357059</v>
+        <v>1.005170053294571</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029134043960266</v>
+        <v>1.0383171082305</v>
       </c>
       <c r="J9">
-        <v>1.024157235629213</v>
+        <v>1.008261171421331</v>
       </c>
       <c r="K9">
-        <v>1.031575164254302</v>
+        <v>1.019614837739001</v>
       </c>
       <c r="L9">
-        <v>1.0227983859271</v>
+        <v>1.004883980140386</v>
       </c>
       <c r="M9">
-        <v>1.039625361280612</v>
+        <v>1.018179803224763</v>
       </c>
       <c r="N9">
-        <v>1.012125496347768</v>
+        <v>1.006710625222048</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016956954617543</v>
+        <v>0.975566352809957</v>
       </c>
       <c r="D10">
-        <v>1.027404295361449</v>
+        <v>1.00187388461679</v>
       </c>
       <c r="E10">
-        <v>1.01849713575805</v>
+        <v>0.9866242177573452</v>
       </c>
       <c r="F10">
-        <v>1.03512358290347</v>
+        <v>0.9989113794073032</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028967463872077</v>
+        <v>1.036979724547066</v>
       </c>
       <c r="J10">
-        <v>1.023423046345704</v>
+        <v>1.004784084931289</v>
       </c>
       <c r="K10">
-        <v>1.030880889141335</v>
+        <v>1.016209387723018</v>
       </c>
       <c r="L10">
-        <v>1.022006458162339</v>
+        <v>1.001239249983809</v>
       </c>
       <c r="M10">
-        <v>1.038572315738078</v>
+        <v>1.013300317092562</v>
       </c>
       <c r="N10">
-        <v>1.011879642167419</v>
+        <v>1.005535739774906</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01640034379926</v>
+        <v>0.9726848551134223</v>
       </c>
       <c r="D11">
-        <v>1.026979087032791</v>
+        <v>0.9997683011735596</v>
       </c>
       <c r="E11">
-        <v>1.018028955828821</v>
+        <v>0.9844012356793388</v>
       </c>
       <c r="F11">
-        <v>1.034544260089837</v>
+        <v>0.9961407398235724</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028893842367215</v>
+        <v>1.036374223648163</v>
       </c>
       <c r="J11">
-        <v>1.023105250538981</v>
+        <v>1.003239843096269</v>
       </c>
       <c r="K11">
-        <v>1.030579957965095</v>
+        <v>1.014694588318176</v>
       </c>
       <c r="L11">
-        <v>1.021663985080347</v>
+        <v>0.9996234417447771</v>
       </c>
       <c r="M11">
-        <v>1.038116768718095</v>
+        <v>1.011135804980566</v>
       </c>
       <c r="N11">
-        <v>1.011773166084203</v>
+        <v>1.005013775771823</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016193730167454</v>
+        <v>0.9716034497623913</v>
       </c>
       <c r="D12">
-        <v>1.026821229985531</v>
+        <v>0.9989788621583048</v>
       </c>
       <c r="E12">
-        <v>1.017855245757914</v>
+        <v>0.983568443620217</v>
       </c>
       <c r="F12">
-        <v>1.034329258416296</v>
+        <v>0.995102074667781</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028866272685972</v>
+        <v>1.036145244299027</v>
       </c>
       <c r="J12">
-        <v>1.022987225284883</v>
+        <v>1.002660194207356</v>
       </c>
       <c r="K12">
-        <v>1.03046813422126</v>
+        <v>1.014125651740663</v>
       </c>
       <c r="L12">
-        <v>1.021536842360822</v>
+        <v>0.9990173654202512</v>
       </c>
       <c r="M12">
-        <v>1.037947624421713</v>
+        <v>1.010323716658684</v>
       </c>
       <c r="N12">
-        <v>1.01173361365592</v>
+        <v>1.00481782747536</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016238043294055</v>
+        <v>0.9718359254030507</v>
       </c>
       <c r="D13">
-        <v>1.026855087014997</v>
+        <v>0.9991485361631888</v>
       </c>
       <c r="E13">
-        <v>1.017892498403255</v>
+        <v>0.9837474057993041</v>
       </c>
       <c r="F13">
-        <v>1.034375368618597</v>
+        <v>0.9953253100108911</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028872196573773</v>
+        <v>1.036194547004309</v>
       </c>
       <c r="J13">
-        <v>1.023012541255729</v>
+        <v>1.00278480864566</v>
       </c>
       <c r="K13">
-        <v>1.030492122785631</v>
+        <v>1.0142479782666</v>
       </c>
       <c r="L13">
-        <v>1.021564111850003</v>
+        <v>0.9991476415667188</v>
       </c>
       <c r="M13">
-        <v>1.037983903425929</v>
+        <v>1.010498284063386</v>
       </c>
       <c r="N13">
-        <v>1.011742097890214</v>
+        <v>1.004859953948626</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016383262259935</v>
+        <v>0.972595695147527</v>
       </c>
       <c r="D14">
-        <v>1.026966036790311</v>
+        <v>0.9997031972123421</v>
       </c>
       <c r="E14">
-        <v>1.018014592956325</v>
+        <v>0.9843325430654516</v>
       </c>
       <c r="F14">
-        <v>1.034526484206714</v>
+        <v>0.9960550803010214</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028891568001731</v>
+        <v>1.03635537977054</v>
       </c>
       <c r="J14">
-        <v>1.023095494154782</v>
+        <v>1.003192053988175</v>
       </c>
       <c r="K14">
-        <v>1.030570715479434</v>
+        <v>1.014647689182824</v>
       </c>
       <c r="L14">
-        <v>1.021653474047984</v>
+        <v>0.9995734649537839</v>
       </c>
       <c r="M14">
-        <v>1.038102785838229</v>
+        <v>1.011068844561555</v>
       </c>
       <c r="N14">
-        <v>1.01176989671579</v>
+        <v>1.004997621281698</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016472754581593</v>
+        <v>0.9730623288438436</v>
       </c>
       <c r="D15">
-        <v>1.027034407829936</v>
+        <v>1.000043961645187</v>
       </c>
       <c r="E15">
-        <v>1.018089845043767</v>
+        <v>0.9846921180181898</v>
       </c>
       <c r="F15">
-        <v>1.034619616031384</v>
+        <v>0.9965034404844042</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028903473798167</v>
+        <v>1.036453931753342</v>
       </c>
       <c r="J15">
-        <v>1.023146606631422</v>
+        <v>1.003442162249156</v>
       </c>
       <c r="K15">
-        <v>1.030619133175978</v>
+        <v>1.01489312596658</v>
       </c>
       <c r="L15">
-        <v>1.021708541971621</v>
+        <v>0.9998350404215426</v>
       </c>
       <c r="M15">
-        <v>1.038176042033939</v>
+        <v>1.011419303223297</v>
       </c>
       <c r="N15">
-        <v>1.011787024176576</v>
+        <v>1.00508216622133</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016993914085086</v>
+        <v>0.9757560626286271</v>
       </c>
       <c r="D16">
-        <v>1.02743252675076</v>
+        <v>1.002012613556343</v>
       </c>
       <c r="E16">
-        <v>1.01852823425332</v>
+        <v>0.9867707746752342</v>
       </c>
       <c r="F16">
-        <v>1.035162056429558</v>
+        <v>0.9990939454642174</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028972318527079</v>
+        <v>1.037019344731341</v>
       </c>
       <c r="J16">
-        <v>1.023444139896915</v>
+        <v>1.004885736611043</v>
       </c>
       <c r="K16">
-        <v>1.03090085463495</v>
+        <v>1.016309053273053</v>
       </c>
       <c r="L16">
-        <v>1.022029196296471</v>
+        <v>1.00134567300346</v>
       </c>
       <c r="M16">
-        <v>1.038602558074046</v>
+        <v>1.013442852386655</v>
       </c>
       <c r="N16">
-        <v>1.011886708261955</v>
+        <v>1.005570095339367</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017321065016423</v>
+        <v>0.9774265815477136</v>
       </c>
       <c r="D17">
-        <v>1.027682404359285</v>
+        <v>1.003234752229809</v>
       </c>
       <c r="E17">
-        <v>1.018803565791142</v>
+        <v>0.9880623884496879</v>
       </c>
       <c r="F17">
-        <v>1.035502641777558</v>
+        <v>1.000702387376946</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029015104231072</v>
+        <v>1.037366873672465</v>
       </c>
       <c r="J17">
-        <v>1.023630805811332</v>
+        <v>1.005780740096859</v>
       </c>
       <c r="K17">
-        <v>1.031077490259764</v>
+        <v>1.017186301247756</v>
       </c>
       <c r="L17">
-        <v>1.022230452231281</v>
+        <v>1.002283015642014</v>
       </c>
       <c r="M17">
-        <v>1.038870216314844</v>
+        <v>1.014698112396327</v>
       </c>
       <c r="N17">
-        <v>1.011949232542669</v>
+        <v>1.00587256320194</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017511973077142</v>
+        <v>0.9783942176148948</v>
       </c>
       <c r="D18">
-        <v>1.027828206519167</v>
+        <v>1.003943105374924</v>
       </c>
       <c r="E18">
-        <v>1.018964284515874</v>
+        <v>0.9888114409936142</v>
       </c>
       <c r="F18">
-        <v>1.03570141658138</v>
+        <v>1.001634747836997</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029039916481963</v>
+        <v>1.037567040958919</v>
       </c>
       <c r="J18">
-        <v>1.023739695697804</v>
+        <v>1.006299069420842</v>
       </c>
       <c r="K18">
-        <v>1.031180489264771</v>
+        <v>1.017694121039665</v>
       </c>
       <c r="L18">
-        <v>1.022347883470655</v>
+        <v>1.002826139393103</v>
       </c>
       <c r="M18">
-        <v>1.03902637807931</v>
+        <v>1.015425322940779</v>
       </c>
       <c r="N18">
-        <v>1.011985699974793</v>
+        <v>1.006047716638058</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017577082407897</v>
+        <v>0.9787230270354919</v>
       </c>
       <c r="D19">
-        <v>1.027877930182708</v>
+        <v>1.004183880897845</v>
       </c>
       <c r="E19">
-        <v>1.019019106168512</v>
+        <v>0.9890661242911475</v>
       </c>
       <c r="F19">
-        <v>1.035769213459105</v>
+        <v>1.00195168453093</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029048352385719</v>
+        <v>1.037634864930671</v>
       </c>
       <c r="J19">
-        <v>1.023776826130829</v>
+        <v>1.006475184023866</v>
       </c>
       <c r="K19">
-        <v>1.031215604206528</v>
+        <v>1.017866625826222</v>
       </c>
       <c r="L19">
-        <v>1.022387931579748</v>
+        <v>1.00301072495505</v>
       </c>
       <c r="M19">
-        <v>1.039079632147351</v>
+        <v>1.015672451133613</v>
       </c>
       <c r="N19">
-        <v>1.011998134086123</v>
+        <v>1.006107226206007</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017285955863254</v>
+        <v>0.977248052466651</v>
       </c>
       <c r="D20">
-        <v>1.027655589384018</v>
+        <v>1.003104095803263</v>
       </c>
       <c r="E20">
-        <v>1.018774012638958</v>
+        <v>0.9879242599485794</v>
       </c>
       <c r="F20">
-        <v>1.035466088062873</v>
+        <v>1.000530421389497</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029010528612146</v>
+        <v>1.037329850598561</v>
       </c>
       <c r="J20">
-        <v>1.023610777197228</v>
+        <v>1.005685100260383</v>
       </c>
       <c r="K20">
-        <v>1.031058541977073</v>
+        <v>1.017092582148838</v>
       </c>
       <c r="L20">
-        <v>1.022208855013845</v>
+        <v>1.002182822993896</v>
       </c>
       <c r="M20">
-        <v>1.038841494840314</v>
+        <v>1.01456395038447</v>
       </c>
       <c r="N20">
-        <v>1.011942524474551</v>
+        <v>1.005840243285409</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016340495115412</v>
+        <v>0.9723722723508954</v>
       </c>
       <c r="D21">
-        <v>1.0269333625058</v>
+        <v>0.9995400681814185</v>
       </c>
       <c r="E21">
-        <v>1.017978633816372</v>
+        <v>0.9841604326825496</v>
       </c>
       <c r="F21">
-        <v>1.034481979320044</v>
+        <v>0.995840447629211</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028885869759965</v>
+        <v>1.036308131716269</v>
       </c>
       <c r="J21">
-        <v>1.023071066079246</v>
+        <v>1.003072299386326</v>
       </c>
       <c r="K21">
-        <v>1.030547573107426</v>
+        <v>1.014530159354367</v>
       </c>
       <c r="L21">
-        <v>1.02162715724635</v>
+        <v>0.9994482352734697</v>
       </c>
       <c r="M21">
-        <v>1.03806777609075</v>
+        <v>1.010901054848222</v>
       </c>
       <c r="N21">
-        <v>1.011761710718904</v>
+        <v>1.00495713942491</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015746836442169</v>
+        <v>0.969242237501146</v>
       </c>
       <c r="D22">
-        <v>1.026479758224139</v>
+        <v>0.9972566470232067</v>
       </c>
       <c r="E22">
-        <v>1.017479663987628</v>
+        <v>0.9817528498448191</v>
       </c>
       <c r="F22">
-        <v>1.033864300210203</v>
+        <v>0.9928363316813429</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028806199734337</v>
+        <v>1.035642137266715</v>
       </c>
       <c r="J22">
-        <v>1.022731834549804</v>
+        <v>1.001394400635164</v>
       </c>
       <c r="K22">
-        <v>1.030226049886843</v>
+        <v>1.012882646874983</v>
       </c>
       <c r="L22">
-        <v>1.02126180928832</v>
+        <v>0.9976946650789246</v>
       </c>
       <c r="M22">
-        <v>1.037581691994325</v>
+        <v>1.008551050667585</v>
       </c>
       <c r="N22">
-        <v>1.01164801187742</v>
+        <v>1.004389891306808</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>1.016061470711486</v>
+        <v>0.9709078188822781</v>
       </c>
       <c r="D23">
-        <v>1.026720175512482</v>
+        <v>0.9984712696536232</v>
       </c>
       <c r="E23">
-        <v>1.01774407089037</v>
+        <v>0.9830331606789884</v>
       </c>
       <c r="F23">
-        <v>1.034191641580542</v>
+        <v>0.9944342639159931</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02884855657265</v>
+        <v>1.035997466246867</v>
       </c>
       <c r="J23">
-        <v>1.022911657100851</v>
+        <v>1.002287301231409</v>
       </c>
       <c r="K23">
-        <v>1.030396519309237</v>
+        <v>1.013759556693556</v>
       </c>
       <c r="L23">
-        <v>1.021455449860317</v>
+        <v>0.9986275945357356</v>
       </c>
       <c r="M23">
-        <v>1.037839337426502</v>
+        <v>1.009801402432843</v>
       </c>
       <c r="N23">
-        <v>1.011708286958614</v>
+        <v>1.004691766174129</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017301819911368</v>
+        <v>0.977328742893582</v>
       </c>
       <c r="D24">
-        <v>1.027667705754268</v>
+        <v>1.00316314770295</v>
       </c>
       <c r="E24">
-        <v>1.018787366058077</v>
+        <v>0.9879866876127672</v>
       </c>
       <c r="F24">
-        <v>1.035482604751431</v>
+        <v>1.000608143361592</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029012596582171</v>
+        <v>1.03734658757544</v>
       </c>
       <c r="J24">
-        <v>1.023619827232557</v>
+        <v>1.005728327236622</v>
       </c>
       <c r="K24">
-        <v>1.031067103981928</v>
+        <v>1.01713494170036</v>
       </c>
       <c r="L24">
-        <v>1.022218613736989</v>
+        <v>1.002228106884866</v>
       </c>
       <c r="M24">
-        <v>1.038854472711138</v>
+        <v>1.014624587731275</v>
       </c>
       <c r="N24">
-        <v>1.011945555567789</v>
+        <v>1.005854851186417</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018744561833891</v>
+        <v>0.9845167020083414</v>
       </c>
       <c r="D25">
-        <v>1.028769325430647</v>
+        <v>1.008432204603609</v>
       </c>
       <c r="E25">
-        <v>1.020002850585036</v>
+        <v>0.9935663228949725</v>
       </c>
       <c r="F25">
-        <v>1.036985283241588</v>
+        <v>1.007545723775494</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029197307531388</v>
+        <v>1.038812823629269</v>
       </c>
       <c r="J25">
-        <v>1.024442038927174</v>
+        <v>1.009576617336893</v>
       </c>
       <c r="K25">
-        <v>1.031844115302529</v>
+        <v>1.020901016655048</v>
       </c>
       <c r="L25">
-        <v>1.023105867707583</v>
+        <v>1.006265341251819</v>
       </c>
       <c r="M25">
-        <v>1.040034092170102</v>
+        <v>1.020028020623634</v>
       </c>
       <c r="N25">
-        <v>1.012220815424692</v>
+        <v>1.007154935099897</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9900551298571012</v>
+        <v>1.016359771657222</v>
       </c>
       <c r="D2">
-        <v>1.012503081470144</v>
+        <v>1.035694591618925</v>
       </c>
       <c r="E2">
-        <v>0.9978911225420052</v>
+        <v>1.020489655624471</v>
       </c>
       <c r="F2">
-        <v>1.012910459459164</v>
+        <v>1.042129764869363</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039905613104503</v>
+        <v>1.051007361842993</v>
       </c>
       <c r="J2">
-        <v>1.012537414195882</v>
+        <v>1.038061937484863</v>
       </c>
       <c r="K2">
-        <v>1.023790933891155</v>
+        <v>1.046678071597926</v>
       </c>
       <c r="L2">
-        <v>1.009379915775068</v>
+        <v>1.031670730568732</v>
       </c>
       <c r="M2">
-        <v>1.024192814154552</v>
+        <v>1.053031783292143</v>
       </c>
       <c r="N2">
-        <v>1.008154560285435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016284141681055</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.050543420992182</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044075710454347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9939716203951346</v>
+        <v>1.020158686974965</v>
       </c>
       <c r="D3">
-        <v>1.015387052729317</v>
+        <v>1.038207033836048</v>
       </c>
       <c r="E3">
-        <v>1.000963343085978</v>
+        <v>1.023496642431366</v>
       </c>
       <c r="F3">
-        <v>1.016714461824395</v>
+        <v>1.044664654356485</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040656167385331</v>
+        <v>1.051955804901684</v>
       </c>
       <c r="J3">
-        <v>1.014627985173518</v>
+        <v>1.040114494174336</v>
       </c>
       <c r="K3">
-        <v>1.025826767270836</v>
+        <v>1.048373318120568</v>
       </c>
       <c r="L3">
-        <v>1.011583912579486</v>
+        <v>1.033837453597436</v>
       </c>
       <c r="M3">
-        <v>1.027137853156555</v>
+        <v>1.054756241408988</v>
       </c>
       <c r="N3">
-        <v>1.008859961302016</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016995541844176</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.05190819405219</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.045271734609557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9964597679184364</v>
+        <v>1.022574940300998</v>
       </c>
       <c r="D4">
-        <v>1.017221328995056</v>
+        <v>1.039809683553702</v>
       </c>
       <c r="E4">
-        <v>1.002921311360549</v>
+        <v>1.025414751785662</v>
       </c>
       <c r="F4">
-        <v>1.019135688616795</v>
+        <v>1.046284292025943</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041122449091683</v>
+        <v>1.052552059421885</v>
       </c>
       <c r="J4">
-        <v>1.0159544687868</v>
+        <v>1.041418289381439</v>
       </c>
       <c r="K4">
-        <v>1.027116257579396</v>
+        <v>1.049450257471234</v>
       </c>
       <c r="L4">
-        <v>1.012984606134509</v>
+        <v>1.035215822253395</v>
       </c>
       <c r="M4">
-        <v>1.0290085207914</v>
+        <v>1.055854443271489</v>
       </c>
       <c r="N4">
-        <v>1.009307333183257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017447248343522</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.052777333216504</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.046034100168142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9974950977316965</v>
+        <v>1.023584804808498</v>
       </c>
       <c r="D5">
-        <v>1.017985031604175</v>
+        <v>1.040482597934878</v>
       </c>
       <c r="E5">
-        <v>1.003737477171366</v>
+        <v>1.0262182087897</v>
       </c>
       <c r="F5">
-        <v>1.020144228218842</v>
+        <v>1.04696363020888</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04131390167561</v>
+        <v>1.052801217612263</v>
       </c>
       <c r="J5">
-        <v>1.016505998663923</v>
+        <v>1.041964433580393</v>
       </c>
       <c r="K5">
-        <v>1.027651850044826</v>
+        <v>1.04990281904239</v>
       </c>
       <c r="L5">
-        <v>1.013567528890045</v>
+        <v>1.03579324118024</v>
       </c>
       <c r="M5">
-        <v>1.029786798820527</v>
+        <v>1.056315217172794</v>
       </c>
       <c r="N5">
-        <v>1.009493289935977</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017636891964906</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.05314199870209</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046361203887559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9976683172075752</v>
+        <v>1.023758439532117</v>
       </c>
       <c r="D6">
-        <v>1.018112830676961</v>
+        <v>1.040600804961979</v>
       </c>
       <c r="E6">
-        <v>1.003874112558393</v>
+        <v>1.026357021098188</v>
       </c>
       <c r="F6">
-        <v>1.020313026551014</v>
+        <v>1.047081373201707</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041345781168931</v>
+        <v>1.05284598308607</v>
       </c>
       <c r="J6">
-        <v>1.016598248429624</v>
+        <v>1.042060333188006</v>
       </c>
       <c r="K6">
-        <v>1.027741401006592</v>
+        <v>1.049984009768668</v>
       </c>
       <c r="L6">
-        <v>1.013665061088295</v>
+        <v>1.035894105916923</v>
       </c>
       <c r="M6">
-        <v>1.029917003427959</v>
+        <v>1.05639626017354</v>
       </c>
       <c r="N6">
-        <v>1.00952439016649</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017670767992601</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.053206137701143</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046427281558726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9964736435932893</v>
+        <v>1.022600978250591</v>
       </c>
       <c r="D7">
-        <v>1.017231562554443</v>
+        <v>1.039833580338886</v>
       </c>
       <c r="E7">
-        <v>1.002932244100058</v>
+        <v>1.025437065857161</v>
       </c>
       <c r="F7">
-        <v>1.019149201119898</v>
+        <v>1.046304041040612</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041125025169608</v>
+        <v>1.052563947624005</v>
       </c>
       <c r="J7">
-        <v>1.015961862208543</v>
+        <v>1.041437814243198</v>
       </c>
       <c r="K7">
-        <v>1.027123439570006</v>
+        <v>1.049471044076642</v>
       </c>
       <c r="L7">
-        <v>1.012992418263417</v>
+        <v>1.035234981474223</v>
       </c>
       <c r="M7">
-        <v>1.029018951919896</v>
+        <v>1.055871154219453</v>
       </c>
       <c r="N7">
-        <v>1.00930982620161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017455605867455</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.052790558590938</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.046068740745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9913884807289857</v>
+        <v>1.017668281866831</v>
       </c>
       <c r="D8">
-        <v>1.013484448110238</v>
+        <v>1.036567158369351</v>
       </c>
       <c r="E8">
-        <v>0.9989357268433953</v>
+        <v>1.021526328946464</v>
       </c>
       <c r="F8">
-        <v>1.014204541779694</v>
+        <v>1.043004143379467</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040163319744382</v>
+        <v>1.051342301911862</v>
       </c>
       <c r="J8">
-        <v>1.013249468493866</v>
+        <v>1.038776090530173</v>
       </c>
       <c r="K8">
-        <v>1.024484810118835</v>
+        <v>1.047273578404744</v>
       </c>
       <c r="L8">
-        <v>1.010130133710384</v>
+        <v>1.032422398250461</v>
       </c>
       <c r="M8">
-        <v>1.025195480655375</v>
+        <v>1.053631477756258</v>
       </c>
       <c r="N8">
-        <v>1.008394864418217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016533772298822</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.051018032307482</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044519508100342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9820585484301873</v>
+        <v>1.008621107543094</v>
       </c>
       <c r="D9">
-        <v>1.006628393937016</v>
+        <v>1.030604202080957</v>
       </c>
       <c r="E9">
-        <v>0.9916540283090886</v>
+        <v>1.014396332497119</v>
       </c>
       <c r="F9">
-        <v>1.005170053294571</v>
+        <v>1.0370084347335</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0383171082305</v>
+        <v>1.049038882858012</v>
       </c>
       <c r="J9">
-        <v>1.008261171421331</v>
+        <v>1.033873062684308</v>
       </c>
       <c r="K9">
-        <v>1.019614837739001</v>
+        <v>1.043219521867806</v>
       </c>
       <c r="L9">
-        <v>1.004883980140386</v>
+        <v>1.027260078847077</v>
       </c>
       <c r="M9">
-        <v>1.018179803224763</v>
+        <v>1.049528313543302</v>
       </c>
       <c r="N9">
-        <v>1.006710625222048</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014831763511542</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.047770692365901</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.04164990698401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.975566352809957</v>
+        <v>1.002404554466109</v>
       </c>
       <c r="D10">
-        <v>1.00187388461679</v>
+        <v>1.026565447667956</v>
       </c>
       <c r="E10">
-        <v>0.9866242177573452</v>
+        <v>1.009538536104924</v>
       </c>
       <c r="F10">
-        <v>0.9989113794073032</v>
+        <v>1.033024712975773</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036979724547066</v>
+        <v>1.047450317743937</v>
       </c>
       <c r="J10">
-        <v>1.004784084931289</v>
+        <v>1.030523094159037</v>
       </c>
       <c r="K10">
-        <v>1.016209387723018</v>
+        <v>1.04047106731468</v>
       </c>
       <c r="L10">
-        <v>1.001239249983809</v>
+        <v>1.023737678867947</v>
       </c>
       <c r="M10">
-        <v>1.013300317092562</v>
+        <v>1.046822242620981</v>
       </c>
       <c r="N10">
-        <v>1.005535739774906</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013676175213414</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.045680029660907</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.039723307744972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9726848551134223</v>
+        <v>1.000117684497693</v>
       </c>
       <c r="D11">
-        <v>0.9997683011735596</v>
+        <v>1.02531610370085</v>
       </c>
       <c r="E11">
-        <v>0.9844012356793388</v>
+        <v>1.007827421568376</v>
       </c>
       <c r="F11">
-        <v>0.9961407398235724</v>
+        <v>1.03230338594708</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036374223648163</v>
+        <v>1.047078100464576</v>
       </c>
       <c r="J11">
-        <v>1.003239843096269</v>
+        <v>1.029485568476628</v>
       </c>
       <c r="K11">
-        <v>1.014694588318176</v>
+        <v>1.039775882376866</v>
       </c>
       <c r="L11">
-        <v>0.9996234417447771</v>
+        <v>1.022603218589422</v>
       </c>
       <c r="M11">
-        <v>1.011135804980566</v>
+        <v>1.046640779799992</v>
       </c>
       <c r="N11">
-        <v>1.005013775771823</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013382714084312</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.045968892521762</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.039264442444237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9716034497623913</v>
+        <v>0.9994188031503383</v>
       </c>
       <c r="D12">
-        <v>0.9989788621583048</v>
+        <v>1.025026220476285</v>
       </c>
       <c r="E12">
-        <v>0.983568443620217</v>
+        <v>1.007335841891418</v>
       </c>
       <c r="F12">
-        <v>0.995102074667781</v>
+        <v>1.032395671972324</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036145244299027</v>
+        <v>1.04705343472582</v>
       </c>
       <c r="J12">
-        <v>1.002660194207356</v>
+        <v>1.029247780654715</v>
       </c>
       <c r="K12">
-        <v>1.014125651740663</v>
+        <v>1.039689166425982</v>
       </c>
       <c r="L12">
-        <v>0.9990173654202512</v>
+        <v>1.022323835458264</v>
       </c>
       <c r="M12">
-        <v>1.010323716658684</v>
+        <v>1.046927471145809</v>
       </c>
       <c r="N12">
-        <v>1.00481782747536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013351960162674</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.046519451097816</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039203132121782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9718359254030507</v>
+        <v>0.9999127608827845</v>
       </c>
       <c r="D13">
-        <v>0.9991485361631888</v>
+        <v>1.025475799239522</v>
       </c>
       <c r="E13">
-        <v>0.9837474057993041</v>
+        <v>1.007763501694791</v>
       </c>
       <c r="F13">
-        <v>0.9953253100108911</v>
+        <v>1.033147607336068</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036194547004309</v>
+        <v>1.047310420212736</v>
       </c>
       <c r="J13">
-        <v>1.00278480864566</v>
+        <v>1.029628178738234</v>
       </c>
       <c r="K13">
-        <v>1.0142479782666</v>
+        <v>1.04008822211601</v>
       </c>
       <c r="L13">
-        <v>0.9991476415667188</v>
+        <v>1.022699921966864</v>
       </c>
       <c r="M13">
-        <v>1.010498284063386</v>
+        <v>1.047624163465616</v>
       </c>
       <c r="N13">
-        <v>1.004859953948626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013529807429768</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.047344996567745</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.039482796472516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.972595695147527</v>
+        <v>1.000799203619805</v>
       </c>
       <c r="D14">
-        <v>0.9997031972123421</v>
+        <v>1.026125695342201</v>
       </c>
       <c r="E14">
-        <v>0.9843325430654516</v>
+        <v>1.008479555387095</v>
       </c>
       <c r="F14">
-        <v>0.9960550803010214</v>
+        <v>1.033971525787652</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03635537977054</v>
+        <v>1.047617479230446</v>
       </c>
       <c r="J14">
-        <v>1.003192053988175</v>
+        <v>1.030174379137973</v>
       </c>
       <c r="K14">
-        <v>1.014647689182824</v>
+        <v>1.040587528823631</v>
       </c>
       <c r="L14">
-        <v>0.9995734649537839</v>
+        <v>1.023260073515864</v>
       </c>
       <c r="M14">
-        <v>1.011068844561555</v>
+        <v>1.048296185484428</v>
       </c>
       <c r="N14">
-        <v>1.004997621281698</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013748910224855</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.048048439126298</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.039837234844459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9730623288438436</v>
+        <v>1.001280947650862</v>
       </c>
       <c r="D15">
-        <v>1.000043961645187</v>
+        <v>1.02645503711786</v>
       </c>
       <c r="E15">
-        <v>0.9846921180181898</v>
+        <v>1.00886026561944</v>
       </c>
       <c r="F15">
-        <v>0.9965034404844042</v>
+        <v>1.034334418538711</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036453931753342</v>
+        <v>1.04775968489044</v>
       </c>
       <c r="J15">
-        <v>1.003442162249156</v>
+        <v>1.030449767655734</v>
       </c>
       <c r="K15">
-        <v>1.01489312596658</v>
+        <v>1.040825463568111</v>
       </c>
       <c r="L15">
-        <v>0.9998350404215426</v>
+        <v>1.023545992382958</v>
       </c>
       <c r="M15">
-        <v>1.011419303223297</v>
+        <v>1.048568140987423</v>
       </c>
       <c r="N15">
-        <v>1.00508216622133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013850937460168</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.048300710789508</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.040011295304504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9757560626286271</v>
+        <v>1.003817479164401</v>
       </c>
       <c r="D16">
-        <v>1.002012613556343</v>
+        <v>1.028084413096098</v>
       </c>
       <c r="E16">
-        <v>0.9867707746752342</v>
+        <v>1.01082835111409</v>
       </c>
       <c r="F16">
-        <v>0.9990939454642174</v>
+        <v>1.035913649727836</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037019344731341</v>
+        <v>1.048398626290975</v>
       </c>
       <c r="J16">
-        <v>1.004885736611043</v>
+        <v>1.031804147824117</v>
       </c>
       <c r="K16">
-        <v>1.016309053273053</v>
+        <v>1.041929211630547</v>
       </c>
       <c r="L16">
-        <v>1.00134567300346</v>
+        <v>1.024968698711969</v>
       </c>
       <c r="M16">
-        <v>1.013442852386655</v>
+        <v>1.049628531362126</v>
       </c>
       <c r="N16">
-        <v>1.005570095339367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014309422011278</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.049100361221948</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040794821227585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9774265815477136</v>
+        <v>1.005301989205021</v>
       </c>
       <c r="D17">
-        <v>1.003234752229809</v>
+        <v>1.028996361774347</v>
       </c>
       <c r="E17">
-        <v>0.9880623884496879</v>
+        <v>1.011967054890188</v>
       </c>
       <c r="F17">
-        <v>1.000702387376946</v>
+        <v>1.036689508635032</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037366873672465</v>
+        <v>1.048726533828486</v>
       </c>
       <c r="J17">
-        <v>1.005780740096859</v>
+        <v>1.032557933530759</v>
       </c>
       <c r="K17">
-        <v>1.017186301247756</v>
+        <v>1.042514388833571</v>
       </c>
       <c r="L17">
-        <v>1.002283015642014</v>
+        <v>1.025768462097936</v>
       </c>
       <c r="M17">
-        <v>1.014698112396327</v>
+        <v>1.050083430280219</v>
       </c>
       <c r="N17">
-        <v>1.00587256320194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014546569405374</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.049331715821687</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.041211129123699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9783942176148948</v>
+        <v>1.006005619139243</v>
       </c>
       <c r="D18">
-        <v>1.003943105374924</v>
+        <v>1.029346711943718</v>
       </c>
       <c r="E18">
-        <v>0.9888114409936142</v>
+        <v>1.012481011711517</v>
       </c>
       <c r="F18">
-        <v>1.001634747836997</v>
+        <v>1.036787781544594</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037567040958919</v>
+        <v>1.048800622944787</v>
       </c>
       <c r="J18">
-        <v>1.006299069420842</v>
+        <v>1.032843645724134</v>
       </c>
       <c r="K18">
-        <v>1.017694121039665</v>
+        <v>1.042677406132931</v>
       </c>
       <c r="L18">
-        <v>1.002826139393103</v>
+        <v>1.026087729088388</v>
       </c>
       <c r="M18">
-        <v>1.015425322940779</v>
+        <v>1.050000349483242</v>
       </c>
       <c r="N18">
-        <v>1.006047716638058</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014605754555884</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.049030059317709</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.041314826999227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9787230270354919</v>
+        <v>1.006013464638682</v>
       </c>
       <c r="D19">
-        <v>1.004183880897845</v>
+        <v>1.029201229376207</v>
       </c>
       <c r="E19">
-        <v>0.9890661242911475</v>
+        <v>1.012440477949444</v>
       </c>
       <c r="F19">
-        <v>1.00195168453093</v>
+        <v>1.036273463843521</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037634864930671</v>
+        <v>1.048655022892035</v>
       </c>
       <c r="J19">
-        <v>1.006475184023866</v>
+        <v>1.032717888892449</v>
       </c>
       <c r="K19">
-        <v>1.017866625826222</v>
+        <v>1.042472308471662</v>
       </c>
       <c r="L19">
-        <v>1.00301072495505</v>
+        <v>1.025984462237864</v>
       </c>
       <c r="M19">
-        <v>1.015672451133613</v>
+        <v>1.049432777846484</v>
       </c>
       <c r="N19">
-        <v>1.006107226206007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014514119814547</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.048258397339534</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.041176171544023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.977248052466651</v>
+        <v>1.004049421672874</v>
       </c>
       <c r="D20">
-        <v>1.003104095803263</v>
+        <v>1.027649941300349</v>
       </c>
       <c r="E20">
-        <v>0.9879242599485794</v>
+        <v>1.010826642621515</v>
       </c>
       <c r="F20">
-        <v>1.000530421389497</v>
+        <v>1.034086388064512</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037329850598561</v>
+        <v>1.047888306601467</v>
       </c>
       <c r="J20">
-        <v>1.005685100260383</v>
+        <v>1.031425132441281</v>
       </c>
       <c r="K20">
-        <v>1.017092582148838</v>
+        <v>1.041223420583648</v>
       </c>
       <c r="L20">
-        <v>1.002182822993896</v>
+        <v>1.024681753050886</v>
       </c>
       <c r="M20">
-        <v>1.01456395038447</v>
+        <v>1.04755522831761</v>
       </c>
       <c r="N20">
-        <v>1.005840243285409</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013992462915451</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.046249647276032</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.040297069630265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9723722723508954</v>
+        <v>0.9992932987151484</v>
       </c>
       <c r="D21">
-        <v>0.9995400681814185</v>
+        <v>1.0245234617873</v>
       </c>
       <c r="E21">
-        <v>0.9841604326825496</v>
+        <v>1.007108902803214</v>
       </c>
       <c r="F21">
-        <v>0.995840447629211</v>
+        <v>1.030910354083066</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036308131716269</v>
+        <v>1.046617333967417</v>
       </c>
       <c r="J21">
-        <v>1.003072299386326</v>
+        <v>1.028820596562672</v>
       </c>
       <c r="K21">
-        <v>1.014530159354367</v>
+        <v>1.039054662242303</v>
       </c>
       <c r="L21">
-        <v>0.9994482352734697</v>
+        <v>1.021956834950983</v>
       </c>
       <c r="M21">
-        <v>1.010901054848222</v>
+        <v>1.045328865635126</v>
       </c>
       <c r="N21">
-        <v>1.00495713942491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013081748477658</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.04444713650427</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.038766905248894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,81 +1493,105 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.969242237501146</v>
+        <v>0.9962592350861754</v>
       </c>
       <c r="D22">
-        <v>0.9972566470232067</v>
+        <v>1.022543349089928</v>
       </c>
       <c r="E22">
-        <v>0.9817528498448191</v>
+        <v>1.004746893987561</v>
       </c>
       <c r="F22">
-        <v>0.9928363316813429</v>
+        <v>1.028938546037967</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035642137266715</v>
+        <v>1.045807648933766</v>
       </c>
       <c r="J22">
-        <v>1.001394400635164</v>
+        <v>1.027164496582079</v>
       </c>
       <c r="K22">
-        <v>1.012882646874983</v>
+        <v>1.037681066657282</v>
       </c>
       <c r="L22">
-        <v>0.9976946650789246</v>
+        <v>1.020224896880941</v>
       </c>
       <c r="M22">
-        <v>1.008551050667585</v>
+        <v>1.043957726554348</v>
       </c>
       <c r="N22">
-        <v>1.004389891306808</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.01250420461249</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.043361976947699</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037782289123572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9709078188822781</v>
+        <v>0.9978609940228561</v>
       </c>
       <c r="D23">
-        <v>0.9984712696536232</v>
+        <v>1.023582056958343</v>
       </c>
       <c r="E23">
-        <v>0.9830331606789884</v>
+        <v>1.005991249676365</v>
       </c>
       <c r="F23">
-        <v>0.9944342639159931</v>
+        <v>1.029976382975014</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035997466246867</v>
+        <v>1.046230725816098</v>
       </c>
       <c r="J23">
-        <v>1.002287301231409</v>
+        <v>1.028033780949641</v>
       </c>
       <c r="K23">
-        <v>1.013759556693556</v>
+        <v>1.038398049100393</v>
       </c>
       <c r="L23">
-        <v>0.9986275945357356</v>
+        <v>1.021134862322449</v>
       </c>
       <c r="M23">
-        <v>1.009801402432843</v>
+        <v>1.04467688597003</v>
       </c>
       <c r="N23">
-        <v>1.004691766174129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012805593675035</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.043931140936569</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038279634683971</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.977328742893582</v>
+        <v>1.004064103489652</v>
       </c>
       <c r="D24">
-        <v>1.00316314770295</v>
+        <v>1.02762813701371</v>
       </c>
       <c r="E24">
-        <v>0.9879866876127672</v>
+        <v>1.010829063267155</v>
       </c>
       <c r="F24">
-        <v>1.000608143361592</v>
+        <v>1.034019983988349</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03734658757544</v>
+        <v>1.047863492299179</v>
       </c>
       <c r="J24">
-        <v>1.005728327236622</v>
+        <v>1.031406601664606</v>
       </c>
       <c r="K24">
-        <v>1.01713494170036</v>
+        <v>1.041186842226312</v>
       </c>
       <c r="L24">
-        <v>1.002228106884866</v>
+        <v>1.024668640284105</v>
       </c>
       <c r="M24">
-        <v>1.014624587731275</v>
+        <v>1.047474896651263</v>
       </c>
       <c r="N24">
-        <v>1.005854851186417</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013977728176665</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.046145564963648</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.040243963891558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9845167020083414</v>
+        <v>1.011022253161958</v>
       </c>
       <c r="D25">
-        <v>1.008432204603609</v>
+        <v>1.032192301337298</v>
       </c>
       <c r="E25">
-        <v>0.9935663228949725</v>
+        <v>1.016285955075588</v>
       </c>
       <c r="F25">
-        <v>1.007545723775494</v>
+        <v>1.038595918980384</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038812823629269</v>
+        <v>1.049664975154073</v>
       </c>
       <c r="J25">
-        <v>1.009576617336893</v>
+        <v>1.035184284312703</v>
       </c>
       <c r="K25">
-        <v>1.020901016655048</v>
+        <v>1.044310613254563</v>
       </c>
       <c r="L25">
-        <v>1.006265341251819</v>
+        <v>1.028636605694009</v>
       </c>
       <c r="M25">
-        <v>1.020028020623634</v>
+        <v>1.050623234974753</v>
       </c>
       <c r="N25">
-        <v>1.007154935099897</v>
+        <v>1.015289845337358</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.048637240133332</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.042449758436408</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016359771657222</v>
+        <v>1.01531895583574</v>
       </c>
       <c r="D2">
-        <v>1.035694591618925</v>
+        <v>1.034100330699034</v>
       </c>
       <c r="E2">
-        <v>1.020489655624471</v>
+        <v>1.019613344086285</v>
       </c>
       <c r="F2">
-        <v>1.042129764869363</v>
+        <v>1.041021069819535</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051007361842993</v>
+        <v>1.050286847223399</v>
       </c>
       <c r="J2">
-        <v>1.038061937484863</v>
+        <v>1.037050938162483</v>
       </c>
       <c r="K2">
-        <v>1.046678071597926</v>
+        <v>1.045104187941369</v>
       </c>
       <c r="L2">
-        <v>1.031670730568732</v>
+        <v>1.030806032449849</v>
       </c>
       <c r="M2">
-        <v>1.053031783292143</v>
+        <v>1.051937033400367</v>
       </c>
       <c r="N2">
-        <v>1.016284141681055</v>
+        <v>1.016819244067944</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.050543420992182</v>
+        <v>1.049677011206016</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044075710454347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042971566126582</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023919893029289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020158686974965</v>
+        <v>1.018942751821862</v>
       </c>
       <c r="D3">
-        <v>1.038207033836048</v>
+        <v>1.036414144274295</v>
       </c>
       <c r="E3">
-        <v>1.023496642431366</v>
+        <v>1.02246447918458</v>
       </c>
       <c r="F3">
-        <v>1.044664654356485</v>
+        <v>1.043416104947076</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051955804901684</v>
+        <v>1.051127109209461</v>
       </c>
       <c r="J3">
-        <v>1.040114494174336</v>
+        <v>1.038930008776322</v>
       </c>
       <c r="K3">
-        <v>1.048373318120568</v>
+        <v>1.046601371682504</v>
       </c>
       <c r="L3">
-        <v>1.033837453597436</v>
+        <v>1.032817770240525</v>
       </c>
       <c r="M3">
-        <v>1.054756241408988</v>
+        <v>1.053522045301465</v>
       </c>
       <c r="N3">
-        <v>1.016995541844176</v>
+        <v>1.017334386166579</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.05190819405219</v>
+        <v>1.050931425091714</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045271734609557</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044027269054907</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024229480733643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022574940300998</v>
+        <v>1.021248891675986</v>
       </c>
       <c r="D4">
-        <v>1.039809683553702</v>
+        <v>1.037891247247158</v>
       </c>
       <c r="E4">
-        <v>1.025414751785662</v>
+        <v>1.024284511748354</v>
       </c>
       <c r="F4">
-        <v>1.046284292025943</v>
+        <v>1.04494749753992</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052552059421885</v>
+        <v>1.05165499777849</v>
       </c>
       <c r="J4">
-        <v>1.041418289381439</v>
+        <v>1.040124236005759</v>
       </c>
       <c r="K4">
-        <v>1.049450257471234</v>
+        <v>1.04755289481436</v>
       </c>
       <c r="L4">
-        <v>1.035215822253395</v>
+        <v>1.034098419342577</v>
       </c>
       <c r="M4">
-        <v>1.055854443271489</v>
+        <v>1.054532101073959</v>
       </c>
       <c r="N4">
-        <v>1.017447248343522</v>
+        <v>1.017661748275617</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052777333216504</v>
+        <v>1.05173080473451</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046034100168142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044701038705443</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024423933149103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023584804808498</v>
+        <v>1.022212947024328</v>
       </c>
       <c r="D5">
-        <v>1.040482597934878</v>
+        <v>1.038511867289552</v>
       </c>
       <c r="E5">
-        <v>1.0262182087897</v>
+        <v>1.025047139787891</v>
       </c>
       <c r="F5">
-        <v>1.04696363020888</v>
+        <v>1.04559010750986</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052801217612263</v>
+        <v>1.051875646169579</v>
       </c>
       <c r="J5">
-        <v>1.041964433580393</v>
+        <v>1.040624694940422</v>
       </c>
       <c r="K5">
-        <v>1.04990281904239</v>
+        <v>1.047953166485775</v>
       </c>
       <c r="L5">
-        <v>1.03579324118024</v>
+        <v>1.034635117026879</v>
       </c>
       <c r="M5">
-        <v>1.056315217172794</v>
+        <v>1.054956153190593</v>
       </c>
       <c r="N5">
-        <v>1.017636891964906</v>
+        <v>1.017799281527888</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.05314199870209</v>
+        <v>1.052066408353997</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046361203887559</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044991881287519</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024505729798981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023758439532117</v>
+        <v>1.022378626301216</v>
       </c>
       <c r="D6">
-        <v>1.040600804961979</v>
+        <v>1.038621085401332</v>
       </c>
       <c r="E6">
-        <v>1.026357021098188</v>
+        <v>1.025178845127539</v>
       </c>
       <c r="F6">
-        <v>1.047081373201707</v>
+        <v>1.045701531569239</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05284598308607</v>
+        <v>1.05191546597538</v>
       </c>
       <c r="J6">
-        <v>1.042060333188006</v>
+        <v>1.040712660428876</v>
       </c>
       <c r="K6">
-        <v>1.049984009768668</v>
+        <v>1.048025368446183</v>
       </c>
       <c r="L6">
-        <v>1.035894105916923</v>
+        <v>1.034728893380366</v>
       </c>
       <c r="M6">
-        <v>1.05639626017354</v>
+        <v>1.055030878037859</v>
       </c>
       <c r="N6">
-        <v>1.017670767992601</v>
+        <v>1.017823888777968</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.053206137701143</v>
+        <v>1.052125547128777</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046427281558726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045052472618835</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024521128578366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022600978250591</v>
+        <v>1.021282378553931</v>
       </c>
       <c r="D7">
-        <v>1.039833580338886</v>
+        <v>1.037919946322317</v>
       </c>
       <c r="E7">
-        <v>1.025437065857161</v>
+        <v>1.024313623147248</v>
       </c>
       <c r="F7">
-        <v>1.046304041040612</v>
+        <v>1.044970740960672</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052563947624005</v>
+        <v>1.051670369766071</v>
       </c>
       <c r="J7">
-        <v>1.041437814243198</v>
+        <v>1.040151016002519</v>
       </c>
       <c r="K7">
-        <v>1.049471044076642</v>
+        <v>1.047578422657957</v>
       </c>
       <c r="L7">
-        <v>1.035234981474223</v>
+        <v>1.034124293637893</v>
       </c>
       <c r="M7">
-        <v>1.055871154219453</v>
+        <v>1.054552263136458</v>
       </c>
       <c r="N7">
-        <v>1.017455605867455</v>
+        <v>1.017696385846051</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.052790558590938</v>
+        <v>1.051746761411356</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046068740745</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044741031562894</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024431774417424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017668281866831</v>
+        <v>1.016593926849721</v>
       </c>
       <c r="D8">
-        <v>1.036567158369351</v>
+        <v>1.034923384341311</v>
       </c>
       <c r="E8">
-        <v>1.021526328946464</v>
+        <v>1.020620851769861</v>
       </c>
       <c r="F8">
-        <v>1.043004143379467</v>
+        <v>1.041860960477647</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051342301911862</v>
+        <v>1.050597746475397</v>
       </c>
       <c r="J8">
-        <v>1.038776090530173</v>
+        <v>1.037731485595139</v>
       </c>
       <c r="K8">
-        <v>1.047273578404744</v>
+        <v>1.045650196407004</v>
       </c>
       <c r="L8">
-        <v>1.032422398250461</v>
+        <v>1.031528561241439</v>
       </c>
       <c r="M8">
-        <v>1.053631477756258</v>
+        <v>1.052502251418561</v>
       </c>
       <c r="N8">
-        <v>1.016533772298822</v>
+        <v>1.017086818155404</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.051018032307482</v>
+        <v>1.050124337634962</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044519508100342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04338263240016</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024038042505975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008621107543094</v>
+        <v>1.007976229082848</v>
       </c>
       <c r="D9">
-        <v>1.030604202080957</v>
+        <v>1.029441374533879</v>
       </c>
       <c r="E9">
-        <v>1.014396332497119</v>
+        <v>1.013872674481101</v>
       </c>
       <c r="F9">
-        <v>1.0370084347335</v>
+        <v>1.036204982751398</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049038882858012</v>
+        <v>1.048556948485627</v>
       </c>
       <c r="J9">
-        <v>1.033873062684308</v>
+        <v>1.033250436434652</v>
       </c>
       <c r="K9">
-        <v>1.043219521867806</v>
+        <v>1.042074185890503</v>
       </c>
       <c r="L9">
-        <v>1.027260078847077</v>
+        <v>1.026744616610404</v>
       </c>
       <c r="M9">
-        <v>1.049528313543302</v>
+        <v>1.048736752990838</v>
       </c>
       <c r="N9">
-        <v>1.014831763511542</v>
+        <v>1.01586671071494</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047770692365901</v>
+        <v>1.047144231232244</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.04164990698401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040850758747557</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023284136279714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002404554466109</v>
+        <v>1.00209729041814</v>
       </c>
       <c r="D10">
-        <v>1.026565447667956</v>
+        <v>1.025760651483855</v>
       </c>
       <c r="E10">
-        <v>1.009538536104924</v>
+        <v>1.009314983489976</v>
       </c>
       <c r="F10">
-        <v>1.033024712975773</v>
+        <v>1.032475746888122</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047450317743937</v>
+        <v>1.047167526953362</v>
       </c>
       <c r="J10">
-        <v>1.030523094159037</v>
+        <v>1.030227943627777</v>
       </c>
       <c r="K10">
-        <v>1.04047106731468</v>
+        <v>1.039679861726229</v>
       </c>
       <c r="L10">
-        <v>1.023737678867947</v>
+        <v>1.023518065419629</v>
       </c>
       <c r="M10">
-        <v>1.046822242620981</v>
+        <v>1.046282395265922</v>
       </c>
       <c r="N10">
-        <v>1.013676175213414</v>
+        <v>1.015161374295312</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045680029660907</v>
+        <v>1.045252805781317</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039723307744972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039176228517053</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022778833964134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000117684497693</v>
+        <v>0.9999529352384052</v>
       </c>
       <c r="D11">
-        <v>1.02531610370085</v>
+        <v>1.024643428771128</v>
       </c>
       <c r="E11">
-        <v>1.007827421568376</v>
+        <v>1.007728269280602</v>
       </c>
       <c r="F11">
-        <v>1.03230338594708</v>
+        <v>1.03184863583698</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047078100464576</v>
+        <v>1.046868469508905</v>
       </c>
       <c r="J11">
-        <v>1.029485568476628</v>
+        <v>1.029327672290872</v>
       </c>
       <c r="K11">
-        <v>1.039775882376866</v>
+        <v>1.039115103846273</v>
       </c>
       <c r="L11">
-        <v>1.022603218589422</v>
+        <v>1.022505898734756</v>
       </c>
       <c r="M11">
-        <v>1.046640779799992</v>
+        <v>1.04619392953266</v>
       </c>
       <c r="N11">
-        <v>1.013382714084312</v>
+        <v>1.015190662028588</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045968892521762</v>
+        <v>1.045615439515318</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039264442444237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038812791637913</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022720642488828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9994188031503383</v>
+        <v>0.9992858465946022</v>
       </c>
       <c r="D12">
-        <v>1.025026220476285</v>
+        <v>1.024379828851261</v>
       </c>
       <c r="E12">
-        <v>1.007335841891418</v>
+        <v>1.00726211479346</v>
       </c>
       <c r="F12">
-        <v>1.032395671972324</v>
+        <v>1.031959315883873</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04705343472582</v>
+        <v>1.046855586695881</v>
       </c>
       <c r="J12">
-        <v>1.029247780654715</v>
+        <v>1.029120461457801</v>
       </c>
       <c r="K12">
-        <v>1.039689166425982</v>
+        <v>1.039054394964749</v>
       </c>
       <c r="L12">
-        <v>1.022323835458264</v>
+        <v>1.022251494246588</v>
       </c>
       <c r="M12">
-        <v>1.046927471145809</v>
+        <v>1.046498812801373</v>
       </c>
       <c r="N12">
-        <v>1.013351960162674</v>
+        <v>1.015270848938398</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.046519451097816</v>
+        <v>1.046180500651318</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039203132121782</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03876986979774</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022751169121036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9999127608827845</v>
+        <v>0.9997139449209638</v>
       </c>
       <c r="D13">
-        <v>1.025475799239522</v>
+        <v>1.024765554585186</v>
       </c>
       <c r="E13">
-        <v>1.007763501694791</v>
+        <v>1.007627695834971</v>
       </c>
       <c r="F13">
-        <v>1.033147607336068</v>
+        <v>1.032665062584282</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047310420212736</v>
+        <v>1.047070987397611</v>
       </c>
       <c r="J13">
-        <v>1.029628178738234</v>
+        <v>1.029437750703786</v>
       </c>
       <c r="K13">
-        <v>1.04008822211601</v>
+        <v>1.039390689441418</v>
       </c>
       <c r="L13">
-        <v>1.022699921966864</v>
+        <v>1.02256665774407</v>
       </c>
       <c r="M13">
-        <v>1.047624163465616</v>
+        <v>1.047150087418489</v>
       </c>
       <c r="N13">
-        <v>1.013529807429768</v>
+        <v>1.015364489408899</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.047344996567745</v>
+        <v>1.046970226163491</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.039482796472516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039004913541668</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022857366820352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000799203619805</v>
+        <v>1.00051100251033</v>
       </c>
       <c r="D14">
-        <v>1.026125695342201</v>
+        <v>1.025330868780421</v>
       </c>
       <c r="E14">
-        <v>1.008479555387095</v>
+        <v>1.008261754332453</v>
       </c>
       <c r="F14">
-        <v>1.033971525787652</v>
+        <v>1.03342817531588</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047617479230446</v>
+        <v>1.047325586411227</v>
       </c>
       <c r="J14">
-        <v>1.030174379137973</v>
+        <v>1.029898162319353</v>
       </c>
       <c r="K14">
-        <v>1.040587528823631</v>
+        <v>1.039806750629184</v>
       </c>
       <c r="L14">
-        <v>1.023260073515864</v>
+        <v>1.023046296739033</v>
       </c>
       <c r="M14">
-        <v>1.048296185484428</v>
+        <v>1.047762247899082</v>
       </c>
       <c r="N14">
-        <v>1.013748910224855</v>
+        <v>1.015437773448492</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048048439126298</v>
+        <v>1.047626402860486</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039837234844459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039300628034086</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022966422940807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,105 +1245,123 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001280947650862</v>
+        <v>1.000949995203493</v>
       </c>
       <c r="D15">
-        <v>1.02645503711786</v>
+        <v>1.025620002739966</v>
       </c>
       <c r="E15">
-        <v>1.00886026561944</v>
+        <v>1.008603822615065</v>
       </c>
       <c r="F15">
-        <v>1.034334418538711</v>
+        <v>1.033762278971785</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04775968489044</v>
+        <v>1.047443576867183</v>
       </c>
       <c r="J15">
-        <v>1.030449767655734</v>
+        <v>1.030132456579041</v>
       </c>
       <c r="K15">
-        <v>1.040825463568111</v>
+        <v>1.04000507621315</v>
       </c>
       <c r="L15">
-        <v>1.023545992382958</v>
+        <v>1.023294250799341</v>
       </c>
       <c r="M15">
-        <v>1.048568140987423</v>
+        <v>1.048005837088332</v>
       </c>
       <c r="N15">
-        <v>1.013850937460168</v>
+        <v>1.015464027989597</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.048300710789508</v>
+        <v>1.047856264752624</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.040011295304504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039447251937058</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023012916435615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>1.003817479164401</v>
+        <v>1.003295675572595</v>
       </c>
       <c r="D16">
-        <v>1.028084413096098</v>
+        <v>1.027067799960994</v>
       </c>
       <c r="E16">
-        <v>1.01082835111409</v>
+        <v>1.010402249169713</v>
       </c>
       <c r="F16">
-        <v>1.035913649727836</v>
+        <v>1.035212228152591</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048398626290975</v>
+        <v>1.047977530426285</v>
       </c>
       <c r="J16">
-        <v>1.031804147824117</v>
+        <v>1.031302774514104</v>
       </c>
       <c r="K16">
-        <v>1.041929211630547</v>
+        <v>1.040929655314543</v>
       </c>
       <c r="L16">
-        <v>1.024968698711969</v>
+        <v>1.024550060195868</v>
       </c>
       <c r="M16">
-        <v>1.049628531362126</v>
+        <v>1.048938645955803</v>
       </c>
       <c r="N16">
-        <v>1.014309422011278</v>
+        <v>1.015568464597353</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049100361221948</v>
+        <v>1.048555059153747</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040794821227585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.040104398267856</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023200849188244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005301989205021</v>
+        <v>1.004690816582919</v>
       </c>
       <c r="D17">
-        <v>1.028996361774347</v>
+        <v>1.027891701579812</v>
       </c>
       <c r="E17">
-        <v>1.011967054890188</v>
+        <v>1.01146274508709</v>
       </c>
       <c r="F17">
-        <v>1.036689508635032</v>
+        <v>1.035925744466961</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048726533828486</v>
+        <v>1.048256922078105</v>
       </c>
       <c r="J17">
-        <v>1.032557933530759</v>
+        <v>1.031969919484441</v>
       </c>
       <c r="K17">
-        <v>1.042514388833571</v>
+        <v>1.041427744971817</v>
       </c>
       <c r="L17">
-        <v>1.025768462097936</v>
+        <v>1.02527273222963</v>
       </c>
       <c r="M17">
-        <v>1.050083430280219</v>
+        <v>1.049331881433677</v>
       </c>
       <c r="N17">
-        <v>1.014546569405374</v>
+        <v>1.015640151295858</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.049331715821687</v>
+        <v>1.048737614970116</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041211129123699</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040459379655533</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023289234697549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006005619139243</v>
+        <v>1.005373179405672</v>
       </c>
       <c r="D18">
-        <v>1.029346711943718</v>
+        <v>1.028219510395513</v>
       </c>
       <c r="E18">
-        <v>1.012481011711517</v>
+        <v>1.011960001540965</v>
       </c>
       <c r="F18">
-        <v>1.036787781544594</v>
+        <v>1.036008351736005</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048800622944787</v>
+        <v>1.048321692354791</v>
       </c>
       <c r="J18">
-        <v>1.032843645724134</v>
+        <v>1.032234720151061</v>
       </c>
       <c r="K18">
-        <v>1.042677406132931</v>
+        <v>1.041568290071069</v>
       </c>
       <c r="L18">
-        <v>1.026087729088388</v>
+        <v>1.025575434549177</v>
       </c>
       <c r="M18">
-        <v>1.050000349483242</v>
+        <v>1.049233191210471</v>
       </c>
       <c r="N18">
-        <v>1.014605754555884</v>
+        <v>1.015644644335896</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049030059317709</v>
+        <v>1.048423494484887</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041314826999227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040546054119911</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023288442745877</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006013464638682</v>
+        <v>1.005412745419133</v>
       </c>
       <c r="D19">
-        <v>1.029201229376207</v>
+        <v>1.028104928767145</v>
       </c>
       <c r="E19">
-        <v>1.012440477949444</v>
+        <v>1.011950414058175</v>
       </c>
       <c r="F19">
-        <v>1.036273463843521</v>
+        <v>1.035516274436745</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048655022892035</v>
+        <v>1.048197921939483</v>
       </c>
       <c r="J19">
-        <v>1.032717888892449</v>
+        <v>1.032139372578704</v>
       </c>
       <c r="K19">
-        <v>1.042472308471662</v>
+        <v>1.041393509567592</v>
       </c>
       <c r="L19">
-        <v>1.025984462237864</v>
+        <v>1.025502552958019</v>
       </c>
       <c r="M19">
-        <v>1.049432777846484</v>
+        <v>1.048687461218629</v>
       </c>
       <c r="N19">
-        <v>1.014514119814547</v>
+        <v>1.015574759385163</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.048258397339534</v>
+        <v>1.047668912354439</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041176171544023</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040429459029176</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02321165280446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004049421672874</v>
+        <v>1.003626011388081</v>
       </c>
       <c r="D20">
-        <v>1.027649941300349</v>
+        <v>1.026731795678176</v>
       </c>
       <c r="E20">
-        <v>1.010826642621515</v>
+        <v>1.010498897667219</v>
       </c>
       <c r="F20">
-        <v>1.034086388064512</v>
+        <v>1.033456361794948</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047888306601467</v>
+        <v>1.047539342862473</v>
       </c>
       <c r="J20">
-        <v>1.031425132441281</v>
+        <v>1.031017868423972</v>
       </c>
       <c r="K20">
-        <v>1.041223420583648</v>
+        <v>1.040320338998796</v>
       </c>
       <c r="L20">
-        <v>1.024681753050886</v>
+        <v>1.024359615047501</v>
       </c>
       <c r="M20">
-        <v>1.04755522831761</v>
+        <v>1.046935370686965</v>
       </c>
       <c r="N20">
-        <v>1.013992462915451</v>
+        <v>1.015280598866993</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046249647276032</v>
+        <v>1.045759099124775</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040297069630265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039674986902407</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022917561859155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9992932987151484</v>
+        <v>0.9992621795902945</v>
       </c>
       <c r="D21">
-        <v>1.0245234617873</v>
+        <v>1.023976354852005</v>
       </c>
       <c r="E21">
-        <v>1.007108902803214</v>
+        <v>1.007134685264333</v>
       </c>
       <c r="F21">
-        <v>1.030910354083066</v>
+        <v>1.030546421210875</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046617333967417</v>
+        <v>1.046489378283021</v>
       </c>
       <c r="J21">
-        <v>1.028820596562672</v>
+        <v>1.02879078119419</v>
       </c>
       <c r="K21">
-        <v>1.039054662242303</v>
+        <v>1.038517293188916</v>
       </c>
       <c r="L21">
-        <v>1.021956834950983</v>
+        <v>1.021982137925356</v>
       </c>
       <c r="M21">
-        <v>1.045328865635126</v>
+        <v>1.044971305292789</v>
       </c>
       <c r="N21">
-        <v>1.013081748477658</v>
+        <v>1.015089749725383</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.04444713650427</v>
+        <v>1.044164152950819</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038766905248894</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038403722940707</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022533565833905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9962592350861754</v>
+        <v>0.996476774692531</v>
       </c>
       <c r="D22">
-        <v>1.022543349089928</v>
+        <v>1.022231554163461</v>
       </c>
       <c r="E22">
-        <v>1.004746893987561</v>
+        <v>1.004997029718984</v>
       </c>
       <c r="F22">
-        <v>1.028938546037967</v>
+        <v>1.028743833276214</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045807648933766</v>
+        <v>1.045820014985369</v>
       </c>
       <c r="J22">
-        <v>1.027164496582079</v>
+        <v>1.02737238825032</v>
       </c>
       <c r="K22">
-        <v>1.037681066657282</v>
+        <v>1.037375100447184</v>
       </c>
       <c r="L22">
-        <v>1.020224896880941</v>
+        <v>1.020470140214351</v>
       </c>
       <c r="M22">
-        <v>1.043957726554348</v>
+        <v>1.043766594516591</v>
       </c>
       <c r="N22">
-        <v>1.01250420461249</v>
+        <v>1.014962168075543</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.043361976947699</v>
+        <v>1.043210709336635</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037782289123572</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037581420753221</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022290102847213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9978609940228561</v>
+        <v>0.9979326095570241</v>
       </c>
       <c r="D23">
-        <v>1.023582056958343</v>
+        <v>1.023135367521127</v>
       </c>
       <c r="E23">
-        <v>1.005991249676365</v>
+        <v>1.006109344011903</v>
       </c>
       <c r="F23">
-        <v>1.029976382975014</v>
+        <v>1.029684492470619</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046230725816098</v>
+        <v>1.046161527363724</v>
       </c>
       <c r="J23">
-        <v>1.028033780949641</v>
+        <v>1.028102313971533</v>
       </c>
       <c r="K23">
-        <v>1.038398049100393</v>
+        <v>1.037959497614676</v>
       </c>
       <c r="L23">
-        <v>1.021134862322449</v>
+        <v>1.021250707241134</v>
       </c>
       <c r="M23">
-        <v>1.04467688597003</v>
+        <v>1.044390226769383</v>
       </c>
       <c r="N23">
-        <v>1.012805593675035</v>
+        <v>1.014982104303175</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.043931140936569</v>
+        <v>1.04370427043716</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038279634683971</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037984081541692</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022411597135462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004064103489652</v>
+        <v>1.003644042215117</v>
       </c>
       <c r="D24">
-        <v>1.02762813701371</v>
+        <v>1.026713089744413</v>
       </c>
       <c r="E24">
-        <v>1.010829063267155</v>
+        <v>1.010504707326652</v>
       </c>
       <c r="F24">
-        <v>1.034019983988349</v>
+        <v>1.033392224434719</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047863492299179</v>
+        <v>1.047516997162177</v>
       </c>
       <c r="J24">
-        <v>1.031406601664606</v>
+        <v>1.031002535737338</v>
       </c>
       <c r="K24">
-        <v>1.041186842226312</v>
+        <v>1.040286789714098</v>
       </c>
       <c r="L24">
-        <v>1.024668640284105</v>
+        <v>1.024349826125364</v>
       </c>
       <c r="M24">
-        <v>1.047474896651263</v>
+        <v>1.046857257854545</v>
       </c>
       <c r="N24">
-        <v>1.013977728176665</v>
+        <v>1.015266661370961</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046145564963648</v>
+        <v>1.045656748894608</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040243963891558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039621352111092</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022902426413735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011022253161958</v>
+        <v>1.010250509160478</v>
       </c>
       <c r="D25">
-        <v>1.032192301337298</v>
+        <v>1.030893149048116</v>
       </c>
       <c r="E25">
-        <v>1.016285955075588</v>
+        <v>1.015649212469171</v>
       </c>
       <c r="F25">
-        <v>1.038595918980384</v>
+        <v>1.037695794496262</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049664975154073</v>
+        <v>1.049107118737779</v>
       </c>
       <c r="J25">
-        <v>1.035184284312703</v>
+        <v>1.034437759535384</v>
       </c>
       <c r="K25">
-        <v>1.044310613254563</v>
+        <v>1.04303009669987</v>
       </c>
       <c r="L25">
-        <v>1.028636605694009</v>
+        <v>1.028009356435753</v>
       </c>
       <c r="M25">
-        <v>1.050623234974753</v>
+        <v>1.049735815583112</v>
       </c>
       <c r="N25">
-        <v>1.015289845337358</v>
+        <v>1.016161276604014</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048637240133332</v>
+        <v>1.047934914664766</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042449758436408</v>
+        <v>1.041557832765879</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023489656608227</v>
       </c>
     </row>
   </sheetData>
